--- a/Code/Results/Cases/Case_0_9/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_9/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.8276808531418636</v>
+        <v>0.827680853141861</v>
       </c>
       <c r="D2">
-        <v>0.837100128172915</v>
+        <v>0.8371001281729126</v>
       </c>
       <c r="E2">
-        <v>0.8545056278582428</v>
+        <v>0.8545056278582407</v>
       </c>
       <c r="F2">
-        <v>0.8144928049213883</v>
+        <v>0.8144928049213853</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.014749544060597</v>
+        <v>1.014749544060596</v>
       </c>
       <c r="J2">
-        <v>0.8566022115453199</v>
+        <v>0.8566022115453176</v>
       </c>
       <c r="K2">
-        <v>0.8514168281751727</v>
+        <v>0.8514168281751704</v>
       </c>
       <c r="L2">
-        <v>0.8684482761670932</v>
+        <v>0.868448276167091</v>
       </c>
       <c r="M2">
-        <v>0.8293273863607714</v>
+        <v>0.8293273863607687</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.8714858464015186</v>
+        <v>0.8714858464015173</v>
       </c>
       <c r="D3">
-        <v>0.8801061503931957</v>
+        <v>0.8801061503931945</v>
       </c>
       <c r="E3">
-        <v>0.8930259297338621</v>
+        <v>0.893025929733861</v>
       </c>
       <c r="F3">
-        <v>0.8655190548178342</v>
+        <v>0.8655190548178328</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.023910493651149</v>
       </c>
       <c r="J3">
-        <v>0.8962196639948417</v>
+        <v>0.8962196639948403</v>
       </c>
       <c r="K3">
-        <v>0.8925438376449975</v>
+        <v>0.892543837644996</v>
       </c>
       <c r="L3">
-        <v>0.905239052897736</v>
+        <v>0.9052390528977348</v>
       </c>
       <c r="M3">
-        <v>0.8782207918156837</v>
+        <v>0.8782207918156824</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.8931459784658634</v>
+        <v>0.8931459784658643</v>
       </c>
       <c r="D4">
-        <v>0.901350209926865</v>
+        <v>0.901350209926866</v>
       </c>
       <c r="E4">
-        <v>0.9120803576178759</v>
+        <v>0.9120803576178765</v>
       </c>
       <c r="F4">
-        <v>0.8904051435162452</v>
+        <v>0.8904051435162458</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.028386443206454</v>
       </c>
       <c r="J4">
-        <v>0.9157432978986152</v>
+        <v>0.9157432978986162</v>
       </c>
       <c r="K4">
-        <v>0.9128056449854209</v>
+        <v>0.9128056449854216</v>
       </c>
       <c r="L4">
-        <v>0.9233700647892753</v>
+        <v>0.9233700647892761</v>
       </c>
       <c r="M4">
-        <v>0.902034908029087</v>
+        <v>0.9020349080290877</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9013049738433069</v>
+        <v>0.9013049738433058</v>
       </c>
       <c r="D5">
-        <v>0.909348483568048</v>
+        <v>0.9093484835680467</v>
       </c>
       <c r="E5">
-        <v>0.9192584578242112</v>
+        <v>0.9192584578242103</v>
       </c>
       <c r="F5">
-        <v>0.8997183463225602</v>
+        <v>0.8997183463225595</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +553,16 @@
         <v>1.030056306728836</v>
       </c>
       <c r="J5">
-        <v>0.9230849655250274</v>
+        <v>0.9230849655250263</v>
       </c>
       <c r="K5">
-        <v>0.9204239295361165</v>
+        <v>0.9204239295361153</v>
       </c>
       <c r="L5">
-        <v>0.9301879226613237</v>
+        <v>0.9301879226613229</v>
       </c>
       <c r="M5">
-        <v>0.910939581698227</v>
+        <v>0.9109395816982262</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.902629515457957</v>
+        <v>0.9026295154579548</v>
       </c>
       <c r="D6">
-        <v>0.9106467145964928</v>
+        <v>0.9106467145964907</v>
       </c>
       <c r="E6">
-        <v>0.9204237749868904</v>
+        <v>0.9204237749868882</v>
       </c>
       <c r="F6">
-        <v>0.9012270413377027</v>
+        <v>0.9012270413377013</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.030326381774217</v>
+        <v>1.030326381774216</v>
       </c>
       <c r="J6">
-        <v>0.9242761377616753</v>
+        <v>0.9242761377616732</v>
       </c>
       <c r="K6">
-        <v>0.9216599323292283</v>
+        <v>0.9216599323292263</v>
       </c>
       <c r="L6">
-        <v>0.9312940960381616</v>
+        <v>0.9312940960381595</v>
       </c>
       <c r="M6">
-        <v>0.9123816697932862</v>
+        <v>0.9123816697932847</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.8932582273419866</v>
+        <v>0.8932582273419853</v>
       </c>
       <c r="D7">
-        <v>0.9014602630778723</v>
+        <v>0.9014602630778711</v>
       </c>
       <c r="E7">
-        <v>0.9121791101552978</v>
+        <v>0.9121791101552966</v>
       </c>
       <c r="F7">
-        <v>0.8905335014317175</v>
+        <v>0.8905335014317161</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.028409485399415</v>
+        <v>1.028409485399414</v>
       </c>
       <c r="J7">
-        <v>0.9158443505443167</v>
+        <v>0.9158443505443155</v>
       </c>
       <c r="K7">
-        <v>0.9129105086514341</v>
+        <v>0.9129105086514328</v>
       </c>
       <c r="L7">
-        <v>0.9234639083041277</v>
+        <v>0.9234639083041262</v>
       </c>
       <c r="M7">
-        <v>0.9021576651608804</v>
+        <v>0.9021576651608789</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.8445229333163721</v>
+        <v>0.8445229333163758</v>
       </c>
       <c r="D8">
-        <v>0.8536414289921436</v>
+        <v>0.8536414289921475</v>
       </c>
       <c r="E8">
-        <v>0.8693128185082264</v>
+        <v>0.8693128185082297</v>
       </c>
       <c r="F8">
-        <v>0.834220879021949</v>
+        <v>0.8342208790219523</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.018281480673568</v>
       </c>
       <c r="J8">
-        <v>0.8718541746961666</v>
+        <v>0.8718541746961704</v>
       </c>
       <c r="K8">
-        <v>0.8672518325396967</v>
+        <v>0.8672518325397003</v>
       </c>
       <c r="L8">
-        <v>0.8826116982991913</v>
+        <v>0.8826116982991945</v>
       </c>
       <c r="M8">
-        <v>0.8482388969939015</v>
+        <v>0.8482388969939048</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8445229333163721</v>
+        <v>0.8445229333163758</v>
       </c>
       <c r="D9">
-        <v>0.8536414289921436</v>
+        <v>0.8536414289921475</v>
       </c>
       <c r="E9">
-        <v>0.8693128185082264</v>
+        <v>0.8693128185082297</v>
       </c>
       <c r="F9">
-        <v>0.834220879021949</v>
+        <v>0.8342208790219523</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.018281480673568</v>
       </c>
       <c r="J9">
-        <v>0.8718541746961666</v>
+        <v>0.8718541746961704</v>
       </c>
       <c r="K9">
-        <v>0.8672518325396967</v>
+        <v>0.8672518325397003</v>
       </c>
       <c r="L9">
-        <v>0.8826116982991913</v>
+        <v>0.8826116982991945</v>
       </c>
       <c r="M9">
-        <v>0.8482388969939015</v>
+        <v>0.8482388969939048</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8445229333163721</v>
+        <v>0.8445229333163758</v>
       </c>
       <c r="D10">
-        <v>0.8536414289921436</v>
+        <v>0.8536414289921475</v>
       </c>
       <c r="E10">
-        <v>0.8693128185082264</v>
+        <v>0.8693128185082297</v>
       </c>
       <c r="F10">
-        <v>0.834220879021949</v>
+        <v>0.8342208790219523</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.018281480673568</v>
       </c>
       <c r="J10">
-        <v>0.8718541746961666</v>
+        <v>0.8718541746961704</v>
       </c>
       <c r="K10">
-        <v>0.8672518325396967</v>
+        <v>0.8672518325397003</v>
       </c>
       <c r="L10">
-        <v>0.8826116982991913</v>
+        <v>0.8826116982991945</v>
       </c>
       <c r="M10">
-        <v>0.8482388969939015</v>
+        <v>0.8482388969939048</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8445229333163721</v>
+        <v>0.8445229333163758</v>
       </c>
       <c r="D11">
-        <v>0.8536414289921436</v>
+        <v>0.8536414289921475</v>
       </c>
       <c r="E11">
-        <v>0.8693128185082264</v>
+        <v>0.8693128185082297</v>
       </c>
       <c r="F11">
-        <v>0.834220879021949</v>
+        <v>0.8342208790219523</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.018281480673568</v>
       </c>
       <c r="J11">
-        <v>0.8718541746961666</v>
+        <v>0.8718541746961704</v>
       </c>
       <c r="K11">
-        <v>0.8672518325396967</v>
+        <v>0.8672518325397003</v>
       </c>
       <c r="L11">
-        <v>0.8826116982991913</v>
+        <v>0.8826116982991945</v>
       </c>
       <c r="M11">
-        <v>0.8482388969939015</v>
+        <v>0.8482388969939048</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8445229333163721</v>
+        <v>0.8445229333163758</v>
       </c>
       <c r="D12">
-        <v>0.8536414289921436</v>
+        <v>0.8536414289921475</v>
       </c>
       <c r="E12">
-        <v>0.8693128185082264</v>
+        <v>0.8693128185082297</v>
       </c>
       <c r="F12">
-        <v>0.834220879021949</v>
+        <v>0.8342208790219523</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.018281480673568</v>
       </c>
       <c r="J12">
-        <v>0.8718541746961666</v>
+        <v>0.8718541746961704</v>
       </c>
       <c r="K12">
-        <v>0.8672518325396967</v>
+        <v>0.8672518325397003</v>
       </c>
       <c r="L12">
-        <v>0.8826116982991913</v>
+        <v>0.8826116982991945</v>
       </c>
       <c r="M12">
-        <v>0.8482388969939015</v>
+        <v>0.8482388969939048</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8445229333163721</v>
+        <v>0.8445229333163758</v>
       </c>
       <c r="D13">
-        <v>0.8536414289921436</v>
+        <v>0.8536414289921475</v>
       </c>
       <c r="E13">
-        <v>0.8693128185082264</v>
+        <v>0.8693128185082297</v>
       </c>
       <c r="F13">
-        <v>0.834220879021949</v>
+        <v>0.8342208790219523</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.018281480673568</v>
       </c>
       <c r="J13">
-        <v>0.8718541746961666</v>
+        <v>0.8718541746961704</v>
       </c>
       <c r="K13">
-        <v>0.8672518325396967</v>
+        <v>0.8672518325397003</v>
       </c>
       <c r="L13">
-        <v>0.8826116982991913</v>
+        <v>0.8826116982991945</v>
       </c>
       <c r="M13">
-        <v>0.8482388969939015</v>
+        <v>0.8482388969939048</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8445229333163721</v>
+        <v>0.8445229333163758</v>
       </c>
       <c r="D14">
-        <v>0.8536414289921436</v>
+        <v>0.8536414289921475</v>
       </c>
       <c r="E14">
-        <v>0.8693128185082264</v>
+        <v>0.8693128185082297</v>
       </c>
       <c r="F14">
-        <v>0.834220879021949</v>
+        <v>0.8342208790219523</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.018281480673568</v>
       </c>
       <c r="J14">
-        <v>0.8718541746961666</v>
+        <v>0.8718541746961704</v>
       </c>
       <c r="K14">
-        <v>0.8672518325396967</v>
+        <v>0.8672518325397003</v>
       </c>
       <c r="L14">
-        <v>0.8826116982991913</v>
+        <v>0.8826116982991945</v>
       </c>
       <c r="M14">
-        <v>0.8482388969939015</v>
+        <v>0.8482388969939048</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8445229333163721</v>
+        <v>0.8445229333163758</v>
       </c>
       <c r="D15">
-        <v>0.8536414289921436</v>
+        <v>0.8536414289921475</v>
       </c>
       <c r="E15">
-        <v>0.8693128185082264</v>
+        <v>0.8693128185082297</v>
       </c>
       <c r="F15">
-        <v>0.834220879021949</v>
+        <v>0.8342208790219523</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.018281480673568</v>
       </c>
       <c r="J15">
-        <v>0.8718541746961666</v>
+        <v>0.8718541746961704</v>
       </c>
       <c r="K15">
-        <v>0.8672518325396967</v>
+        <v>0.8672518325397003</v>
       </c>
       <c r="L15">
-        <v>0.8826116982991913</v>
+        <v>0.8826116982991945</v>
       </c>
       <c r="M15">
-        <v>0.8482388969939015</v>
+        <v>0.8482388969939048</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8445229333163721</v>
+        <v>0.8445229333163758</v>
       </c>
       <c r="D16">
-        <v>0.8536414289921436</v>
+        <v>0.8536414289921475</v>
       </c>
       <c r="E16">
-        <v>0.8693128185082264</v>
+        <v>0.8693128185082297</v>
       </c>
       <c r="F16">
-        <v>0.834220879021949</v>
+        <v>0.8342208790219523</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.018281480673568</v>
       </c>
       <c r="J16">
-        <v>0.8718541746961666</v>
+        <v>0.8718541746961704</v>
       </c>
       <c r="K16">
-        <v>0.8672518325396967</v>
+        <v>0.8672518325397003</v>
       </c>
       <c r="L16">
-        <v>0.8826116982991913</v>
+        <v>0.8826116982991945</v>
       </c>
       <c r="M16">
-        <v>0.8482388969939015</v>
+        <v>0.8482388969939048</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8445229333163721</v>
+        <v>0.8445229333163758</v>
       </c>
       <c r="D17">
-        <v>0.8536414289921436</v>
+        <v>0.8536414289921475</v>
       </c>
       <c r="E17">
-        <v>0.8693128185082264</v>
+        <v>0.8693128185082297</v>
       </c>
       <c r="F17">
-        <v>0.834220879021949</v>
+        <v>0.8342208790219523</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.018281480673568</v>
       </c>
       <c r="J17">
-        <v>0.8718541746961666</v>
+        <v>0.8718541746961704</v>
       </c>
       <c r="K17">
-        <v>0.8672518325396967</v>
+        <v>0.8672518325397003</v>
       </c>
       <c r="L17">
-        <v>0.8826116982991913</v>
+        <v>0.8826116982991945</v>
       </c>
       <c r="M17">
-        <v>0.8482388969939015</v>
+        <v>0.8482388969939048</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8445229333163721</v>
+        <v>0.8445229333163758</v>
       </c>
       <c r="D18">
-        <v>0.8536414289921436</v>
+        <v>0.8536414289921475</v>
       </c>
       <c r="E18">
-        <v>0.8693128185082264</v>
+        <v>0.8693128185082297</v>
       </c>
       <c r="F18">
-        <v>0.834220879021949</v>
+        <v>0.8342208790219523</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.018281480673568</v>
       </c>
       <c r="J18">
-        <v>0.8718541746961666</v>
+        <v>0.8718541746961704</v>
       </c>
       <c r="K18">
-        <v>0.8672518325396967</v>
+        <v>0.8672518325397003</v>
       </c>
       <c r="L18">
-        <v>0.8826116982991913</v>
+        <v>0.8826116982991945</v>
       </c>
       <c r="M18">
-        <v>0.8482388969939015</v>
+        <v>0.8482388969939048</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8445229333163721</v>
+        <v>0.8445229333163758</v>
       </c>
       <c r="D19">
-        <v>0.8536414289921436</v>
+        <v>0.8536414289921475</v>
       </c>
       <c r="E19">
-        <v>0.8693128185082264</v>
+        <v>0.8693128185082297</v>
       </c>
       <c r="F19">
-        <v>0.834220879021949</v>
+        <v>0.8342208790219523</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.018281480673568</v>
       </c>
       <c r="J19">
-        <v>0.8718541746961666</v>
+        <v>0.8718541746961704</v>
       </c>
       <c r="K19">
-        <v>0.8672518325396967</v>
+        <v>0.8672518325397003</v>
       </c>
       <c r="L19">
-        <v>0.8826116982991913</v>
+        <v>0.8826116982991945</v>
       </c>
       <c r="M19">
-        <v>0.8482388969939015</v>
+        <v>0.8482388969939048</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8445229333163721</v>
+        <v>0.8445229333163758</v>
       </c>
       <c r="D20">
-        <v>0.8536414289921436</v>
+        <v>0.8536414289921475</v>
       </c>
       <c r="E20">
-        <v>0.8693128185082264</v>
+        <v>0.8693128185082297</v>
       </c>
       <c r="F20">
-        <v>0.834220879021949</v>
+        <v>0.8342208790219523</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.018281480673568</v>
       </c>
       <c r="J20">
-        <v>0.8718541746961666</v>
+        <v>0.8718541746961704</v>
       </c>
       <c r="K20">
-        <v>0.8672518325396967</v>
+        <v>0.8672518325397003</v>
       </c>
       <c r="L20">
-        <v>0.8826116982991913</v>
+        <v>0.8826116982991945</v>
       </c>
       <c r="M20">
-        <v>0.8482388969939015</v>
+        <v>0.8482388969939048</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8445229333163721</v>
+        <v>0.8445229333163758</v>
       </c>
       <c r="D21">
-        <v>0.8536414289921436</v>
+        <v>0.8536414289921475</v>
       </c>
       <c r="E21">
-        <v>0.8693128185082264</v>
+        <v>0.8693128185082297</v>
       </c>
       <c r="F21">
-        <v>0.834220879021949</v>
+        <v>0.8342208790219523</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.018281480673568</v>
       </c>
       <c r="J21">
-        <v>0.8718541746961666</v>
+        <v>0.8718541746961704</v>
       </c>
       <c r="K21">
-        <v>0.8672518325396967</v>
+        <v>0.8672518325397003</v>
       </c>
       <c r="L21">
-        <v>0.8826116982991913</v>
+        <v>0.8826116982991945</v>
       </c>
       <c r="M21">
-        <v>0.8482388969939015</v>
+        <v>0.8482388969939048</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8445229333163721</v>
+        <v>0.8445229333163758</v>
       </c>
       <c r="D22">
-        <v>0.8536414289921436</v>
+        <v>0.8536414289921475</v>
       </c>
       <c r="E22">
-        <v>0.8693128185082264</v>
+        <v>0.8693128185082297</v>
       </c>
       <c r="F22">
-        <v>0.834220879021949</v>
+        <v>0.8342208790219523</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.018281480673568</v>
       </c>
       <c r="J22">
-        <v>0.8718541746961666</v>
+        <v>0.8718541746961704</v>
       </c>
       <c r="K22">
-        <v>0.8672518325396967</v>
+        <v>0.8672518325397003</v>
       </c>
       <c r="L22">
-        <v>0.8826116982991913</v>
+        <v>0.8826116982991945</v>
       </c>
       <c r="M22">
-        <v>0.8482388969939015</v>
+        <v>0.8482388969939048</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8445229333163721</v>
+        <v>0.8445229333163758</v>
       </c>
       <c r="D23">
-        <v>0.8536414289921436</v>
+        <v>0.8536414289921475</v>
       </c>
       <c r="E23">
-        <v>0.8693128185082264</v>
+        <v>0.8693128185082297</v>
       </c>
       <c r="F23">
-        <v>0.834220879021949</v>
+        <v>0.8342208790219523</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.018281480673568</v>
       </c>
       <c r="J23">
-        <v>0.8718541746961666</v>
+        <v>0.8718541746961704</v>
       </c>
       <c r="K23">
-        <v>0.8672518325396967</v>
+        <v>0.8672518325397003</v>
       </c>
       <c r="L23">
-        <v>0.8826116982991913</v>
+        <v>0.8826116982991945</v>
       </c>
       <c r="M23">
-        <v>0.8482388969939015</v>
+        <v>0.8482388969939048</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8445229333163721</v>
+        <v>0.8445229333163758</v>
       </c>
       <c r="D24">
-        <v>0.8536414289921436</v>
+        <v>0.8536414289921475</v>
       </c>
       <c r="E24">
-        <v>0.8693128185082264</v>
+        <v>0.8693128185082297</v>
       </c>
       <c r="F24">
-        <v>0.834220879021949</v>
+        <v>0.8342208790219523</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.018281480673568</v>
       </c>
       <c r="J24">
-        <v>0.8718541746961666</v>
+        <v>0.8718541746961704</v>
       </c>
       <c r="K24">
-        <v>0.8672518325396967</v>
+        <v>0.8672518325397003</v>
       </c>
       <c r="L24">
-        <v>0.8826116982991913</v>
+        <v>0.8826116982991945</v>
       </c>
       <c r="M24">
-        <v>0.8482388969939015</v>
+        <v>0.8482388969939048</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.8445229333163721</v>
+        <v>0.8445229333163758</v>
       </c>
       <c r="D25">
-        <v>0.8536414289921436</v>
+        <v>0.8536414289921475</v>
       </c>
       <c r="E25">
-        <v>0.8693128185082264</v>
+        <v>0.8693128185082297</v>
       </c>
       <c r="F25">
-        <v>0.834220879021949</v>
+        <v>0.8342208790219523</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.018281480673568</v>
       </c>
       <c r="J25">
-        <v>0.8718541746961666</v>
+        <v>0.8718541746961704</v>
       </c>
       <c r="K25">
-        <v>0.8672518325396967</v>
+        <v>0.8672518325397003</v>
       </c>
       <c r="L25">
-        <v>0.8826116982991913</v>
+        <v>0.8826116982991945</v>
       </c>
       <c r="M25">
-        <v>0.8482388969939015</v>
+        <v>0.8482388969939048</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_9/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_9/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.827680853141861</v>
+        <v>0.8276808531418636</v>
       </c>
       <c r="D2">
-        <v>0.8371001281729126</v>
+        <v>0.837100128172915</v>
       </c>
       <c r="E2">
-        <v>0.8545056278582407</v>
+        <v>0.8545056278582428</v>
       </c>
       <c r="F2">
-        <v>0.8144928049213853</v>
+        <v>0.8144928049213883</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.014749544060596</v>
+        <v>1.014749544060597</v>
       </c>
       <c r="J2">
-        <v>0.8566022115453176</v>
+        <v>0.8566022115453199</v>
       </c>
       <c r="K2">
-        <v>0.8514168281751704</v>
+        <v>0.8514168281751727</v>
       </c>
       <c r="L2">
-        <v>0.868448276167091</v>
+        <v>0.8684482761670932</v>
       </c>
       <c r="M2">
-        <v>0.8293273863607687</v>
+        <v>0.8293273863607714</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.8714858464015173</v>
+        <v>0.8714858464015186</v>
       </c>
       <c r="D3">
-        <v>0.8801061503931945</v>
+        <v>0.8801061503931957</v>
       </c>
       <c r="E3">
-        <v>0.893025929733861</v>
+        <v>0.8930259297338621</v>
       </c>
       <c r="F3">
-        <v>0.8655190548178328</v>
+        <v>0.8655190548178342</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.023910493651149</v>
       </c>
       <c r="J3">
-        <v>0.8962196639948403</v>
+        <v>0.8962196639948417</v>
       </c>
       <c r="K3">
-        <v>0.892543837644996</v>
+        <v>0.8925438376449975</v>
       </c>
       <c r="L3">
-        <v>0.9052390528977348</v>
+        <v>0.905239052897736</v>
       </c>
       <c r="M3">
-        <v>0.8782207918156824</v>
+        <v>0.8782207918156837</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.8931459784658643</v>
+        <v>0.8931459784658634</v>
       </c>
       <c r="D4">
-        <v>0.901350209926866</v>
+        <v>0.901350209926865</v>
       </c>
       <c r="E4">
-        <v>0.9120803576178765</v>
+        <v>0.9120803576178759</v>
       </c>
       <c r="F4">
-        <v>0.8904051435162458</v>
+        <v>0.8904051435162452</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.028386443206454</v>
       </c>
       <c r="J4">
-        <v>0.9157432978986162</v>
+        <v>0.9157432978986152</v>
       </c>
       <c r="K4">
-        <v>0.9128056449854216</v>
+        <v>0.9128056449854209</v>
       </c>
       <c r="L4">
-        <v>0.9233700647892761</v>
+        <v>0.9233700647892753</v>
       </c>
       <c r="M4">
-        <v>0.9020349080290877</v>
+        <v>0.902034908029087</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9013049738433058</v>
+        <v>0.9013049738433069</v>
       </c>
       <c r="D5">
-        <v>0.9093484835680467</v>
+        <v>0.909348483568048</v>
       </c>
       <c r="E5">
-        <v>0.9192584578242103</v>
+        <v>0.9192584578242112</v>
       </c>
       <c r="F5">
-        <v>0.8997183463225595</v>
+        <v>0.8997183463225602</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +553,16 @@
         <v>1.030056306728836</v>
       </c>
       <c r="J5">
-        <v>0.9230849655250263</v>
+        <v>0.9230849655250274</v>
       </c>
       <c r="K5">
-        <v>0.9204239295361153</v>
+        <v>0.9204239295361165</v>
       </c>
       <c r="L5">
-        <v>0.9301879226613229</v>
+        <v>0.9301879226613237</v>
       </c>
       <c r="M5">
-        <v>0.9109395816982262</v>
+        <v>0.910939581698227</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9026295154579548</v>
+        <v>0.902629515457957</v>
       </c>
       <c r="D6">
-        <v>0.9106467145964907</v>
+        <v>0.9106467145964928</v>
       </c>
       <c r="E6">
-        <v>0.9204237749868882</v>
+        <v>0.9204237749868904</v>
       </c>
       <c r="F6">
-        <v>0.9012270413377013</v>
+        <v>0.9012270413377027</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.030326381774216</v>
+        <v>1.030326381774217</v>
       </c>
       <c r="J6">
-        <v>0.9242761377616732</v>
+        <v>0.9242761377616753</v>
       </c>
       <c r="K6">
-        <v>0.9216599323292263</v>
+        <v>0.9216599323292283</v>
       </c>
       <c r="L6">
-        <v>0.9312940960381595</v>
+        <v>0.9312940960381616</v>
       </c>
       <c r="M6">
-        <v>0.9123816697932847</v>
+        <v>0.9123816697932862</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.8932582273419853</v>
+        <v>0.8932582273419866</v>
       </c>
       <c r="D7">
-        <v>0.9014602630778711</v>
+        <v>0.9014602630778723</v>
       </c>
       <c r="E7">
-        <v>0.9121791101552966</v>
+        <v>0.9121791101552978</v>
       </c>
       <c r="F7">
-        <v>0.8905335014317161</v>
+        <v>0.8905335014317175</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.028409485399414</v>
+        <v>1.028409485399415</v>
       </c>
       <c r="J7">
-        <v>0.9158443505443155</v>
+        <v>0.9158443505443167</v>
       </c>
       <c r="K7">
-        <v>0.9129105086514328</v>
+        <v>0.9129105086514341</v>
       </c>
       <c r="L7">
-        <v>0.9234639083041262</v>
+        <v>0.9234639083041277</v>
       </c>
       <c r="M7">
-        <v>0.9021576651608789</v>
+        <v>0.9021576651608804</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.8445229333163758</v>
+        <v>0.8445229333163721</v>
       </c>
       <c r="D8">
-        <v>0.8536414289921475</v>
+        <v>0.8536414289921436</v>
       </c>
       <c r="E8">
-        <v>0.8693128185082297</v>
+        <v>0.8693128185082264</v>
       </c>
       <c r="F8">
-        <v>0.8342208790219523</v>
+        <v>0.834220879021949</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.018281480673568</v>
       </c>
       <c r="J8">
-        <v>0.8718541746961704</v>
+        <v>0.8718541746961666</v>
       </c>
       <c r="K8">
-        <v>0.8672518325397003</v>
+        <v>0.8672518325396967</v>
       </c>
       <c r="L8">
-        <v>0.8826116982991945</v>
+        <v>0.8826116982991913</v>
       </c>
       <c r="M8">
-        <v>0.8482388969939048</v>
+        <v>0.8482388969939015</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8445229333163758</v>
+        <v>0.8445229333163721</v>
       </c>
       <c r="D9">
-        <v>0.8536414289921475</v>
+        <v>0.8536414289921436</v>
       </c>
       <c r="E9">
-        <v>0.8693128185082297</v>
+        <v>0.8693128185082264</v>
       </c>
       <c r="F9">
-        <v>0.8342208790219523</v>
+        <v>0.834220879021949</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.018281480673568</v>
       </c>
       <c r="J9">
-        <v>0.8718541746961704</v>
+        <v>0.8718541746961666</v>
       </c>
       <c r="K9">
-        <v>0.8672518325397003</v>
+        <v>0.8672518325396967</v>
       </c>
       <c r="L9">
-        <v>0.8826116982991945</v>
+        <v>0.8826116982991913</v>
       </c>
       <c r="M9">
-        <v>0.8482388969939048</v>
+        <v>0.8482388969939015</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8445229333163758</v>
+        <v>0.8445229333163721</v>
       </c>
       <c r="D10">
-        <v>0.8536414289921475</v>
+        <v>0.8536414289921436</v>
       </c>
       <c r="E10">
-        <v>0.8693128185082297</v>
+        <v>0.8693128185082264</v>
       </c>
       <c r="F10">
-        <v>0.8342208790219523</v>
+        <v>0.834220879021949</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.018281480673568</v>
       </c>
       <c r="J10">
-        <v>0.8718541746961704</v>
+        <v>0.8718541746961666</v>
       </c>
       <c r="K10">
-        <v>0.8672518325397003</v>
+        <v>0.8672518325396967</v>
       </c>
       <c r="L10">
-        <v>0.8826116982991945</v>
+        <v>0.8826116982991913</v>
       </c>
       <c r="M10">
-        <v>0.8482388969939048</v>
+        <v>0.8482388969939015</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8445229333163758</v>
+        <v>0.8445229333163721</v>
       </c>
       <c r="D11">
-        <v>0.8536414289921475</v>
+        <v>0.8536414289921436</v>
       </c>
       <c r="E11">
-        <v>0.8693128185082297</v>
+        <v>0.8693128185082264</v>
       </c>
       <c r="F11">
-        <v>0.8342208790219523</v>
+        <v>0.834220879021949</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.018281480673568</v>
       </c>
       <c r="J11">
-        <v>0.8718541746961704</v>
+        <v>0.8718541746961666</v>
       </c>
       <c r="K11">
-        <v>0.8672518325397003</v>
+        <v>0.8672518325396967</v>
       </c>
       <c r="L11">
-        <v>0.8826116982991945</v>
+        <v>0.8826116982991913</v>
       </c>
       <c r="M11">
-        <v>0.8482388969939048</v>
+        <v>0.8482388969939015</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8445229333163758</v>
+        <v>0.8445229333163721</v>
       </c>
       <c r="D12">
-        <v>0.8536414289921475</v>
+        <v>0.8536414289921436</v>
       </c>
       <c r="E12">
-        <v>0.8693128185082297</v>
+        <v>0.8693128185082264</v>
       </c>
       <c r="F12">
-        <v>0.8342208790219523</v>
+        <v>0.834220879021949</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.018281480673568</v>
       </c>
       <c r="J12">
-        <v>0.8718541746961704</v>
+        <v>0.8718541746961666</v>
       </c>
       <c r="K12">
-        <v>0.8672518325397003</v>
+        <v>0.8672518325396967</v>
       </c>
       <c r="L12">
-        <v>0.8826116982991945</v>
+        <v>0.8826116982991913</v>
       </c>
       <c r="M12">
-        <v>0.8482388969939048</v>
+        <v>0.8482388969939015</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8445229333163758</v>
+        <v>0.8445229333163721</v>
       </c>
       <c r="D13">
-        <v>0.8536414289921475</v>
+        <v>0.8536414289921436</v>
       </c>
       <c r="E13">
-        <v>0.8693128185082297</v>
+        <v>0.8693128185082264</v>
       </c>
       <c r="F13">
-        <v>0.8342208790219523</v>
+        <v>0.834220879021949</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.018281480673568</v>
       </c>
       <c r="J13">
-        <v>0.8718541746961704</v>
+        <v>0.8718541746961666</v>
       </c>
       <c r="K13">
-        <v>0.8672518325397003</v>
+        <v>0.8672518325396967</v>
       </c>
       <c r="L13">
-        <v>0.8826116982991945</v>
+        <v>0.8826116982991913</v>
       </c>
       <c r="M13">
-        <v>0.8482388969939048</v>
+        <v>0.8482388969939015</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8445229333163758</v>
+        <v>0.8445229333163721</v>
       </c>
       <c r="D14">
-        <v>0.8536414289921475</v>
+        <v>0.8536414289921436</v>
       </c>
       <c r="E14">
-        <v>0.8693128185082297</v>
+        <v>0.8693128185082264</v>
       </c>
       <c r="F14">
-        <v>0.8342208790219523</v>
+        <v>0.834220879021949</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.018281480673568</v>
       </c>
       <c r="J14">
-        <v>0.8718541746961704</v>
+        <v>0.8718541746961666</v>
       </c>
       <c r="K14">
-        <v>0.8672518325397003</v>
+        <v>0.8672518325396967</v>
       </c>
       <c r="L14">
-        <v>0.8826116982991945</v>
+        <v>0.8826116982991913</v>
       </c>
       <c r="M14">
-        <v>0.8482388969939048</v>
+        <v>0.8482388969939015</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8445229333163758</v>
+        <v>0.8445229333163721</v>
       </c>
       <c r="D15">
-        <v>0.8536414289921475</v>
+        <v>0.8536414289921436</v>
       </c>
       <c r="E15">
-        <v>0.8693128185082297</v>
+        <v>0.8693128185082264</v>
       </c>
       <c r="F15">
-        <v>0.8342208790219523</v>
+        <v>0.834220879021949</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.018281480673568</v>
       </c>
       <c r="J15">
-        <v>0.8718541746961704</v>
+        <v>0.8718541746961666</v>
       </c>
       <c r="K15">
-        <v>0.8672518325397003</v>
+        <v>0.8672518325396967</v>
       </c>
       <c r="L15">
-        <v>0.8826116982991945</v>
+        <v>0.8826116982991913</v>
       </c>
       <c r="M15">
-        <v>0.8482388969939048</v>
+        <v>0.8482388969939015</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8445229333163758</v>
+        <v>0.8445229333163721</v>
       </c>
       <c r="D16">
-        <v>0.8536414289921475</v>
+        <v>0.8536414289921436</v>
       </c>
       <c r="E16">
-        <v>0.8693128185082297</v>
+        <v>0.8693128185082264</v>
       </c>
       <c r="F16">
-        <v>0.8342208790219523</v>
+        <v>0.834220879021949</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.018281480673568</v>
       </c>
       <c r="J16">
-        <v>0.8718541746961704</v>
+        <v>0.8718541746961666</v>
       </c>
       <c r="K16">
-        <v>0.8672518325397003</v>
+        <v>0.8672518325396967</v>
       </c>
       <c r="L16">
-        <v>0.8826116982991945</v>
+        <v>0.8826116982991913</v>
       </c>
       <c r="M16">
-        <v>0.8482388969939048</v>
+        <v>0.8482388969939015</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8445229333163758</v>
+        <v>0.8445229333163721</v>
       </c>
       <c r="D17">
-        <v>0.8536414289921475</v>
+        <v>0.8536414289921436</v>
       </c>
       <c r="E17">
-        <v>0.8693128185082297</v>
+        <v>0.8693128185082264</v>
       </c>
       <c r="F17">
-        <v>0.8342208790219523</v>
+        <v>0.834220879021949</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.018281480673568</v>
       </c>
       <c r="J17">
-        <v>0.8718541746961704</v>
+        <v>0.8718541746961666</v>
       </c>
       <c r="K17">
-        <v>0.8672518325397003</v>
+        <v>0.8672518325396967</v>
       </c>
       <c r="L17">
-        <v>0.8826116982991945</v>
+        <v>0.8826116982991913</v>
       </c>
       <c r="M17">
-        <v>0.8482388969939048</v>
+        <v>0.8482388969939015</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8445229333163758</v>
+        <v>0.8445229333163721</v>
       </c>
       <c r="D18">
-        <v>0.8536414289921475</v>
+        <v>0.8536414289921436</v>
       </c>
       <c r="E18">
-        <v>0.8693128185082297</v>
+        <v>0.8693128185082264</v>
       </c>
       <c r="F18">
-        <v>0.8342208790219523</v>
+        <v>0.834220879021949</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.018281480673568</v>
       </c>
       <c r="J18">
-        <v>0.8718541746961704</v>
+        <v>0.8718541746961666</v>
       </c>
       <c r="K18">
-        <v>0.8672518325397003</v>
+        <v>0.8672518325396967</v>
       </c>
       <c r="L18">
-        <v>0.8826116982991945</v>
+        <v>0.8826116982991913</v>
       </c>
       <c r="M18">
-        <v>0.8482388969939048</v>
+        <v>0.8482388969939015</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8445229333163758</v>
+        <v>0.8445229333163721</v>
       </c>
       <c r="D19">
-        <v>0.8536414289921475</v>
+        <v>0.8536414289921436</v>
       </c>
       <c r="E19">
-        <v>0.8693128185082297</v>
+        <v>0.8693128185082264</v>
       </c>
       <c r="F19">
-        <v>0.8342208790219523</v>
+        <v>0.834220879021949</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.018281480673568</v>
       </c>
       <c r="J19">
-        <v>0.8718541746961704</v>
+        <v>0.8718541746961666</v>
       </c>
       <c r="K19">
-        <v>0.8672518325397003</v>
+        <v>0.8672518325396967</v>
       </c>
       <c r="L19">
-        <v>0.8826116982991945</v>
+        <v>0.8826116982991913</v>
       </c>
       <c r="M19">
-        <v>0.8482388969939048</v>
+        <v>0.8482388969939015</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8445229333163758</v>
+        <v>0.8445229333163721</v>
       </c>
       <c r="D20">
-        <v>0.8536414289921475</v>
+        <v>0.8536414289921436</v>
       </c>
       <c r="E20">
-        <v>0.8693128185082297</v>
+        <v>0.8693128185082264</v>
       </c>
       <c r="F20">
-        <v>0.8342208790219523</v>
+        <v>0.834220879021949</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.018281480673568</v>
       </c>
       <c r="J20">
-        <v>0.8718541746961704</v>
+        <v>0.8718541746961666</v>
       </c>
       <c r="K20">
-        <v>0.8672518325397003</v>
+        <v>0.8672518325396967</v>
       </c>
       <c r="L20">
-        <v>0.8826116982991945</v>
+        <v>0.8826116982991913</v>
       </c>
       <c r="M20">
-        <v>0.8482388969939048</v>
+        <v>0.8482388969939015</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8445229333163758</v>
+        <v>0.8445229333163721</v>
       </c>
       <c r="D21">
-        <v>0.8536414289921475</v>
+        <v>0.8536414289921436</v>
       </c>
       <c r="E21">
-        <v>0.8693128185082297</v>
+        <v>0.8693128185082264</v>
       </c>
       <c r="F21">
-        <v>0.8342208790219523</v>
+        <v>0.834220879021949</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.018281480673568</v>
       </c>
       <c r="J21">
-        <v>0.8718541746961704</v>
+        <v>0.8718541746961666</v>
       </c>
       <c r="K21">
-        <v>0.8672518325397003</v>
+        <v>0.8672518325396967</v>
       </c>
       <c r="L21">
-        <v>0.8826116982991945</v>
+        <v>0.8826116982991913</v>
       </c>
       <c r="M21">
-        <v>0.8482388969939048</v>
+        <v>0.8482388969939015</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8445229333163758</v>
+        <v>0.8445229333163721</v>
       </c>
       <c r="D22">
-        <v>0.8536414289921475</v>
+        <v>0.8536414289921436</v>
       </c>
       <c r="E22">
-        <v>0.8693128185082297</v>
+        <v>0.8693128185082264</v>
       </c>
       <c r="F22">
-        <v>0.8342208790219523</v>
+        <v>0.834220879021949</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.018281480673568</v>
       </c>
       <c r="J22">
-        <v>0.8718541746961704</v>
+        <v>0.8718541746961666</v>
       </c>
       <c r="K22">
-        <v>0.8672518325397003</v>
+        <v>0.8672518325396967</v>
       </c>
       <c r="L22">
-        <v>0.8826116982991945</v>
+        <v>0.8826116982991913</v>
       </c>
       <c r="M22">
-        <v>0.8482388969939048</v>
+        <v>0.8482388969939015</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8445229333163758</v>
+        <v>0.8445229333163721</v>
       </c>
       <c r="D23">
-        <v>0.8536414289921475</v>
+        <v>0.8536414289921436</v>
       </c>
       <c r="E23">
-        <v>0.8693128185082297</v>
+        <v>0.8693128185082264</v>
       </c>
       <c r="F23">
-        <v>0.8342208790219523</v>
+        <v>0.834220879021949</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.018281480673568</v>
       </c>
       <c r="J23">
-        <v>0.8718541746961704</v>
+        <v>0.8718541746961666</v>
       </c>
       <c r="K23">
-        <v>0.8672518325397003</v>
+        <v>0.8672518325396967</v>
       </c>
       <c r="L23">
-        <v>0.8826116982991945</v>
+        <v>0.8826116982991913</v>
       </c>
       <c r="M23">
-        <v>0.8482388969939048</v>
+        <v>0.8482388969939015</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8445229333163758</v>
+        <v>0.8445229333163721</v>
       </c>
       <c r="D24">
-        <v>0.8536414289921475</v>
+        <v>0.8536414289921436</v>
       </c>
       <c r="E24">
-        <v>0.8693128185082297</v>
+        <v>0.8693128185082264</v>
       </c>
       <c r="F24">
-        <v>0.8342208790219523</v>
+        <v>0.834220879021949</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.018281480673568</v>
       </c>
       <c r="J24">
-        <v>0.8718541746961704</v>
+        <v>0.8718541746961666</v>
       </c>
       <c r="K24">
-        <v>0.8672518325397003</v>
+        <v>0.8672518325396967</v>
       </c>
       <c r="L24">
-        <v>0.8826116982991945</v>
+        <v>0.8826116982991913</v>
       </c>
       <c r="M24">
-        <v>0.8482388969939048</v>
+        <v>0.8482388969939015</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.8445229333163758</v>
+        <v>0.8445229333163721</v>
       </c>
       <c r="D25">
-        <v>0.8536414289921475</v>
+        <v>0.8536414289921436</v>
       </c>
       <c r="E25">
-        <v>0.8693128185082297</v>
+        <v>0.8693128185082264</v>
       </c>
       <c r="F25">
-        <v>0.8342208790219523</v>
+        <v>0.834220879021949</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.018281480673568</v>
       </c>
       <c r="J25">
-        <v>0.8718541746961704</v>
+        <v>0.8718541746961666</v>
       </c>
       <c r="K25">
-        <v>0.8672518325397003</v>
+        <v>0.8672518325396967</v>
       </c>
       <c r="L25">
-        <v>0.8826116982991945</v>
+        <v>0.8826116982991913</v>
       </c>
       <c r="M25">
-        <v>0.8482388969939048</v>
+        <v>0.8482388969939015</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_9/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_9/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.8276808531418636</v>
+        <v>0.8280247277305244</v>
       </c>
       <c r="D2">
-        <v>0.837100128172915</v>
+        <v>0.837437226128142</v>
       </c>
       <c r="E2">
-        <v>0.8545056278582428</v>
+        <v>0.8548052916430083</v>
       </c>
       <c r="F2">
-        <v>0.8144928049213883</v>
+        <v>0.8148243338551999</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.014749544060597</v>
+        <v>1.014792067147017</v>
       </c>
       <c r="J2">
-        <v>0.8566022115453199</v>
+        <v>0.856928544598345</v>
       </c>
       <c r="K2">
-        <v>0.8514168281751727</v>
+        <v>0.851746485322313</v>
       </c>
       <c r="L2">
-        <v>0.8684482761670932</v>
+        <v>0.8687416763444135</v>
       </c>
       <c r="M2">
-        <v>0.8293273863607714</v>
+        <v>0.8296510422074699</v>
+      </c>
+      <c r="N2">
+        <v>0.9050350177465123</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.8714858464015186</v>
+        <v>0.8716976023860181</v>
       </c>
       <c r="D3">
-        <v>0.8801061503931957</v>
+        <v>0.880313943664228</v>
       </c>
       <c r="E3">
-        <v>0.8930259297338621</v>
+        <v>0.8932107316320292</v>
       </c>
       <c r="F3">
-        <v>0.8655190548178342</v>
+        <v>0.8657129916771285</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.023910493651149</v>
+        <v>1.023933625162806</v>
       </c>
       <c r="J3">
-        <v>0.8962196639948417</v>
+        <v>0.8964229625990352</v>
       </c>
       <c r="K3">
-        <v>0.8925438376449975</v>
+        <v>0.8927479515236859</v>
       </c>
       <c r="L3">
-        <v>0.905239052897736</v>
+        <v>0.9054207035428377</v>
       </c>
       <c r="M3">
-        <v>0.8782207918156837</v>
+        <v>0.878411142019758</v>
+      </c>
+      <c r="N3">
+        <v>0.9318540283903319</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.8931459784658634</v>
+        <v>0.893311534989373</v>
       </c>
       <c r="D4">
-        <v>0.901350209926865</v>
+        <v>0.9015127810857193</v>
       </c>
       <c r="E4">
-        <v>0.9120803576178759</v>
+        <v>0.9122250021244376</v>
       </c>
       <c r="F4">
-        <v>0.8904051435162452</v>
+        <v>0.8905537656918361</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.028386443206454</v>
+        <v>1.028403623927312</v>
       </c>
       <c r="J4">
-        <v>0.9157432978986152</v>
+        <v>0.9159030773613216</v>
       </c>
       <c r="K4">
-        <v>0.9128056449854209</v>
+        <v>0.9129656675751223</v>
       </c>
       <c r="L4">
-        <v>0.9233700647892753</v>
+        <v>0.9235125092017117</v>
       </c>
       <c r="M4">
-        <v>0.902034908029087</v>
+        <v>0.9021811261598921</v>
+      </c>
+      <c r="N4">
+        <v>0.9450853806633427</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9013049738433069</v>
+        <v>0.9014551186056903</v>
       </c>
       <c r="D5">
-        <v>0.909348483568048</v>
+        <v>0.9094959623796529</v>
       </c>
       <c r="E5">
-        <v>0.9192584578242112</v>
+        <v>0.9193897026134438</v>
       </c>
       <c r="F5">
-        <v>0.8997183463225602</v>
+        <v>0.8998522228448774</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.030056306728836</v>
+        <v>1.030071613181573</v>
       </c>
       <c r="J5">
-        <v>0.9230849655250274</v>
+        <v>0.9232301460036195</v>
       </c>
       <c r="K5">
-        <v>0.9204239295361165</v>
+        <v>0.9205692062179368</v>
       </c>
       <c r="L5">
-        <v>0.9301879226613237</v>
+        <v>0.9303172608951018</v>
       </c>
       <c r="M5">
-        <v>0.910939581698227</v>
+        <v>0.9110714041919701</v>
+      </c>
+      <c r="N5">
+        <v>0.9500622265701525</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.902629515457957</v>
+        <v>0.9027772441539945</v>
       </c>
       <c r="D6">
-        <v>0.9106467145964928</v>
+        <v>0.9107918269951268</v>
       </c>
       <c r="E6">
-        <v>0.9204237749868904</v>
+        <v>0.9205529188872525</v>
       </c>
       <c r="F6">
-        <v>0.9012270413377027</v>
+        <v>0.9013586235493216</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.030326381774217</v>
+        <v>1.030341399595564</v>
       </c>
       <c r="J6">
-        <v>0.9242761377616753</v>
+        <v>0.9244190254726544</v>
       </c>
       <c r="K6">
-        <v>0.9216599323292283</v>
+        <v>0.9218028953356489</v>
       </c>
       <c r="L6">
-        <v>0.9312940960381616</v>
+        <v>0.9314213781696359</v>
       </c>
       <c r="M6">
-        <v>0.9123816697932862</v>
+        <v>0.9125112507119684</v>
+      </c>
+      <c r="N6">
+        <v>0.9508697587384016</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.8932582273419866</v>
+        <v>0.8934235653378796</v>
       </c>
       <c r="D7">
-        <v>0.9014602630778723</v>
+        <v>0.9016226202678774</v>
       </c>
       <c r="E7">
-        <v>0.9121791101552978</v>
+        <v>0.9123235646806599</v>
       </c>
       <c r="F7">
-        <v>0.8905335014317175</v>
+        <v>0.8906819131975638</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.028409485399415</v>
+        <v>1.028426639147133</v>
       </c>
       <c r="J7">
-        <v>0.9158443505443167</v>
+        <v>0.9160039233121382</v>
       </c>
       <c r="K7">
-        <v>0.9129105086514341</v>
+        <v>0.9130703223019032</v>
       </c>
       <c r="L7">
-        <v>0.9234639083041277</v>
+        <v>0.923606166988986</v>
       </c>
       <c r="M7">
-        <v>0.9021576651608804</v>
+        <v>0.9023036780071122</v>
+      </c>
+      <c r="N7">
+        <v>0.9451538794040171</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.8445229333163721</v>
+        <v>0.8448075869643199</v>
       </c>
       <c r="D8">
-        <v>0.8536414289921436</v>
+        <v>0.8539205584754238</v>
       </c>
       <c r="E8">
-        <v>0.8693128185082264</v>
+        <v>0.8695609828625813</v>
       </c>
       <c r="F8">
-        <v>0.834220879021949</v>
+        <v>0.8344894183363384</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.018281480673568</v>
+        <v>1.018314923473702</v>
       </c>
       <c r="J8">
-        <v>0.8718541746961666</v>
+        <v>0.872125560589968</v>
       </c>
       <c r="K8">
-        <v>0.8672518325396967</v>
+        <v>0.8675252815202518</v>
       </c>
       <c r="L8">
-        <v>0.8826116982991913</v>
+        <v>0.8828550478882716</v>
       </c>
       <c r="M8">
-        <v>0.8482388969939015</v>
+        <v>0.8485016282905088</v>
+      </c>
+      <c r="N8">
+        <v>0.9153531561576409</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8445229333163721</v>
+        <v>0.8448075869643199</v>
       </c>
       <c r="D9">
-        <v>0.8536414289921436</v>
+        <v>0.8539205584754238</v>
       </c>
       <c r="E9">
-        <v>0.8693128185082264</v>
+        <v>0.8695609828625813</v>
       </c>
       <c r="F9">
-        <v>0.834220879021949</v>
+        <v>0.8344894183363384</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.018281480673568</v>
+        <v>1.018314923473702</v>
       </c>
       <c r="J9">
-        <v>0.8718541746961666</v>
+        <v>0.872125560589968</v>
       </c>
       <c r="K9">
-        <v>0.8672518325396967</v>
+        <v>0.8675252815202518</v>
       </c>
       <c r="L9">
-        <v>0.8826116982991913</v>
+        <v>0.8828550478882716</v>
       </c>
       <c r="M9">
-        <v>0.8482388969939015</v>
+        <v>0.8485016282905088</v>
+      </c>
+      <c r="N9">
+        <v>0.9153531561576409</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8445229333163721</v>
+        <v>0.8448075869643199</v>
       </c>
       <c r="D10">
-        <v>0.8536414289921436</v>
+        <v>0.8539205584754238</v>
       </c>
       <c r="E10">
-        <v>0.8693128185082264</v>
+        <v>0.8695609828625813</v>
       </c>
       <c r="F10">
-        <v>0.834220879021949</v>
+        <v>0.8344894183363384</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.018281480673568</v>
+        <v>1.018314923473702</v>
       </c>
       <c r="J10">
-        <v>0.8718541746961666</v>
+        <v>0.872125560589968</v>
       </c>
       <c r="K10">
-        <v>0.8672518325396967</v>
+        <v>0.8675252815202518</v>
       </c>
       <c r="L10">
-        <v>0.8826116982991913</v>
+        <v>0.8828550478882716</v>
       </c>
       <c r="M10">
-        <v>0.8482388969939015</v>
+        <v>0.8485016282905088</v>
+      </c>
+      <c r="N10">
+        <v>0.9153531561576409</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8445229333163721</v>
+        <v>0.8448075869643199</v>
       </c>
       <c r="D11">
-        <v>0.8536414289921436</v>
+        <v>0.8539205584754238</v>
       </c>
       <c r="E11">
-        <v>0.8693128185082264</v>
+        <v>0.8695609828625813</v>
       </c>
       <c r="F11">
-        <v>0.834220879021949</v>
+        <v>0.8344894183363384</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.018281480673568</v>
+        <v>1.018314923473702</v>
       </c>
       <c r="J11">
-        <v>0.8718541746961666</v>
+        <v>0.872125560589968</v>
       </c>
       <c r="K11">
-        <v>0.8672518325396967</v>
+        <v>0.8675252815202518</v>
       </c>
       <c r="L11">
-        <v>0.8826116982991913</v>
+        <v>0.8828550478882716</v>
       </c>
       <c r="M11">
-        <v>0.8482388969939015</v>
+        <v>0.8485016282905088</v>
+      </c>
+      <c r="N11">
+        <v>0.9153531561576409</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8445229333163721</v>
+        <v>0.8448075869643199</v>
       </c>
       <c r="D12">
-        <v>0.8536414289921436</v>
+        <v>0.8539205584754238</v>
       </c>
       <c r="E12">
-        <v>0.8693128185082264</v>
+        <v>0.8695609828625813</v>
       </c>
       <c r="F12">
-        <v>0.834220879021949</v>
+        <v>0.8344894183363384</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.018281480673568</v>
+        <v>1.018314923473702</v>
       </c>
       <c r="J12">
-        <v>0.8718541746961666</v>
+        <v>0.872125560589968</v>
       </c>
       <c r="K12">
-        <v>0.8672518325396967</v>
+        <v>0.8675252815202518</v>
       </c>
       <c r="L12">
-        <v>0.8826116982991913</v>
+        <v>0.8828550478882716</v>
       </c>
       <c r="M12">
-        <v>0.8482388969939015</v>
+        <v>0.8485016282905088</v>
+      </c>
+      <c r="N12">
+        <v>0.9153531561576409</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8445229333163721</v>
+        <v>0.8448075869643199</v>
       </c>
       <c r="D13">
-        <v>0.8536414289921436</v>
+        <v>0.8539205584754238</v>
       </c>
       <c r="E13">
-        <v>0.8693128185082264</v>
+        <v>0.8695609828625813</v>
       </c>
       <c r="F13">
-        <v>0.834220879021949</v>
+        <v>0.8344894183363384</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.018281480673568</v>
+        <v>1.018314923473702</v>
       </c>
       <c r="J13">
-        <v>0.8718541746961666</v>
+        <v>0.872125560589968</v>
       </c>
       <c r="K13">
-        <v>0.8672518325396967</v>
+        <v>0.8675252815202518</v>
       </c>
       <c r="L13">
-        <v>0.8826116982991913</v>
+        <v>0.8828550478882716</v>
       </c>
       <c r="M13">
-        <v>0.8482388969939015</v>
+        <v>0.8485016282905088</v>
+      </c>
+      <c r="N13">
+        <v>0.9153531561576409</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8445229333163721</v>
+        <v>0.8448075869643199</v>
       </c>
       <c r="D14">
-        <v>0.8536414289921436</v>
+        <v>0.8539205584754238</v>
       </c>
       <c r="E14">
-        <v>0.8693128185082264</v>
+        <v>0.8695609828625813</v>
       </c>
       <c r="F14">
-        <v>0.834220879021949</v>
+        <v>0.8344894183363384</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.018281480673568</v>
+        <v>1.018314923473702</v>
       </c>
       <c r="J14">
-        <v>0.8718541746961666</v>
+        <v>0.872125560589968</v>
       </c>
       <c r="K14">
-        <v>0.8672518325396967</v>
+        <v>0.8675252815202518</v>
       </c>
       <c r="L14">
-        <v>0.8826116982991913</v>
+        <v>0.8828550478882716</v>
       </c>
       <c r="M14">
-        <v>0.8482388969939015</v>
+        <v>0.8485016282905088</v>
+      </c>
+      <c r="N14">
+        <v>0.9153531561576409</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8445229333163721</v>
+        <v>0.8448075869643199</v>
       </c>
       <c r="D15">
-        <v>0.8536414289921436</v>
+        <v>0.8539205584754238</v>
       </c>
       <c r="E15">
-        <v>0.8693128185082264</v>
+        <v>0.8695609828625813</v>
       </c>
       <c r="F15">
-        <v>0.834220879021949</v>
+        <v>0.8344894183363384</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.018281480673568</v>
+        <v>1.018314923473702</v>
       </c>
       <c r="J15">
-        <v>0.8718541746961666</v>
+        <v>0.872125560589968</v>
       </c>
       <c r="K15">
-        <v>0.8672518325396967</v>
+        <v>0.8675252815202518</v>
       </c>
       <c r="L15">
-        <v>0.8826116982991913</v>
+        <v>0.8828550478882716</v>
       </c>
       <c r="M15">
-        <v>0.8482388969939015</v>
+        <v>0.8485016282905088</v>
+      </c>
+      <c r="N15">
+        <v>0.9153531561576409</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8445229333163721</v>
+        <v>0.8448075869643199</v>
       </c>
       <c r="D16">
-        <v>0.8536414289921436</v>
+        <v>0.8539205584754238</v>
       </c>
       <c r="E16">
-        <v>0.8693128185082264</v>
+        <v>0.8695609828625813</v>
       </c>
       <c r="F16">
-        <v>0.834220879021949</v>
+        <v>0.8344894183363384</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.018281480673568</v>
+        <v>1.018314923473702</v>
       </c>
       <c r="J16">
-        <v>0.8718541746961666</v>
+        <v>0.872125560589968</v>
       </c>
       <c r="K16">
-        <v>0.8672518325396967</v>
+        <v>0.8675252815202518</v>
       </c>
       <c r="L16">
-        <v>0.8826116982991913</v>
+        <v>0.8828550478882716</v>
       </c>
       <c r="M16">
-        <v>0.8482388969939015</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.8485016282905088</v>
+      </c>
+      <c r="N16">
+        <v>0.9153531561576409</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8445229333163721</v>
+        <v>0.8448075869643199</v>
       </c>
       <c r="D17">
-        <v>0.8536414289921436</v>
+        <v>0.8539205584754238</v>
       </c>
       <c r="E17">
-        <v>0.8693128185082264</v>
+        <v>0.8695609828625813</v>
       </c>
       <c r="F17">
-        <v>0.834220879021949</v>
+        <v>0.8344894183363384</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.018281480673568</v>
+        <v>1.018314923473702</v>
       </c>
       <c r="J17">
-        <v>0.8718541746961666</v>
+        <v>0.872125560589968</v>
       </c>
       <c r="K17">
-        <v>0.8672518325396967</v>
+        <v>0.8675252815202518</v>
       </c>
       <c r="L17">
-        <v>0.8826116982991913</v>
+        <v>0.8828550478882716</v>
       </c>
       <c r="M17">
-        <v>0.8482388969939015</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.8485016282905088</v>
+      </c>
+      <c r="N17">
+        <v>0.9153531561576409</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8445229333163721</v>
+        <v>0.8448075869643199</v>
       </c>
       <c r="D18">
-        <v>0.8536414289921436</v>
+        <v>0.8539205584754238</v>
       </c>
       <c r="E18">
-        <v>0.8693128185082264</v>
+        <v>0.8695609828625813</v>
       </c>
       <c r="F18">
-        <v>0.834220879021949</v>
+        <v>0.8344894183363384</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.018281480673568</v>
+        <v>1.018314923473702</v>
       </c>
       <c r="J18">
-        <v>0.8718541746961666</v>
+        <v>0.872125560589968</v>
       </c>
       <c r="K18">
-        <v>0.8672518325396967</v>
+        <v>0.8675252815202518</v>
       </c>
       <c r="L18">
-        <v>0.8826116982991913</v>
+        <v>0.8828550478882716</v>
       </c>
       <c r="M18">
-        <v>0.8482388969939015</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.8485016282905088</v>
+      </c>
+      <c r="N18">
+        <v>0.9153531561576409</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8445229333163721</v>
+        <v>0.8448075869643199</v>
       </c>
       <c r="D19">
-        <v>0.8536414289921436</v>
+        <v>0.8539205584754238</v>
       </c>
       <c r="E19">
-        <v>0.8693128185082264</v>
+        <v>0.8695609828625813</v>
       </c>
       <c r="F19">
-        <v>0.834220879021949</v>
+        <v>0.8344894183363384</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.018281480673568</v>
+        <v>1.018314923473702</v>
       </c>
       <c r="J19">
-        <v>0.8718541746961666</v>
+        <v>0.872125560589968</v>
       </c>
       <c r="K19">
-        <v>0.8672518325396967</v>
+        <v>0.8675252815202518</v>
       </c>
       <c r="L19">
-        <v>0.8826116982991913</v>
+        <v>0.8828550478882716</v>
       </c>
       <c r="M19">
-        <v>0.8482388969939015</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.8485016282905088</v>
+      </c>
+      <c r="N19">
+        <v>0.9153531561576409</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8445229333163721</v>
+        <v>0.8448075869643199</v>
       </c>
       <c r="D20">
-        <v>0.8536414289921436</v>
+        <v>0.8539205584754238</v>
       </c>
       <c r="E20">
-        <v>0.8693128185082264</v>
+        <v>0.8695609828625813</v>
       </c>
       <c r="F20">
-        <v>0.834220879021949</v>
+        <v>0.8344894183363384</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.018281480673568</v>
+        <v>1.018314923473702</v>
       </c>
       <c r="J20">
-        <v>0.8718541746961666</v>
+        <v>0.872125560589968</v>
       </c>
       <c r="K20">
-        <v>0.8672518325396967</v>
+        <v>0.8675252815202518</v>
       </c>
       <c r="L20">
-        <v>0.8826116982991913</v>
+        <v>0.8828550478882716</v>
       </c>
       <c r="M20">
-        <v>0.8482388969939015</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.8485016282905088</v>
+      </c>
+      <c r="N20">
+        <v>0.9153531561576409</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8445229333163721</v>
+        <v>0.8448075869643199</v>
       </c>
       <c r="D21">
-        <v>0.8536414289921436</v>
+        <v>0.8539205584754238</v>
       </c>
       <c r="E21">
-        <v>0.8693128185082264</v>
+        <v>0.8695609828625813</v>
       </c>
       <c r="F21">
-        <v>0.834220879021949</v>
+        <v>0.8344894183363384</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.018281480673568</v>
+        <v>1.018314923473702</v>
       </c>
       <c r="J21">
-        <v>0.8718541746961666</v>
+        <v>0.872125560589968</v>
       </c>
       <c r="K21">
-        <v>0.8672518325396967</v>
+        <v>0.8675252815202518</v>
       </c>
       <c r="L21">
-        <v>0.8826116982991913</v>
+        <v>0.8828550478882716</v>
       </c>
       <c r="M21">
-        <v>0.8482388969939015</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.8485016282905088</v>
+      </c>
+      <c r="N21">
+        <v>0.9153531561576409</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8445229333163721</v>
+        <v>0.8448075869643199</v>
       </c>
       <c r="D22">
-        <v>0.8536414289921436</v>
+        <v>0.8539205584754238</v>
       </c>
       <c r="E22">
-        <v>0.8693128185082264</v>
+        <v>0.8695609828625813</v>
       </c>
       <c r="F22">
-        <v>0.834220879021949</v>
+        <v>0.8344894183363384</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.018281480673568</v>
+        <v>1.018314923473702</v>
       </c>
       <c r="J22">
-        <v>0.8718541746961666</v>
+        <v>0.872125560589968</v>
       </c>
       <c r="K22">
-        <v>0.8672518325396967</v>
+        <v>0.8675252815202518</v>
       </c>
       <c r="L22">
-        <v>0.8826116982991913</v>
+        <v>0.8828550478882716</v>
       </c>
       <c r="M22">
-        <v>0.8482388969939015</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.8485016282905088</v>
+      </c>
+      <c r="N22">
+        <v>0.9153531561576409</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8445229333163721</v>
+        <v>0.8448075869643199</v>
       </c>
       <c r="D23">
-        <v>0.8536414289921436</v>
+        <v>0.8539205584754238</v>
       </c>
       <c r="E23">
-        <v>0.8693128185082264</v>
+        <v>0.8695609828625813</v>
       </c>
       <c r="F23">
-        <v>0.834220879021949</v>
+        <v>0.8344894183363384</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.018281480673568</v>
+        <v>1.018314923473702</v>
       </c>
       <c r="J23">
-        <v>0.8718541746961666</v>
+        <v>0.872125560589968</v>
       </c>
       <c r="K23">
-        <v>0.8672518325396967</v>
+        <v>0.8675252815202518</v>
       </c>
       <c r="L23">
-        <v>0.8826116982991913</v>
+        <v>0.8828550478882716</v>
       </c>
       <c r="M23">
-        <v>0.8482388969939015</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.8485016282905088</v>
+      </c>
+      <c r="N23">
+        <v>0.9153531561576409</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8445229333163721</v>
+        <v>0.8448075869643199</v>
       </c>
       <c r="D24">
-        <v>0.8536414289921436</v>
+        <v>0.8539205584754238</v>
       </c>
       <c r="E24">
-        <v>0.8693128185082264</v>
+        <v>0.8695609828625813</v>
       </c>
       <c r="F24">
-        <v>0.834220879021949</v>
+        <v>0.8344894183363384</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.018281480673568</v>
+        <v>1.018314923473702</v>
       </c>
       <c r="J24">
-        <v>0.8718541746961666</v>
+        <v>0.872125560589968</v>
       </c>
       <c r="K24">
-        <v>0.8672518325396967</v>
+        <v>0.8675252815202518</v>
       </c>
       <c r="L24">
-        <v>0.8826116982991913</v>
+        <v>0.8828550478882716</v>
       </c>
       <c r="M24">
-        <v>0.8482388969939015</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.8485016282905088</v>
+      </c>
+      <c r="N24">
+        <v>0.9153531561576409</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.8445229333163721</v>
+        <v>0.8448075869643199</v>
       </c>
       <c r="D25">
-        <v>0.8536414289921436</v>
+        <v>0.8539205584754238</v>
       </c>
       <c r="E25">
-        <v>0.8693128185082264</v>
+        <v>0.8695609828625813</v>
       </c>
       <c r="F25">
-        <v>0.834220879021949</v>
+        <v>0.8344894183363384</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.018281480673568</v>
+        <v>1.018314923473702</v>
       </c>
       <c r="J25">
-        <v>0.8718541746961666</v>
+        <v>0.872125560589968</v>
       </c>
       <c r="K25">
-        <v>0.8672518325396967</v>
+        <v>0.8675252815202518</v>
       </c>
       <c r="L25">
-        <v>0.8826116982991913</v>
+        <v>0.8828550478882716</v>
       </c>
       <c r="M25">
-        <v>0.8482388969939015</v>
+        <v>0.8485016282905088</v>
+      </c>
+      <c r="N25">
+        <v>0.9153531561576409</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_9/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_9/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.8280247277305244</v>
+        <v>0.9279188334544652</v>
       </c>
       <c r="D2">
-        <v>0.837437226128142</v>
+        <v>0.94319438126059</v>
       </c>
       <c r="E2">
-        <v>0.8548052916430083</v>
+        <v>0.9450544671071739</v>
       </c>
       <c r="F2">
-        <v>0.8148243338551999</v>
+        <v>0.9491655583998565</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.014792067147017</v>
+        <v>1.045224098310553</v>
       </c>
       <c r="J2">
-        <v>0.856928544598345</v>
+        <v>0.9524921431739803</v>
       </c>
       <c r="K2">
-        <v>0.851746485322313</v>
+        <v>0.9555062508980963</v>
       </c>
       <c r="L2">
-        <v>0.8687416763444135</v>
+        <v>0.9573363390274047</v>
       </c>
       <c r="M2">
-        <v>0.8296510422074699</v>
+        <v>0.9613816649464434</v>
       </c>
       <c r="N2">
-        <v>0.9050350177465123</v>
+        <v>0.9538447912696632</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.8716976023860181</v>
+        <v>0.9590604068184218</v>
       </c>
       <c r="D3">
-        <v>0.880313943664228</v>
+        <v>0.973413131641684</v>
       </c>
       <c r="E3">
-        <v>0.8932107316320292</v>
+        <v>0.9734305260980686</v>
       </c>
       <c r="F3">
-        <v>0.8657129916771285</v>
+        <v>0.9794507828786488</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.023933625162806</v>
+        <v>1.045318143171977</v>
       </c>
       <c r="J3">
-        <v>0.8964229625990352</v>
+        <v>0.9807329502695237</v>
       </c>
       <c r="K3">
-        <v>0.8927479515236859</v>
+        <v>0.9843978917950984</v>
       </c>
       <c r="L3">
-        <v>0.9054207035428377</v>
+        <v>0.9844150481227718</v>
       </c>
       <c r="M3">
-        <v>0.878411142019758</v>
+        <v>0.9903535268563507</v>
       </c>
       <c r="N3">
-        <v>0.9318540283903319</v>
+        <v>0.9821257035505478</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.893311534989373</v>
+        <v>0.9768179543640019</v>
       </c>
       <c r="D4">
-        <v>0.9015127810857193</v>
+        <v>0.9906632926283432</v>
       </c>
       <c r="E4">
-        <v>0.9122250021244376</v>
+        <v>0.9896288651177777</v>
       </c>
       <c r="F4">
-        <v>0.8905537656918361</v>
+        <v>0.9967419771727236</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.028403623927312</v>
+        <v>1.045357368412754</v>
       </c>
       <c r="J4">
-        <v>0.9159030773613216</v>
+        <v>0.9968338414472201</v>
       </c>
       <c r="K4">
-        <v>0.9129656675751223</v>
+        <v>1.000875725162777</v>
       </c>
       <c r="L4">
-        <v>0.9235125092017117</v>
+        <v>0.999854093510361</v>
       </c>
       <c r="M4">
-        <v>0.9021811261598921</v>
+        <v>1.006879883360493</v>
       </c>
       <c r="N4">
-        <v>0.9450853806633427</v>
+        <v>0.9982494598405147</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9014551186056903</v>
+        <v>0.9838396151787675</v>
       </c>
       <c r="D5">
-        <v>0.9094959623796529</v>
+        <v>0.9974877833106324</v>
       </c>
       <c r="E5">
-        <v>0.9193897026134438</v>
+        <v>0.9960367840328387</v>
       </c>
       <c r="F5">
-        <v>0.8998522228448774</v>
+        <v>1.00358329170018</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.030071613181573</v>
+        <v>1.045368675785518</v>
       </c>
       <c r="J5">
-        <v>0.9232301460036195</v>
+        <v>1.003199026201796</v>
       </c>
       <c r="K5">
-        <v>0.9205692062179368</v>
+        <v>1.007391259403917</v>
       </c>
       <c r="L5">
-        <v>0.9303172608951018</v>
+        <v>1.005957470472594</v>
       </c>
       <c r="M5">
-        <v>0.9110714041919701</v>
+        <v>1.013415141255368</v>
       </c>
       <c r="N5">
-        <v>0.9500622265701525</v>
+        <v>1.004623683887539</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9027772441539945</v>
+        <v>0.9849953743560117</v>
       </c>
       <c r="D6">
-        <v>0.9107918269951268</v>
+        <v>0.9986112688641787</v>
       </c>
       <c r="E6">
-        <v>0.9205529188872525</v>
+        <v>0.9970916544074137</v>
       </c>
       <c r="F6">
-        <v>0.9013586235493216</v>
+        <v>1.004709578330686</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.030341399595564</v>
+        <v>1.045370270238388</v>
       </c>
       <c r="J6">
-        <v>0.9244190254726544</v>
+        <v>1.004246630170279</v>
       </c>
       <c r="K6">
-        <v>0.9218028953356489</v>
+        <v>1.008463685110707</v>
       </c>
       <c r="L6">
-        <v>0.9314213781696359</v>
+        <v>1.006961968574799</v>
       </c>
       <c r="M6">
-        <v>0.9125112507119684</v>
+        <v>1.014490842181155</v>
       </c>
       <c r="N6">
-        <v>0.9508697587384016</v>
+        <v>1.005672775573819</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.8934235653378796</v>
+        <v>0.9769133891093155</v>
       </c>
       <c r="D7">
-        <v>0.9016226202678774</v>
+        <v>0.9907560347609282</v>
       </c>
       <c r="E7">
-        <v>0.9123235646806599</v>
+        <v>0.9897159485060063</v>
       </c>
       <c r="F7">
-        <v>0.8906819131975638</v>
+        <v>0.9968349457231166</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.028426639147133</v>
+        <v>1.045357539874439</v>
       </c>
       <c r="J7">
-        <v>0.9160039233121382</v>
+        <v>0.996920360170883</v>
       </c>
       <c r="K7">
-        <v>0.9130703223019032</v>
+        <v>1.000964282243343</v>
       </c>
       <c r="L7">
-        <v>0.923606166988986</v>
+        <v>0.9999370546003489</v>
       </c>
       <c r="M7">
-        <v>0.9023036780071122</v>
+        <v>1.006968706496977</v>
       </c>
       <c r="N7">
-        <v>0.9451538794040171</v>
+        <v>0.9983361014306894</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.8448075869643199</v>
+        <v>0.9390375136901594</v>
       </c>
       <c r="D8">
-        <v>0.8539205584754238</v>
+        <v>0.9539784731903688</v>
       </c>
       <c r="E8">
-        <v>0.8695609828625813</v>
+        <v>0.9551805585997587</v>
       </c>
       <c r="F8">
-        <v>0.8344894183363384</v>
+        <v>0.9599725549801323</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.018314923473702</v>
+        <v>1.045260356825638</v>
       </c>
       <c r="J8">
-        <v>0.872125560589968</v>
+        <v>0.9625750674856143</v>
       </c>
       <c r="K8">
-        <v>0.8675252815202518</v>
+        <v>0.9658201583220504</v>
       </c>
       <c r="L8">
-        <v>0.8828550478882716</v>
+        <v>0.9670039262084812</v>
       </c>
       <c r="M8">
-        <v>0.8485016282905088</v>
+        <v>0.9717234819743144</v>
       </c>
       <c r="N8">
-        <v>0.9153531561576409</v>
+        <v>0.9639420344903471</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8448075869643199</v>
+        <v>0.8409637258347342</v>
       </c>
       <c r="D9">
-        <v>0.8539205584754238</v>
+        <v>0.859090064084168</v>
       </c>
       <c r="E9">
-        <v>0.8695609828625813</v>
+        <v>0.8661408671244775</v>
       </c>
       <c r="F9">
-        <v>0.8344894183363384</v>
+        <v>0.8649180596804645</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.018314923473702</v>
+        <v>1.044923609578788</v>
       </c>
       <c r="J9">
-        <v>0.872125560589968</v>
+        <v>0.8737233217036443</v>
       </c>
       <c r="K9">
-        <v>0.8675252815202518</v>
+        <v>0.8749743672695887</v>
       </c>
       <c r="L9">
-        <v>0.8828550478882716</v>
+        <v>0.8818565340436778</v>
       </c>
       <c r="M9">
-        <v>0.8485016282905088</v>
+        <v>0.8806627085957753</v>
       </c>
       <c r="N9">
-        <v>0.9153531561576409</v>
+        <v>0.8749641090379292</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8448075869643199</v>
+        <v>0.8409637258347342</v>
       </c>
       <c r="D10">
-        <v>0.8539205584754238</v>
+        <v>0.859090064084168</v>
       </c>
       <c r="E10">
-        <v>0.8695609828625813</v>
+        <v>0.8661408671244775</v>
       </c>
       <c r="F10">
-        <v>0.8344894183363384</v>
+        <v>0.8649180596804645</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.018314923473702</v>
+        <v>1.044923609578788</v>
       </c>
       <c r="J10">
-        <v>0.872125560589968</v>
+        <v>0.8737233217036443</v>
       </c>
       <c r="K10">
-        <v>0.8675252815202518</v>
+        <v>0.8749743672695887</v>
       </c>
       <c r="L10">
-        <v>0.8828550478882716</v>
+        <v>0.8818565340436778</v>
       </c>
       <c r="M10">
-        <v>0.8485016282905088</v>
+        <v>0.8806627085957753</v>
       </c>
       <c r="N10">
-        <v>0.9153531561576409</v>
+        <v>0.8749641090379292</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8448075869643199</v>
+        <v>0.8409637258347342</v>
       </c>
       <c r="D11">
-        <v>0.8539205584754238</v>
+        <v>0.859090064084168</v>
       </c>
       <c r="E11">
-        <v>0.8695609828625813</v>
+        <v>0.8661408671244775</v>
       </c>
       <c r="F11">
-        <v>0.8344894183363384</v>
+        <v>0.8649180596804645</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.018314923473702</v>
+        <v>1.044923609578788</v>
       </c>
       <c r="J11">
-        <v>0.872125560589968</v>
+        <v>0.8737233217036443</v>
       </c>
       <c r="K11">
-        <v>0.8675252815202518</v>
+        <v>0.8749743672695887</v>
       </c>
       <c r="L11">
-        <v>0.8828550478882716</v>
+        <v>0.8818565340436778</v>
       </c>
       <c r="M11">
-        <v>0.8485016282905088</v>
+        <v>0.8806627085957753</v>
       </c>
       <c r="N11">
-        <v>0.9153531561576409</v>
+        <v>0.8749641090379292</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8448075869643199</v>
+        <v>0.8409637258347342</v>
       </c>
       <c r="D12">
-        <v>0.8539205584754238</v>
+        <v>0.859090064084168</v>
       </c>
       <c r="E12">
-        <v>0.8695609828625813</v>
+        <v>0.8661408671244775</v>
       </c>
       <c r="F12">
-        <v>0.8344894183363384</v>
+        <v>0.8649180596804645</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.018314923473702</v>
+        <v>1.044923609578788</v>
       </c>
       <c r="J12">
-        <v>0.872125560589968</v>
+        <v>0.8737233217036443</v>
       </c>
       <c r="K12">
-        <v>0.8675252815202518</v>
+        <v>0.8749743672695887</v>
       </c>
       <c r="L12">
-        <v>0.8828550478882716</v>
+        <v>0.8818565340436778</v>
       </c>
       <c r="M12">
-        <v>0.8485016282905088</v>
+        <v>0.8806627085957753</v>
       </c>
       <c r="N12">
-        <v>0.9153531561576409</v>
+        <v>0.8749641090379292</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8448075869643199</v>
+        <v>0.8409637258347342</v>
       </c>
       <c r="D13">
-        <v>0.8539205584754238</v>
+        <v>0.859090064084168</v>
       </c>
       <c r="E13">
-        <v>0.8695609828625813</v>
+        <v>0.8661408671244775</v>
       </c>
       <c r="F13">
-        <v>0.8344894183363384</v>
+        <v>0.8649180596804645</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.018314923473702</v>
+        <v>1.044923609578788</v>
       </c>
       <c r="J13">
-        <v>0.872125560589968</v>
+        <v>0.8737233217036443</v>
       </c>
       <c r="K13">
-        <v>0.8675252815202518</v>
+        <v>0.8749743672695887</v>
       </c>
       <c r="L13">
-        <v>0.8828550478882716</v>
+        <v>0.8818565340436778</v>
       </c>
       <c r="M13">
-        <v>0.8485016282905088</v>
+        <v>0.8806627085957753</v>
       </c>
       <c r="N13">
-        <v>0.9153531561576409</v>
+        <v>0.8749641090379292</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8448075869643199</v>
+        <v>0.8409637258347342</v>
       </c>
       <c r="D14">
-        <v>0.8539205584754238</v>
+        <v>0.859090064084168</v>
       </c>
       <c r="E14">
-        <v>0.8695609828625813</v>
+        <v>0.8661408671244775</v>
       </c>
       <c r="F14">
-        <v>0.8344894183363384</v>
+        <v>0.8649180596804645</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.018314923473702</v>
+        <v>1.044923609578788</v>
       </c>
       <c r="J14">
-        <v>0.872125560589968</v>
+        <v>0.8737233217036443</v>
       </c>
       <c r="K14">
-        <v>0.8675252815202518</v>
+        <v>0.8749743672695887</v>
       </c>
       <c r="L14">
-        <v>0.8828550478882716</v>
+        <v>0.8818565340436778</v>
       </c>
       <c r="M14">
-        <v>0.8485016282905088</v>
+        <v>0.8806627085957753</v>
       </c>
       <c r="N14">
-        <v>0.9153531561576409</v>
+        <v>0.8749641090379292</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8448075869643199</v>
+        <v>0.8409637258347342</v>
       </c>
       <c r="D15">
-        <v>0.8539205584754238</v>
+        <v>0.859090064084168</v>
       </c>
       <c r="E15">
-        <v>0.8695609828625813</v>
+        <v>0.8661408671244775</v>
       </c>
       <c r="F15">
-        <v>0.8344894183363384</v>
+        <v>0.8649180596804645</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.018314923473702</v>
+        <v>1.044923609578788</v>
       </c>
       <c r="J15">
-        <v>0.872125560589968</v>
+        <v>0.8737233217036443</v>
       </c>
       <c r="K15">
-        <v>0.8675252815202518</v>
+        <v>0.8749743672695887</v>
       </c>
       <c r="L15">
-        <v>0.8828550478882716</v>
+        <v>0.8818565340436778</v>
       </c>
       <c r="M15">
-        <v>0.8485016282905088</v>
+        <v>0.8806627085957753</v>
       </c>
       <c r="N15">
-        <v>0.9153531561576409</v>
+        <v>0.8749641090379292</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8448075869643199</v>
+        <v>0.8409637258347342</v>
       </c>
       <c r="D16">
-        <v>0.8539205584754238</v>
+        <v>0.859090064084168</v>
       </c>
       <c r="E16">
-        <v>0.8695609828625813</v>
+        <v>0.8661408671244775</v>
       </c>
       <c r="F16">
-        <v>0.8344894183363384</v>
+        <v>0.8649180596804645</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.018314923473702</v>
+        <v>1.044923609578788</v>
       </c>
       <c r="J16">
-        <v>0.872125560589968</v>
+        <v>0.8737233217036443</v>
       </c>
       <c r="K16">
-        <v>0.8675252815202518</v>
+        <v>0.8749743672695887</v>
       </c>
       <c r="L16">
-        <v>0.8828550478882716</v>
+        <v>0.8818565340436778</v>
       </c>
       <c r="M16">
-        <v>0.8485016282905088</v>
+        <v>0.8806627085957753</v>
       </c>
       <c r="N16">
-        <v>0.9153531561576409</v>
+        <v>0.8749641090379292</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8448075869643199</v>
+        <v>0.8409637258347342</v>
       </c>
       <c r="D17">
-        <v>0.8539205584754238</v>
+        <v>0.859090064084168</v>
       </c>
       <c r="E17">
-        <v>0.8695609828625813</v>
+        <v>0.8661408671244775</v>
       </c>
       <c r="F17">
-        <v>0.8344894183363384</v>
+        <v>0.8649180596804645</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.018314923473702</v>
+        <v>1.044923609578788</v>
       </c>
       <c r="J17">
-        <v>0.872125560589968</v>
+        <v>0.8737233217036443</v>
       </c>
       <c r="K17">
-        <v>0.8675252815202518</v>
+        <v>0.8749743672695887</v>
       </c>
       <c r="L17">
-        <v>0.8828550478882716</v>
+        <v>0.8818565340436778</v>
       </c>
       <c r="M17">
-        <v>0.8485016282905088</v>
+        <v>0.8806627085957753</v>
       </c>
       <c r="N17">
-        <v>0.9153531561576409</v>
+        <v>0.8749641090379292</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8448075869643199</v>
+        <v>0.8409637258347342</v>
       </c>
       <c r="D18">
-        <v>0.8539205584754238</v>
+        <v>0.859090064084168</v>
       </c>
       <c r="E18">
-        <v>0.8695609828625813</v>
+        <v>0.8661408671244775</v>
       </c>
       <c r="F18">
-        <v>0.8344894183363384</v>
+        <v>0.8649180596804645</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.018314923473702</v>
+        <v>1.044923609578788</v>
       </c>
       <c r="J18">
-        <v>0.872125560589968</v>
+        <v>0.8737233217036443</v>
       </c>
       <c r="K18">
-        <v>0.8675252815202518</v>
+        <v>0.8749743672695887</v>
       </c>
       <c r="L18">
-        <v>0.8828550478882716</v>
+        <v>0.8818565340436778</v>
       </c>
       <c r="M18">
-        <v>0.8485016282905088</v>
+        <v>0.8806627085957753</v>
       </c>
       <c r="N18">
-        <v>0.9153531561576409</v>
+        <v>0.8749641090379292</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8448075869643199</v>
+        <v>0.8409637258347342</v>
       </c>
       <c r="D19">
-        <v>0.8539205584754238</v>
+        <v>0.859090064084168</v>
       </c>
       <c r="E19">
-        <v>0.8695609828625813</v>
+        <v>0.8661408671244775</v>
       </c>
       <c r="F19">
-        <v>0.8344894183363384</v>
+        <v>0.8649180596804645</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.018314923473702</v>
+        <v>1.044923609578788</v>
       </c>
       <c r="J19">
-        <v>0.872125560589968</v>
+        <v>0.8737233217036443</v>
       </c>
       <c r="K19">
-        <v>0.8675252815202518</v>
+        <v>0.8749743672695887</v>
       </c>
       <c r="L19">
-        <v>0.8828550478882716</v>
+        <v>0.8818565340436778</v>
       </c>
       <c r="M19">
-        <v>0.8485016282905088</v>
+        <v>0.8806627085957753</v>
       </c>
       <c r="N19">
-        <v>0.9153531561576409</v>
+        <v>0.8749641090379292</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8448075869643199</v>
+        <v>0.8409637258347342</v>
       </c>
       <c r="D20">
-        <v>0.8539205584754238</v>
+        <v>0.859090064084168</v>
       </c>
       <c r="E20">
-        <v>0.8695609828625813</v>
+        <v>0.8661408671244775</v>
       </c>
       <c r="F20">
-        <v>0.8344894183363384</v>
+        <v>0.8649180596804645</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.018314923473702</v>
+        <v>1.044923609578788</v>
       </c>
       <c r="J20">
-        <v>0.872125560589968</v>
+        <v>0.8737233217036443</v>
       </c>
       <c r="K20">
-        <v>0.8675252815202518</v>
+        <v>0.8749743672695887</v>
       </c>
       <c r="L20">
-        <v>0.8828550478882716</v>
+        <v>0.8818565340436778</v>
       </c>
       <c r="M20">
-        <v>0.8485016282905088</v>
+        <v>0.8806627085957753</v>
       </c>
       <c r="N20">
-        <v>0.9153531561576409</v>
+        <v>0.8749641090379292</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8448075869643199</v>
+        <v>0.8409637258347342</v>
       </c>
       <c r="D21">
-        <v>0.8539205584754238</v>
+        <v>0.859090064084168</v>
       </c>
       <c r="E21">
-        <v>0.8695609828625813</v>
+        <v>0.8661408671244775</v>
       </c>
       <c r="F21">
-        <v>0.8344894183363384</v>
+        <v>0.8649180596804645</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.018314923473702</v>
+        <v>1.044923609578788</v>
       </c>
       <c r="J21">
-        <v>0.872125560589968</v>
+        <v>0.8737233217036443</v>
       </c>
       <c r="K21">
-        <v>0.8675252815202518</v>
+        <v>0.8749743672695887</v>
       </c>
       <c r="L21">
-        <v>0.8828550478882716</v>
+        <v>0.8818565340436778</v>
       </c>
       <c r="M21">
-        <v>0.8485016282905088</v>
+        <v>0.8806627085957753</v>
       </c>
       <c r="N21">
-        <v>0.9153531561576409</v>
+        <v>0.8749641090379292</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8448075869643199</v>
+        <v>0.8409637258347342</v>
       </c>
       <c r="D22">
-        <v>0.8539205584754238</v>
+        <v>0.859090064084168</v>
       </c>
       <c r="E22">
-        <v>0.8695609828625813</v>
+        <v>0.8661408671244775</v>
       </c>
       <c r="F22">
-        <v>0.8344894183363384</v>
+        <v>0.8649180596804645</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.018314923473702</v>
+        <v>1.044923609578788</v>
       </c>
       <c r="J22">
-        <v>0.872125560589968</v>
+        <v>0.8737233217036443</v>
       </c>
       <c r="K22">
-        <v>0.8675252815202518</v>
+        <v>0.8749743672695887</v>
       </c>
       <c r="L22">
-        <v>0.8828550478882716</v>
+        <v>0.8818565340436778</v>
       </c>
       <c r="M22">
-        <v>0.8485016282905088</v>
+        <v>0.8806627085957753</v>
       </c>
       <c r="N22">
-        <v>0.9153531561576409</v>
+        <v>0.8749641090379292</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8448075869643199</v>
+        <v>0.8409637258347342</v>
       </c>
       <c r="D23">
-        <v>0.8539205584754238</v>
+        <v>0.859090064084168</v>
       </c>
       <c r="E23">
-        <v>0.8695609828625813</v>
+        <v>0.8661408671244775</v>
       </c>
       <c r="F23">
-        <v>0.8344894183363384</v>
+        <v>0.8649180596804645</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.018314923473702</v>
+        <v>1.044923609578788</v>
       </c>
       <c r="J23">
-        <v>0.872125560589968</v>
+        <v>0.8737233217036443</v>
       </c>
       <c r="K23">
-        <v>0.8675252815202518</v>
+        <v>0.8749743672695887</v>
       </c>
       <c r="L23">
-        <v>0.8828550478882716</v>
+        <v>0.8818565340436778</v>
       </c>
       <c r="M23">
-        <v>0.8485016282905088</v>
+        <v>0.8806627085957753</v>
       </c>
       <c r="N23">
-        <v>0.9153531561576409</v>
+        <v>0.8749641090379292</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8448075869643199</v>
+        <v>0.8409637258347342</v>
       </c>
       <c r="D24">
-        <v>0.8539205584754238</v>
+        <v>0.859090064084168</v>
       </c>
       <c r="E24">
-        <v>0.8695609828625813</v>
+        <v>0.8661408671244775</v>
       </c>
       <c r="F24">
-        <v>0.8344894183363384</v>
+        <v>0.8649180596804645</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.018314923473702</v>
+        <v>1.044923609578788</v>
       </c>
       <c r="J24">
-        <v>0.872125560589968</v>
+        <v>0.8737233217036443</v>
       </c>
       <c r="K24">
-        <v>0.8675252815202518</v>
+        <v>0.8749743672695887</v>
       </c>
       <c r="L24">
-        <v>0.8828550478882716</v>
+        <v>0.8818565340436778</v>
       </c>
       <c r="M24">
-        <v>0.8485016282905088</v>
+        <v>0.8806627085957753</v>
       </c>
       <c r="N24">
-        <v>0.9153531561576409</v>
+        <v>0.8749641090379292</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.8448075869643199</v>
+        <v>0.8409637258347342</v>
       </c>
       <c r="D25">
-        <v>0.8539205584754238</v>
+        <v>0.859090064084168</v>
       </c>
       <c r="E25">
-        <v>0.8695609828625813</v>
+        <v>0.8661408671244775</v>
       </c>
       <c r="F25">
-        <v>0.8344894183363384</v>
+        <v>0.8649180596804645</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.018314923473702</v>
+        <v>1.044923609578788</v>
       </c>
       <c r="J25">
-        <v>0.872125560589968</v>
+        <v>0.8737233217036443</v>
       </c>
       <c r="K25">
-        <v>0.8675252815202518</v>
+        <v>0.8749743672695887</v>
       </c>
       <c r="L25">
-        <v>0.8828550478882716</v>
+        <v>0.8818565340436778</v>
       </c>
       <c r="M25">
-        <v>0.8485016282905088</v>
+        <v>0.8806627085957753</v>
       </c>
       <c r="N25">
-        <v>0.9153531561576409</v>
+        <v>0.8749641090379292</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_9/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_9/res_bus/vm_pu.xlsx
@@ -417,984 +417,840 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>1.05</v>
-      </c>
       <c r="C2">
-        <v>0.9279188334544652</v>
+        <v>0.9869301857721715</v>
       </c>
       <c r="D2">
-        <v>0.94319438126059</v>
+        <v>1.001770133077215</v>
       </c>
       <c r="E2">
-        <v>0.9450544671071739</v>
+        <v>1.002634358953114</v>
       </c>
       <c r="F2">
-        <v>0.9491655583998565</v>
+        <v>1.008381256814217</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
-      <c r="I2">
-        <v>1.045224098310553</v>
-      </c>
       <c r="J2">
-        <v>0.9524921431739803</v>
+        <v>1.009508966044422</v>
       </c>
       <c r="K2">
-        <v>0.9555062508980963</v>
+        <v>1.013204862098452</v>
       </c>
       <c r="L2">
-        <v>0.9573363390274047</v>
+        <v>1.014057114573383</v>
       </c>
       <c r="M2">
-        <v>0.9613816649464434</v>
+        <v>1.019725049382205</v>
       </c>
       <c r="N2">
-        <v>0.9538447912696632</v>
+        <v>1.006580085832158</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>1.05</v>
-      </c>
       <c r="C3">
-        <v>0.9590604068184218</v>
+        <v>0.9920853276894646</v>
       </c>
       <c r="D3">
-        <v>0.973413131641684</v>
+        <v>1.006167499211726</v>
       </c>
       <c r="E3">
-        <v>0.9734305260980686</v>
+        <v>1.006997039482447</v>
       </c>
       <c r="F3">
-        <v>0.9794507828786488</v>
+        <v>1.013161255380655</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
-      <c r="I3">
-        <v>1.045318143171977</v>
-      </c>
       <c r="J3">
-        <v>0.9807329502695237</v>
+        <v>1.012794104984076</v>
       </c>
       <c r="K3">
-        <v>0.9843978917950984</v>
+        <v>1.016722069299321</v>
       </c>
       <c r="L3">
-        <v>0.9844150481227718</v>
+        <v>1.01754116792187</v>
       </c>
       <c r="M3">
-        <v>0.9903535268563507</v>
+        <v>1.023628460164757</v>
       </c>
       <c r="N3">
-        <v>0.9821257035505478</v>
+        <v>1.007741802494142</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>1.05</v>
-      </c>
       <c r="C4">
-        <v>0.9768179543640019</v>
+        <v>0.9953519635318721</v>
       </c>
       <c r="D4">
-        <v>0.9906632926283432</v>
+        <v>1.008960383314181</v>
       </c>
       <c r="E4">
-        <v>0.9896288651177777</v>
+        <v>1.009768144449613</v>
       </c>
       <c r="F4">
-        <v>0.9967419771727236</v>
+        <v>1.016197897706754</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
-      <c r="I4">
-        <v>1.045357368412754</v>
-      </c>
       <c r="J4">
-        <v>0.9968338414472201</v>
+        <v>1.01487531852866</v>
       </c>
       <c r="K4">
-        <v>1.000875725162777</v>
+        <v>1.018951854060317</v>
       </c>
       <c r="L4">
-        <v>0.999854093510361</v>
+        <v>1.019750088973159</v>
       </c>
       <c r="M4">
-        <v>1.006879883360493</v>
+        <v>1.026104681406543</v>
       </c>
       <c r="N4">
-        <v>0.9982494598405147</v>
+        <v>1.008476628887285</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>1.05</v>
-      </c>
       <c r="C5">
-        <v>0.9838396151787675</v>
+        <v>0.9967094010272057</v>
       </c>
       <c r="D5">
-        <v>0.9974877833106324</v>
+        <v>1.010122441029146</v>
       </c>
       <c r="E5">
-        <v>0.9960367840328387</v>
+        <v>1.010921197648188</v>
       </c>
       <c r="F5">
-        <v>1.00358329170018</v>
+        <v>1.01746156295345</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
-      <c r="I5">
-        <v>1.045368675785518</v>
-      </c>
       <c r="J5">
-        <v>1.003199026201796</v>
+        <v>1.015740004889821</v>
       </c>
       <c r="K5">
-        <v>1.007391259403917</v>
+        <v>1.019878637744346</v>
       </c>
       <c r="L5">
-        <v>1.005957470472594</v>
+        <v>1.020668236170906</v>
       </c>
       <c r="M5">
-        <v>1.013415141255368</v>
+        <v>1.027134279056551</v>
       </c>
       <c r="N5">
-        <v>1.004623683887539</v>
+        <v>1.008781640676388</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>1.05</v>
-      </c>
       <c r="C6">
-        <v>0.9849953743560117</v>
+        <v>0.9969364101005395</v>
       </c>
       <c r="D6">
-        <v>0.9986112688641787</v>
+        <v>1.01031686182459</v>
       </c>
       <c r="E6">
-        <v>0.9970916544074137</v>
+        <v>1.011114115210222</v>
       </c>
       <c r="F6">
-        <v>1.004709578330686</v>
+        <v>1.017672994541189</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
-      <c r="I6">
-        <v>1.045370270238388</v>
-      </c>
       <c r="J6">
-        <v>1.004246630170279</v>
+        <v>1.015884599231678</v>
       </c>
       <c r="K6">
-        <v>1.008463685110707</v>
+        <v>1.020033637813746</v>
       </c>
       <c r="L6">
-        <v>1.006961968574799</v>
+        <v>1.02082179385122</v>
       </c>
       <c r="M6">
-        <v>1.014490842181155</v>
+        <v>1.027306496995793</v>
       </c>
       <c r="N6">
-        <v>1.005672775573819</v>
+        <v>1.008832627974141</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>1.05</v>
-      </c>
       <c r="C7">
-        <v>0.9769133891093155</v>
+        <v>0.9953701631056122</v>
       </c>
       <c r="D7">
-        <v>0.9907560347609282</v>
+        <v>1.008975957574169</v>
       </c>
       <c r="E7">
-        <v>0.9897159485060063</v>
+        <v>1.00978359780564</v>
       </c>
       <c r="F7">
-        <v>0.9968349457231166</v>
+        <v>1.01621483300146</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
-      <c r="I7">
-        <v>1.045357539874439</v>
-      </c>
       <c r="J7">
-        <v>0.996920360170883</v>
+        <v>1.014886912300266</v>
       </c>
       <c r="K7">
-        <v>1.000964282243343</v>
+        <v>1.01896427897705</v>
       </c>
       <c r="L7">
-        <v>0.9999370546003489</v>
+        <v>1.019762397967972</v>
       </c>
       <c r="M7">
-        <v>1.006968706496977</v>
+        <v>1.026118483171636</v>
       </c>
       <c r="N7">
-        <v>0.9983361014306894</v>
+        <v>1.008480719660146</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>1.05</v>
-      </c>
       <c r="C8">
-        <v>0.9390375136901594</v>
+        <v>0.9886871182405953</v>
       </c>
       <c r="D8">
-        <v>0.9539784731903688</v>
+        <v>1.003267424360807</v>
       </c>
       <c r="E8">
-        <v>0.9551805585997587</v>
+        <v>1.004119785629987</v>
       </c>
       <c r="F8">
-        <v>0.9599725549801323</v>
+        <v>1.010008683769521</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
-      <c r="I8">
-        <v>1.045260356825638</v>
-      </c>
       <c r="J8">
-        <v>0.9625750674856143</v>
+        <v>1.010628651267746</v>
       </c>
       <c r="K8">
-        <v>0.9658201583220504</v>
+        <v>1.014403317467649</v>
       </c>
       <c r="L8">
-        <v>0.9670039262084812</v>
+        <v>1.015244239497524</v>
       </c>
       <c r="M8">
-        <v>0.9717234819743144</v>
+        <v>1.021054766554478</v>
       </c>
       <c r="N8">
-        <v>0.9639420344903471</v>
+        <v>1.006976270952649</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>1.05</v>
-      </c>
       <c r="C9">
-        <v>0.8409637258347342</v>
+        <v>0.9763488771756561</v>
       </c>
       <c r="D9">
-        <v>0.859090064084168</v>
+        <v>0.9927822670627516</v>
       </c>
       <c r="E9">
-        <v>0.8661408671244775</v>
+        <v>0.9937188967916095</v>
       </c>
       <c r="F9">
-        <v>0.8649180596804645</v>
+        <v>0.9986150009137038</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
-      <c r="I9">
-        <v>1.044923609578788</v>
-      </c>
       <c r="J9">
-        <v>0.8737233217036443</v>
+        <v>1.00276538012783</v>
       </c>
       <c r="K9">
-        <v>0.8749743672695887</v>
+        <v>1.005993542563763</v>
       </c>
       <c r="L9">
-        <v>0.8818565340436778</v>
+        <v>1.006914709218447</v>
       </c>
       <c r="M9">
-        <v>0.8806627085957753</v>
+        <v>1.011730588800037</v>
       </c>
       <c r="N9">
-        <v>0.8749641090379292</v>
+        <v>1.004189607740219</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>1.05</v>
-      </c>
       <c r="C10">
-        <v>0.8409637258347342</v>
+        <v>0.9676963801861118</v>
       </c>
       <c r="D10">
-        <v>0.859090064084168</v>
+        <v>0.9854700052117121</v>
       </c>
       <c r="E10">
-        <v>0.8661408671244775</v>
+        <v>0.9864670537499891</v>
       </c>
       <c r="F10">
-        <v>0.8649180596804645</v>
+        <v>0.9906722803855703</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
-      <c r="I10">
-        <v>1.044923609578788</v>
-      </c>
       <c r="J10">
-        <v>0.8737233217036443</v>
+        <v>0.997252989839062</v>
       </c>
       <c r="K10">
-        <v>0.8749743672695887</v>
+        <v>1.000106654231389</v>
       </c>
       <c r="L10">
-        <v>0.8818565340436778</v>
+        <v>1.001085025555858</v>
       </c>
       <c r="M10">
-        <v>0.8806627085957753</v>
+        <v>1.00521201706662</v>
       </c>
       <c r="N10">
-        <v>0.8749641090379292</v>
+        <v>1.002231130759344</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>1.05</v>
-      </c>
       <c r="C11">
-        <v>0.8409637258347342</v>
+        <v>0.96383637039257</v>
       </c>
       <c r="D11">
-        <v>0.859090064084168</v>
+        <v>0.9822185613497094</v>
       </c>
       <c r="E11">
-        <v>0.8661408671244775</v>
+        <v>0.9832429184059239</v>
       </c>
       <c r="F11">
-        <v>0.8649180596804645</v>
+        <v>0.9871411102991955</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
-      <c r="I11">
-        <v>1.044923609578788</v>
-      </c>
       <c r="J11">
-        <v>0.8737233217036443</v>
+        <v>0.9947950184806095</v>
       </c>
       <c r="K11">
-        <v>0.8749743672695887</v>
+        <v>0.997483785100046</v>
       </c>
       <c r="L11">
-        <v>0.8818565340436778</v>
+        <v>0.9984879221724813</v>
       </c>
       <c r="M11">
-        <v>0.8806627085957753</v>
+        <v>1.002309670167867</v>
       </c>
       <c r="N11">
-        <v>0.8749641090379292</v>
+        <v>1.001356872502094</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12">
-        <v>1.05</v>
-      </c>
       <c r="C12">
-        <v>0.8409637258347342</v>
+        <v>0.962384421621063</v>
       </c>
       <c r="D12">
-        <v>0.859090064084168</v>
+        <v>0.9809972199793572</v>
       </c>
       <c r="E12">
-        <v>0.8661408671244775</v>
+        <v>0.9820319061978815</v>
       </c>
       <c r="F12">
-        <v>0.8649180596804645</v>
+        <v>0.9858147750491549</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
-      <c r="I12">
-        <v>1.044923609578788</v>
-      </c>
       <c r="J12">
-        <v>0.8737233217036443</v>
+        <v>0.993870693995859</v>
       </c>
       <c r="K12">
-        <v>0.8749743672695887</v>
+        <v>0.9964977690339272</v>
       </c>
       <c r="L12">
-        <v>0.8818565340436778</v>
+        <v>0.9975116371464458</v>
       </c>
       <c r="M12">
-        <v>0.8806627085957753</v>
+        <v>1.001218882799154</v>
       </c>
       <c r="N12">
-        <v>0.8749641090379292</v>
+        <v>1.001027977170437</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13">
-        <v>1.05</v>
-      </c>
       <c r="C13">
-        <v>0.8409637258347342</v>
+        <v>0.9626967109076608</v>
       </c>
       <c r="D13">
-        <v>0.859090064084168</v>
+        <v>0.9812598314887083</v>
       </c>
       <c r="E13">
-        <v>0.8661408671244775</v>
+        <v>0.9822922934433745</v>
       </c>
       <c r="F13">
-        <v>0.8649180596804645</v>
+        <v>0.9860999588234397</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
-      <c r="I13">
-        <v>1.044923609578788</v>
-      </c>
       <c r="J13">
-        <v>0.8737233217036443</v>
+        <v>0.9940694881488453</v>
       </c>
       <c r="K13">
-        <v>0.8749743672695887</v>
+        <v>0.9967098167091484</v>
       </c>
       <c r="L13">
-        <v>0.8818565340436778</v>
+        <v>0.9977215900323241</v>
       </c>
       <c r="M13">
-        <v>0.8806627085957753</v>
+        <v>1.001453448872249</v>
       </c>
       <c r="N13">
-        <v>0.8749641090379292</v>
+        <v>1.001098718116466</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14">
-        <v>1.05</v>
-      </c>
       <c r="C14">
-        <v>0.8409637258347342</v>
+        <v>0.9637167293590476</v>
       </c>
       <c r="D14">
-        <v>0.859090064084168</v>
+        <v>0.9821178874601342</v>
       </c>
       <c r="E14">
-        <v>0.8661408671244775</v>
+        <v>0.9831430944616677</v>
       </c>
       <c r="F14">
-        <v>0.8649180596804645</v>
+        <v>0.9870317803232349</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
-      <c r="I14">
-        <v>1.044923609578788</v>
-      </c>
       <c r="J14">
-        <v>0.8737233217036443</v>
+        <v>0.9947188484704469</v>
       </c>
       <c r="K14">
-        <v>0.8749743672695887</v>
+        <v>0.9974025248252701</v>
       </c>
       <c r="L14">
-        <v>0.8818565340436778</v>
+        <v>0.998407462928067</v>
       </c>
       <c r="M14">
-        <v>0.8806627085957753</v>
+        <v>1.002219769465667</v>
       </c>
       <c r="N14">
-        <v>0.8749641090379292</v>
+        <v>1.001329772026099</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15">
-        <v>1.05</v>
-      </c>
       <c r="C15">
-        <v>0.8409637258347342</v>
+        <v>0.9643427534494206</v>
       </c>
       <c r="D15">
-        <v>0.859090064084168</v>
+        <v>0.982644735190523</v>
       </c>
       <c r="E15">
-        <v>0.8661408671244775</v>
+        <v>0.9836654971822856</v>
       </c>
       <c r="F15">
-        <v>0.8649180596804645</v>
+        <v>0.9876039303628102</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
-      <c r="I15">
-        <v>1.044923609578788</v>
-      </c>
       <c r="J15">
-        <v>0.8737233217036443</v>
+        <v>0.9951174199677675</v>
       </c>
       <c r="K15">
-        <v>0.8749743672695887</v>
+        <v>0.9978277449357508</v>
       </c>
       <c r="L15">
-        <v>0.8818565340436778</v>
+        <v>0.9988284932428683</v>
       </c>
       <c r="M15">
-        <v>0.8806627085957753</v>
+        <v>1.002690215269618</v>
       </c>
       <c r="N15">
-        <v>0.8749641090379292</v>
+        <v>1.001471574357618</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16">
-        <v>1.05</v>
-      </c>
       <c r="C16">
-        <v>0.8409637258347342</v>
+        <v>0.9679500723799995</v>
       </c>
       <c r="D16">
-        <v>0.859090064084168</v>
+        <v>0.9856839301733298</v>
       </c>
       <c r="E16">
-        <v>0.8661408671244775</v>
+        <v>0.9866791916023334</v>
       </c>
       <c r="F16">
-        <v>0.8649180596804645</v>
+        <v>0.9909046213485754</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
-      <c r="I16">
-        <v>1.044923609578788</v>
-      </c>
       <c r="J16">
-        <v>0.8737233217036443</v>
+        <v>0.9974145658700929</v>
       </c>
       <c r="K16">
-        <v>0.8749743672695887</v>
+        <v>1.000279113799426</v>
       </c>
       <c r="L16">
-        <v>0.8818565340436778</v>
+        <v>1.001255797023612</v>
       </c>
       <c r="M16">
-        <v>0.8806627085957753</v>
+        <v>1.005402893659561</v>
       </c>
       <c r="N16">
-        <v>0.8749641090379292</v>
+        <v>1.002288581747204</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17">
-        <v>1.05</v>
-      </c>
       <c r="C17">
-        <v>0.8409637258347342</v>
+        <v>0.9701817134905865</v>
       </c>
       <c r="D17">
-        <v>0.859090064084168</v>
+        <v>0.9875669763884046</v>
       </c>
       <c r="E17">
-        <v>0.8661408671244775</v>
+        <v>0.9885465580137998</v>
       </c>
       <c r="F17">
-        <v>0.8649180596804645</v>
+        <v>0.9929498402081344</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
-      <c r="I17">
-        <v>1.044923609578788</v>
-      </c>
       <c r="J17">
-        <v>0.8737233217036443</v>
+        <v>0.9988360363801285</v>
       </c>
       <c r="K17">
-        <v>0.8749743672695887</v>
+        <v>1.001796570877532</v>
       </c>
       <c r="L17">
-        <v>0.8818565340436778</v>
+        <v>1.002758432697223</v>
       </c>
       <c r="M17">
-        <v>0.8806627085957753</v>
+        <v>1.007082623891764</v>
       </c>
       <c r="N17">
-        <v>0.8749641090379292</v>
+        <v>1.002793899936501</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18">
-        <v>1.05</v>
-      </c>
       <c r="C18">
-        <v>0.8409637258347342</v>
+        <v>0.9714725294346509</v>
       </c>
       <c r="D18">
-        <v>0.859090064084168</v>
+        <v>0.9886571642484347</v>
       </c>
       <c r="E18">
-        <v>0.8661408671244775</v>
+        <v>0.9896277097990539</v>
       </c>
       <c r="F18">
-        <v>0.8649180596804645</v>
+        <v>0.9941339766397485</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
-      <c r="I18">
-        <v>1.044923609578788</v>
-      </c>
       <c r="J18">
-        <v>0.8737233217036443</v>
+        <v>0.9996583451807654</v>
       </c>
       <c r="K18">
-        <v>0.8749743672695887</v>
+        <v>1.002674605001245</v>
       </c>
       <c r="L18">
-        <v>0.8818565340436778</v>
+        <v>1.003627917036952</v>
       </c>
       <c r="M18">
-        <v>0.8806627085957753</v>
+        <v>1.008054739389044</v>
       </c>
       <c r="N18">
-        <v>0.8749641090379292</v>
+        <v>1.003086128704131</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19">
-        <v>1.05</v>
-      </c>
       <c r="C19">
-        <v>0.8409637258347342</v>
+        <v>0.9719108546320515</v>
       </c>
       <c r="D19">
-        <v>0.859090064084168</v>
+        <v>0.9890275295011338</v>
       </c>
       <c r="E19">
-        <v>0.8661408671244775</v>
+        <v>0.989995012205196</v>
       </c>
       <c r="F19">
-        <v>0.8649180596804645</v>
+        <v>0.9945362690070969</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
-      <c r="I19">
-        <v>1.044923609578788</v>
-      </c>
       <c r="J19">
-        <v>0.8737233217036443</v>
+        <v>0.9999375948057977</v>
       </c>
       <c r="K19">
-        <v>0.8749743672695887</v>
+        <v>1.002972811953296</v>
       </c>
       <c r="L19">
-        <v>0.8818565340436778</v>
+        <v>1.003923224581117</v>
       </c>
       <c r="M19">
-        <v>0.8806627085957753</v>
+        <v>1.008384930936659</v>
       </c>
       <c r="N19">
-        <v>0.8749641090379292</v>
+        <v>1.003185350920951</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20">
-        <v>1.05</v>
-      </c>
       <c r="C20">
-        <v>0.8409637258347342</v>
+        <v>0.9699434109507472</v>
       </c>
       <c r="D20">
-        <v>0.859090064084168</v>
+        <v>0.9873657931626005</v>
       </c>
       <c r="E20">
-        <v>0.8661408671244775</v>
+        <v>0.9883470456447353</v>
       </c>
       <c r="F20">
-        <v>0.8649180596804645</v>
+        <v>0.9927313245572604</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
-      <c r="I20">
-        <v>1.044923609578788</v>
-      </c>
       <c r="J20">
-        <v>0.8737233217036443</v>
+        <v>0.9986842350434282</v>
       </c>
       <c r="K20">
-        <v>0.8749743672695887</v>
+        <v>1.001634498401818</v>
       </c>
       <c r="L20">
-        <v>0.8818565340436778</v>
+        <v>1.002597940485916</v>
       </c>
       <c r="M20">
-        <v>0.8806627085957753</v>
+        <v>1.006903200442941</v>
       </c>
       <c r="N20">
-        <v>0.8749641090379292</v>
+        <v>1.002739945705994</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21">
-        <v>1.05</v>
-      </c>
       <c r="C21">
-        <v>0.8409637258347342</v>
+        <v>0.9634168704429187</v>
       </c>
       <c r="D21">
-        <v>0.859090064084168</v>
+        <v>0.9818655939185621</v>
       </c>
       <c r="E21">
-        <v>0.8661408671244775</v>
+        <v>0.9828929320878652</v>
       </c>
       <c r="F21">
-        <v>0.8649180596804645</v>
+        <v>0.9867577954624267</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
-      <c r="I21">
-        <v>1.044923609578788</v>
-      </c>
       <c r="J21">
-        <v>0.8737233217036443</v>
+        <v>0.9945279461074877</v>
       </c>
       <c r="K21">
-        <v>0.8749743672695887</v>
+        <v>0.9971988700473291</v>
       </c>
       <c r="L21">
-        <v>0.8818565340436778</v>
+        <v>0.9982058164294032</v>
       </c>
       <c r="M21">
-        <v>0.8806627085957753</v>
+        <v>1.001994464728332</v>
       </c>
       <c r="N21">
-        <v>0.8749641090379292</v>
+        <v>1.001261848987965</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22">
-        <v>1.05</v>
-      </c>
       <c r="C22">
-        <v>0.8409637258347342</v>
+        <v>0.9592076248019463</v>
       </c>
       <c r="D22">
-        <v>0.859090064084168</v>
+        <v>0.9783282050019687</v>
       </c>
       <c r="E22">
-        <v>0.8661408671244775</v>
+        <v>0.9793856001628227</v>
       </c>
       <c r="F22">
-        <v>0.8649180596804645</v>
+        <v>0.9829164483245207</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
-      <c r="I22">
-        <v>1.044923609578788</v>
-      </c>
       <c r="J22">
-        <v>0.8737233217036443</v>
+        <v>0.9918488432237411</v>
       </c>
       <c r="K22">
-        <v>0.8749743672695887</v>
+        <v>0.994341566337447</v>
       </c>
       <c r="L22">
-        <v>0.8818565340436778</v>
+        <v>0.995376800288066</v>
       </c>
       <c r="M22">
-        <v>0.8806627085957753</v>
+        <v>0.9988341040627057</v>
       </c>
       <c r="N22">
-        <v>0.8749641090379292</v>
+        <v>1.000308340069514</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23">
-        <v>1.05</v>
-      </c>
       <c r="C23">
-        <v>0.8409637258347342</v>
+        <v>0.9614494513239106</v>
       </c>
       <c r="D23">
-        <v>0.859090064084168</v>
+        <v>0.980211236849034</v>
       </c>
       <c r="E23">
-        <v>0.8661408671244775</v>
+        <v>0.9812525909993861</v>
       </c>
       <c r="F23">
-        <v>0.8649180596804645</v>
+        <v>0.9849612449925105</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
-      <c r="I23">
-        <v>1.044923609578788</v>
-      </c>
       <c r="J23">
-        <v>0.8737233217036443</v>
+        <v>0.993275560773701</v>
       </c>
       <c r="K23">
-        <v>0.8749743672695887</v>
+        <v>0.9958630055729528</v>
       </c>
       <c r="L23">
-        <v>0.8818565340436778</v>
+        <v>0.9968831512542694</v>
       </c>
       <c r="M23">
-        <v>0.8806627085957753</v>
+        <v>1.000516753384189</v>
       </c>
       <c r="N23">
-        <v>0.8749641090379292</v>
+        <v>1.000816181353253</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24">
-        <v>1.05</v>
-      </c>
       <c r="C24">
-        <v>0.8409637258347342</v>
+        <v>0.9700511230964801</v>
       </c>
       <c r="D24">
-        <v>0.859090064084168</v>
+        <v>0.9874567243635446</v>
       </c>
       <c r="E24">
-        <v>0.8661408671244775</v>
+        <v>0.9884372215194555</v>
       </c>
       <c r="F24">
-        <v>0.8649180596804645</v>
+        <v>0.992830089519311</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
-      <c r="I24">
-        <v>1.044923609578788</v>
-      </c>
       <c r="J24">
-        <v>0.8737233217036443</v>
+        <v>0.9987528485336061</v>
       </c>
       <c r="K24">
-        <v>0.8749743672695887</v>
+        <v>1.001707753785165</v>
       </c>
       <c r="L24">
-        <v>0.8818565340436778</v>
+        <v>1.002670481522132</v>
       </c>
       <c r="M24">
-        <v>0.8806627085957753</v>
+        <v>1.006984297740238</v>
       </c>
       <c r="N24">
-        <v>0.8749641090379292</v>
+        <v>1.002764333055912</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25">
-        <v>1.05</v>
-      </c>
       <c r="C25">
-        <v>0.8409637258347342</v>
+        <v>0.9796100380381557</v>
       </c>
       <c r="D25">
-        <v>0.859090064084168</v>
+        <v>0.9955469388491245</v>
       </c>
       <c r="E25">
-        <v>0.8661408671244775</v>
+        <v>0.9964610801901107</v>
       </c>
       <c r="F25">
-        <v>0.8649180596804645</v>
+        <v>1.001618644128612</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
-      <c r="I25">
-        <v>1.044923609578788</v>
-      </c>
       <c r="J25">
-        <v>0.8737233217036443</v>
+        <v>1.004843644606509</v>
       </c>
       <c r="K25">
-        <v>0.8749743672695887</v>
+        <v>1.008214778435073</v>
       </c>
       <c r="L25">
-        <v>0.8818565340436778</v>
+        <v>1.009114582873266</v>
       </c>
       <c r="M25">
-        <v>0.8806627085957753</v>
+        <v>1.014191884591444</v>
       </c>
       <c r="N25">
-        <v>0.8749641090379292</v>
+        <v>1.004927037187491</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_9/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_9/res_bus/vm_pu.xlsx
@@ -418,34 +418,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.9869301857721715</v>
+        <v>1.032778917184339</v>
       </c>
       <c r="D2">
-        <v>1.001770133077215</v>
+        <v>1.04094639782437</v>
       </c>
       <c r="E2">
-        <v>1.002634358953114</v>
+        <v>1.041521604215282</v>
       </c>
       <c r="F2">
-        <v>1.008381256814217</v>
+        <v>1.050974861329929</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>1.009508966044422</v>
+        <v>1.037907263792015</v>
       </c>
       <c r="K2">
-        <v>1.013204862098452</v>
+        <v>1.043727305393431</v>
       </c>
       <c r="L2">
-        <v>1.014057114573383</v>
+        <v>1.044300882976482</v>
       </c>
       <c r="M2">
-        <v>1.019725049382205</v>
+        <v>1.053727648330374</v>
       </c>
       <c r="N2">
-        <v>1.006580085832158</v>
+        <v>1.016511895717824</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -453,34 +453,34 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9920853276894646</v>
+        <v>1.033887469934978</v>
       </c>
       <c r="D3">
-        <v>1.006167499211726</v>
+        <v>1.041948041778461</v>
       </c>
       <c r="E3">
-        <v>1.006997039482447</v>
+        <v>1.042516183855933</v>
       </c>
       <c r="F3">
-        <v>1.013161255380655</v>
+        <v>1.052073023416918</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>1.012794104984076</v>
+        <v>1.038657446785932</v>
       </c>
       <c r="K3">
-        <v>1.016722069299321</v>
+        <v>1.044538974358905</v>
       </c>
       <c r="L3">
-        <v>1.01754116792187</v>
+        <v>1.045105624527215</v>
       </c>
       <c r="M3">
-        <v>1.023628460164757</v>
+        <v>1.054637628989984</v>
       </c>
       <c r="N3">
-        <v>1.007741802494142</v>
+        <v>1.016769671234599</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9953519635318721</v>
+        <v>1.034605539528362</v>
       </c>
       <c r="D4">
-        <v>1.008960383314181</v>
+        <v>1.042597193449364</v>
       </c>
       <c r="E4">
-        <v>1.009768144449613</v>
+        <v>1.043160767956477</v>
       </c>
       <c r="F4">
-        <v>1.016197897706754</v>
+        <v>1.052784864318794</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>1.01487531852866</v>
+        <v>1.039143086872412</v>
       </c>
       <c r="K4">
-        <v>1.018951854060317</v>
+        <v>1.045064588212531</v>
       </c>
       <c r="L4">
-        <v>1.019750088973159</v>
+        <v>1.045626757672421</v>
       </c>
       <c r="M4">
-        <v>1.026104681406543</v>
+        <v>1.055227109970175</v>
       </c>
       <c r="N4">
-        <v>1.008476628887285</v>
+        <v>1.016936320762673</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -523,34 +523,34 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9967094010272057</v>
+        <v>1.034907598564819</v>
       </c>
       <c r="D5">
-        <v>1.010122441029146</v>
+        <v>1.042870340833675</v>
       </c>
       <c r="E5">
-        <v>1.010921197648188</v>
+        <v>1.043431995946438</v>
       </c>
       <c r="F5">
-        <v>1.01746156295345</v>
+        <v>1.053084422705107</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>1.015740004889821</v>
+        <v>1.039347302746772</v>
       </c>
       <c r="K5">
-        <v>1.019878637744346</v>
+        <v>1.045285654064283</v>
       </c>
       <c r="L5">
-        <v>1.020668236170906</v>
+        <v>1.045845940244149</v>
       </c>
       <c r="M5">
-        <v>1.027134279056551</v>
+        <v>1.055475086085017</v>
       </c>
       <c r="N5">
-        <v>1.008781640676388</v>
+        <v>1.017006344425932</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -558,34 +558,34 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9969364101005395</v>
+        <v>1.034958326318581</v>
       </c>
       <c r="D6">
-        <v>1.01031686182459</v>
+        <v>1.042916217778877</v>
       </c>
       <c r="E6">
-        <v>1.011114115210222</v>
+        <v>1.043477550663671</v>
       </c>
       <c r="F6">
-        <v>1.017672994541189</v>
+        <v>1.053134737485721</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>1.015884599231678</v>
+        <v>1.03938159457864</v>
       </c>
       <c r="K6">
-        <v>1.020033637813746</v>
+        <v>1.045322777718984</v>
       </c>
       <c r="L6">
-        <v>1.02082179385122</v>
+        <v>1.045882747711316</v>
       </c>
       <c r="M6">
-        <v>1.027306496995793</v>
+        <v>1.055516731639881</v>
       </c>
       <c r="N6">
-        <v>1.008832627974141</v>
+        <v>1.017018099600504</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -593,34 +593,34 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9953701631056122</v>
+        <v>1.034609574938314</v>
       </c>
       <c r="D7">
-        <v>1.008975957574169</v>
+        <v>1.042600842299759</v>
       </c>
       <c r="E7">
-        <v>1.00978359780564</v>
+        <v>1.043164391156677</v>
       </c>
       <c r="F7">
-        <v>1.01621483300146</v>
+        <v>1.052788865852406</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>1.014886912300266</v>
+        <v>1.03914581540783</v>
       </c>
       <c r="K7">
-        <v>1.01896427897705</v>
+        <v>1.045067541721402</v>
       </c>
       <c r="L7">
-        <v>1.019762397967972</v>
+        <v>1.045629686015226</v>
       </c>
       <c r="M7">
-        <v>1.026118483171636</v>
+        <v>1.055230422817505</v>
       </c>
       <c r="N7">
-        <v>1.008480719660146</v>
+        <v>1.016937256563269</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -628,34 +628,34 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9886871182405953</v>
+        <v>1.033153400147239</v>
       </c>
       <c r="D8">
-        <v>1.003267424360807</v>
+        <v>1.041284696417669</v>
       </c>
       <c r="E8">
-        <v>1.004119785629987</v>
+        <v>1.041857514646189</v>
       </c>
       <c r="F8">
-        <v>1.010008683769521</v>
+        <v>1.051345729942387</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>1.010628651267746</v>
+        <v>1.038160745625785</v>
       </c>
       <c r="K8">
-        <v>1.014403317467649</v>
+        <v>1.044001527689888</v>
       </c>
       <c r="L8">
-        <v>1.015244239497524</v>
+        <v>1.044572763738085</v>
       </c>
       <c r="M8">
-        <v>1.021054766554478</v>
+        <v>1.054035043151074</v>
       </c>
       <c r="N8">
-        <v>1.006976270952649</v>
+        <v>1.016599042748458</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -663,34 +663,34 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9763488771756561</v>
+        <v>1.030593260206127</v>
       </c>
       <c r="D9">
-        <v>0.9927822670627516</v>
+        <v>1.038973317793849</v>
       </c>
       <c r="E9">
-        <v>0.9937188967916095</v>
+        <v>1.039562498016328</v>
       </c>
       <c r="F9">
-        <v>0.9986150009137038</v>
+        <v>1.048812380038184</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>1.00276538012783</v>
+        <v>1.036426634509789</v>
       </c>
       <c r="K9">
-        <v>1.005993542563763</v>
+        <v>1.042126226636269</v>
       </c>
       <c r="L9">
-        <v>1.006914709218447</v>
+        <v>1.042713498095249</v>
       </c>
       <c r="M9">
-        <v>1.011730588800037</v>
+        <v>1.051933720943188</v>
       </c>
       <c r="N9">
-        <v>1.004189607740219</v>
+        <v>1.016001940929356</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -698,34 +698,34 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9676963801861118</v>
+        <v>1.028890403018466</v>
       </c>
       <c r="D10">
-        <v>0.9854700052117121</v>
+        <v>1.037437692101012</v>
       </c>
       <c r="E10">
-        <v>0.9864670537499891</v>
+        <v>1.038037801025488</v>
       </c>
       <c r="F10">
-        <v>0.9906722803855703</v>
+        <v>1.047129980899863</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>0.997252989839062</v>
+        <v>1.035271721961216</v>
       </c>
       <c r="K10">
-        <v>1.000106654231389</v>
+        <v>1.040878161823052</v>
       </c>
       <c r="L10">
-        <v>1.001085025555858</v>
+        <v>1.041476134541979</v>
       </c>
       <c r="M10">
-        <v>1.00521201706662</v>
+        <v>1.050536279062444</v>
       </c>
       <c r="N10">
-        <v>1.002231130759344</v>
+        <v>1.015603130729733</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -733,34 +733,34 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.96383637039257</v>
+        <v>1.028153968821848</v>
       </c>
       <c r="D11">
-        <v>0.9822185613497094</v>
+        <v>1.03677400903684</v>
       </c>
       <c r="E11">
-        <v>0.9832429184059239</v>
+        <v>1.037378855507853</v>
       </c>
       <c r="F11">
-        <v>0.9871411102991955</v>
+        <v>1.046403028840856</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>0.9947950184806095</v>
+        <v>1.034771909872483</v>
       </c>
       <c r="K11">
-        <v>0.997483785100046</v>
+        <v>1.04033824558155</v>
       </c>
       <c r="L11">
-        <v>0.9984879221724813</v>
+        <v>1.040940854931738</v>
       </c>
       <c r="M11">
-        <v>1.002309670167867</v>
+        <v>1.049931990277615</v>
       </c>
       <c r="N11">
-        <v>1.001356872502094</v>
+        <v>1.015430268366702</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -768,34 +768,34 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.962384421621063</v>
+        <v>1.027880561293764</v>
       </c>
       <c r="D12">
-        <v>0.9809972199793572</v>
+        <v>1.036527676121872</v>
       </c>
       <c r="E12">
-        <v>0.9820319061978815</v>
+        <v>1.037134283165018</v>
       </c>
       <c r="F12">
-        <v>0.9858147750491549</v>
+        <v>1.046133237728194</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="J12">
-        <v>0.993870693995859</v>
+        <v>1.034586298490851</v>
       </c>
       <c r="K12">
-        <v>0.9964977690339272</v>
+        <v>1.040137772552843</v>
       </c>
       <c r="L12">
-        <v>0.9975116371464458</v>
+        <v>1.040742104614951</v>
       </c>
       <c r="M12">
-        <v>1.001218882799154</v>
+        <v>1.04970765280972</v>
       </c>
       <c r="N12">
-        <v>1.001027977170437</v>
+        <v>1.015366033521727</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -803,34 +803,34 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9626967109076608</v>
+        <v>1.027939201947364</v>
       </c>
       <c r="D13">
-        <v>0.9812598314887083</v>
+        <v>1.036580506832641</v>
       </c>
       <c r="E13">
-        <v>0.9822922934433745</v>
+        <v>1.037186736188707</v>
       </c>
       <c r="F13">
-        <v>0.9860999588234397</v>
+        <v>1.046191098369845</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>0.9940694881488453</v>
+        <v>1.034626110901285</v>
       </c>
       <c r="K13">
-        <v>0.9967098167091484</v>
+        <v>1.040180771260392</v>
       </c>
       <c r="L13">
-        <v>0.9977215900323241</v>
+        <v>1.040784733773739</v>
       </c>
       <c r="M13">
-        <v>1.001453448872249</v>
+        <v>1.049755768421109</v>
       </c>
       <c r="N13">
-        <v>1.001098718116466</v>
+        <v>1.015379813290175</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -838,34 +838,34 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9637167293590476</v>
+        <v>1.028131366079542</v>
       </c>
       <c r="D14">
-        <v>0.9821178874601342</v>
+        <v>1.036753643233756</v>
       </c>
       <c r="E14">
-        <v>0.9831430944616677</v>
+        <v>1.037358635216957</v>
       </c>
       <c r="F14">
-        <v>0.9870317803232349</v>
+        <v>1.046380723104707</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>0.9947188484704469</v>
+        <v>1.034756566339011</v>
       </c>
       <c r="K14">
-        <v>0.9974025248252701</v>
+        <v>1.040321672869031</v>
       </c>
       <c r="L14">
-        <v>0.998407462928067</v>
+        <v>1.040924424609596</v>
       </c>
       <c r="M14">
-        <v>1.002219769465667</v>
+        <v>1.04991344397672</v>
       </c>
       <c r="N14">
-        <v>1.001329772026099</v>
+        <v>1.015424959224897</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -873,34 +873,34 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9643427534494206</v>
+        <v>1.02824978287455</v>
       </c>
       <c r="D15">
-        <v>0.982644735190523</v>
+        <v>1.036860343274568</v>
       </c>
       <c r="E15">
-        <v>0.9836654971822856</v>
+        <v>1.037464572983329</v>
       </c>
       <c r="F15">
-        <v>0.9876039303628102</v>
+        <v>1.046497587811239</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>0.9951174199677675</v>
+        <v>1.034836949687172</v>
       </c>
       <c r="K15">
-        <v>0.9978277449357508</v>
+        <v>1.040408497063664</v>
       </c>
       <c r="L15">
-        <v>0.9988284932428683</v>
+        <v>1.041010502868871</v>
       </c>
       <c r="M15">
-        <v>1.002690215269618</v>
+        <v>1.050010609301043</v>
       </c>
       <c r="N15">
-        <v>1.001471574357618</v>
+        <v>1.015452771677571</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -908,34 +908,34 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9679500723799995</v>
+        <v>1.028939296955285</v>
       </c>
       <c r="D16">
-        <v>0.9856839301733298</v>
+        <v>1.037481764982884</v>
       </c>
       <c r="E16">
-        <v>0.9866791916023334</v>
+        <v>1.038081559607479</v>
       </c>
       <c r="F16">
-        <v>0.9909046213485754</v>
+        <v>1.047178258732104</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>0.9974145658700929</v>
+        <v>1.035304898598095</v>
       </c>
       <c r="K16">
-        <v>1.000279113799426</v>
+        <v>1.040914004920491</v>
       </c>
       <c r="L16">
-        <v>1.001255797023612</v>
+        <v>1.041511669984828</v>
       </c>
       <c r="M16">
-        <v>1.005402893659561</v>
+        <v>1.050576400858557</v>
       </c>
       <c r="N16">
-        <v>1.002288581747204</v>
+        <v>1.015614599368302</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -943,34 +943,34 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9701817134905865</v>
+        <v>1.029372055375552</v>
       </c>
       <c r="D17">
-        <v>0.9875669763884046</v>
+        <v>1.037871902059073</v>
       </c>
       <c r="E17">
-        <v>0.9885465580137998</v>
+        <v>1.038468916127405</v>
       </c>
       <c r="F17">
-        <v>0.9929498402081344</v>
+        <v>1.047605637489823</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>0.9988360363801285</v>
+        <v>1.03559850366848</v>
       </c>
       <c r="K17">
-        <v>1.001796570877532</v>
+        <v>1.041231231715783</v>
       </c>
       <c r="L17">
-        <v>1.002758432697223</v>
+        <v>1.041826174744545</v>
       </c>
       <c r="M17">
-        <v>1.007082623891764</v>
+        <v>1.050931524683973</v>
       </c>
       <c r="N17">
-        <v>1.002793899936501</v>
+        <v>1.01571606292318</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -978,34 +978,34 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9714725294346509</v>
+        <v>1.029624564275757</v>
       </c>
       <c r="D18">
-        <v>0.9886571642484347</v>
+        <v>1.038099583291894</v>
       </c>
       <c r="E18">
-        <v>0.9896277097990539</v>
+        <v>1.038694976022443</v>
       </c>
       <c r="F18">
-        <v>0.9941339766397485</v>
+        <v>1.047855068656765</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>0.9996583451807654</v>
+        <v>1.035769784838769</v>
       </c>
       <c r="K18">
-        <v>1.002674605001245</v>
+        <v>1.041416313360777</v>
       </c>
       <c r="L18">
-        <v>1.003627917036952</v>
+        <v>1.042009668951992</v>
       </c>
       <c r="M18">
-        <v>1.008054739389044</v>
+        <v>1.051138740811138</v>
       </c>
       <c r="N18">
-        <v>1.003086128704131</v>
+        <v>1.015775228007061</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1013,34 +1013,34 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9719108546320515</v>
+        <v>1.029710678264679</v>
       </c>
       <c r="D19">
-        <v>0.9890275295011338</v>
+        <v>1.038177237202941</v>
       </c>
       <c r="E19">
-        <v>0.989995012205196</v>
+        <v>1.038772077185316</v>
       </c>
       <c r="F19">
-        <v>0.9945362690070969</v>
+        <v>1.047940143398595</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>0.9999375948057977</v>
+        <v>1.035828191749015</v>
       </c>
       <c r="K19">
-        <v>1.002972811953296</v>
+        <v>1.041479429660769</v>
       </c>
       <c r="L19">
-        <v>1.003923224581117</v>
+        <v>1.042072244023563</v>
       </c>
       <c r="M19">
-        <v>1.008384930936659</v>
+        <v>1.05120940944944</v>
       </c>
       <c r="N19">
-        <v>1.003185350920951</v>
+        <v>1.015795398900244</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1048,34 +1048,34 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9699434109507472</v>
+        <v>1.029325615369017</v>
       </c>
       <c r="D20">
-        <v>0.9873657931626005</v>
+        <v>1.037830031538081</v>
       </c>
       <c r="E20">
-        <v>0.9883470456447353</v>
+        <v>1.03842734388042</v>
       </c>
       <c r="F20">
-        <v>0.9927313245572604</v>
+        <v>1.04755976844583</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>0.9986842350434282</v>
+        <v>1.03556699990182</v>
       </c>
       <c r="K20">
-        <v>1.001634498401818</v>
+        <v>1.041197191252291</v>
       </c>
       <c r="L20">
-        <v>1.002597940485916</v>
+        <v>1.041792426300611</v>
       </c>
       <c r="M20">
-        <v>1.006903200442941</v>
+        <v>1.050893415146861</v>
       </c>
       <c r="N20">
-        <v>1.002739945705994</v>
+        <v>1.01570517858955</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1083,34 +1083,34 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9634168704429187</v>
+        <v>1.028074774755831</v>
       </c>
       <c r="D21">
-        <v>0.9818655939185621</v>
+        <v>1.036702653672456</v>
       </c>
       <c r="E21">
-        <v>0.9828929320878652</v>
+        <v>1.037308010007771</v>
       </c>
       <c r="F21">
-        <v>0.9867577954624267</v>
+        <v>1.046324876961287</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>0.9945279461074877</v>
+        <v>1.034718149329076</v>
       </c>
       <c r="K21">
-        <v>0.9971988700473291</v>
+        <v>1.040280178760443</v>
       </c>
       <c r="L21">
-        <v>0.9982058164294032</v>
+        <v>1.040883287030518</v>
       </c>
       <c r="M21">
-        <v>1.001994464728332</v>
+        <v>1.049867009078174</v>
       </c>
       <c r="N21">
-        <v>1.001261848987965</v>
+        <v>1.015411665590211</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1118,34 +1118,34 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9592076248019463</v>
+        <v>1.027289113602919</v>
       </c>
       <c r="D22">
-        <v>0.9783282050019687</v>
+        <v>1.035994917354999</v>
       </c>
       <c r="E22">
-        <v>0.9793856001628227</v>
+        <v>1.036605336123457</v>
       </c>
       <c r="F22">
-        <v>0.9829164483245207</v>
+        <v>1.045549789715973</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0.9918488432237411</v>
+        <v>1.034184681034618</v>
       </c>
       <c r="K22">
-        <v>0.994341566337447</v>
+        <v>1.039704055853221</v>
       </c>
       <c r="L22">
-        <v>0.995376800288066</v>
+        <v>1.040312117006445</v>
       </c>
       <c r="M22">
-        <v>0.9988341040627057</v>
+        <v>1.049222374488054</v>
       </c>
       <c r="N22">
-        <v>1.000308340069514</v>
+        <v>1.015226971610363</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1153,34 +1153,34 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.9614494513239106</v>
+        <v>1.027705532513928</v>
       </c>
       <c r="D23">
-        <v>0.980211236849034</v>
+        <v>1.036369998269675</v>
       </c>
       <c r="E23">
-        <v>0.9812525909993861</v>
+        <v>1.036977732875266</v>
       </c>
       <c r="F23">
-        <v>0.9849612449925105</v>
+        <v>1.045960551229606</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="J23">
-        <v>0.993275560773701</v>
+        <v>1.034467460094397</v>
       </c>
       <c r="K23">
-        <v>0.9958630055729528</v>
+        <v>1.04000942781228</v>
       </c>
       <c r="L23">
-        <v>0.9968831512542694</v>
+        <v>1.040614863087236</v>
       </c>
       <c r="M23">
-        <v>1.000516753384189</v>
+        <v>1.049564040342087</v>
       </c>
       <c r="N23">
-        <v>1.000816181353253</v>
+        <v>1.015324895597774</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1188,34 +1188,34 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.9700511230964801</v>
+        <v>1.029346599336147</v>
       </c>
       <c r="D24">
-        <v>0.9874567243635446</v>
+        <v>1.037848950650665</v>
       </c>
       <c r="E24">
-        <v>0.9884372215194555</v>
+        <v>1.03844612821424</v>
       </c>
       <c r="F24">
-        <v>0.992830089519311</v>
+        <v>1.04758049423388</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>0.9987528485336061</v>
+        <v>1.035581235016567</v>
       </c>
       <c r="K24">
-        <v>1.001707753785165</v>
+        <v>1.041212572522179</v>
       </c>
       <c r="L24">
-        <v>1.002670481522132</v>
+        <v>1.041807675618571</v>
       </c>
       <c r="M24">
-        <v>1.006984297740238</v>
+        <v>1.050910634963929</v>
       </c>
       <c r="N24">
-        <v>1.002764333055912</v>
+        <v>1.015710096803594</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1223,34 +1223,34 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.9796100380381557</v>
+        <v>1.031254428840191</v>
       </c>
       <c r="D25">
-        <v>0.9955469388491245</v>
+        <v>1.039569933292317</v>
       </c>
       <c r="E25">
-        <v>0.9964610801901107</v>
+        <v>1.040154880025949</v>
       </c>
       <c r="F25">
-        <v>1.001618644128612</v>
+        <v>1.04946616734946</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>1.004843644606509</v>
+        <v>1.036874740070764</v>
       </c>
       <c r="K25">
-        <v>1.008214778435073</v>
+        <v>1.042610661690447</v>
       </c>
       <c r="L25">
-        <v>1.009114582873266</v>
+        <v>1.043193785761264</v>
       </c>
       <c r="M25">
-        <v>1.014191884591444</v>
+        <v>1.052476358168659</v>
       </c>
       <c r="N25">
-        <v>1.004927037187491</v>
+        <v>1.016156437977594</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_9/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_9/res_bus/vm_pu.xlsx
@@ -418,34 +418,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1.032778917184339</v>
+        <v>0.9869301857721703</v>
       </c>
       <c r="D2">
-        <v>1.04094639782437</v>
+        <v>1.001770133077214</v>
       </c>
       <c r="E2">
-        <v>1.041521604215282</v>
+        <v>1.002634358953113</v>
       </c>
       <c r="F2">
-        <v>1.050974861329929</v>
+        <v>1.008381256814216</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>1.037907263792015</v>
+        <v>1.009508966044421</v>
       </c>
       <c r="K2">
-        <v>1.043727305393431</v>
+        <v>1.013204862098451</v>
       </c>
       <c r="L2">
-        <v>1.044300882976482</v>
+        <v>1.014057114573381</v>
       </c>
       <c r="M2">
-        <v>1.053727648330374</v>
+        <v>1.019725049382204</v>
       </c>
       <c r="N2">
-        <v>1.016511895717824</v>
+        <v>1.006580085832158</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -453,34 +453,34 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.033887469934978</v>
+        <v>0.9920853276894633</v>
       </c>
       <c r="D3">
-        <v>1.041948041778461</v>
+        <v>1.006167499211724</v>
       </c>
       <c r="E3">
-        <v>1.042516183855933</v>
+        <v>1.006997039482445</v>
       </c>
       <c r="F3">
-        <v>1.052073023416918</v>
+        <v>1.013161255380653</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>1.038657446785932</v>
+        <v>1.012794104984075</v>
       </c>
       <c r="K3">
-        <v>1.044538974358905</v>
+        <v>1.01672206929932</v>
       </c>
       <c r="L3">
-        <v>1.045105624527215</v>
+        <v>1.017541167921869</v>
       </c>
       <c r="M3">
-        <v>1.054637628989984</v>
+        <v>1.023628460164755</v>
       </c>
       <c r="N3">
-        <v>1.016769671234599</v>
+        <v>1.007741802494142</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.034605539528362</v>
+        <v>0.9953519635318721</v>
       </c>
       <c r="D4">
-        <v>1.042597193449364</v>
+        <v>1.008960383314181</v>
       </c>
       <c r="E4">
-        <v>1.043160767956477</v>
+        <v>1.009768144449613</v>
       </c>
       <c r="F4">
-        <v>1.052784864318794</v>
+        <v>1.016197897706754</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>1.039143086872412</v>
+        <v>1.01487531852866</v>
       </c>
       <c r="K4">
-        <v>1.045064588212531</v>
+        <v>1.018951854060317</v>
       </c>
       <c r="L4">
-        <v>1.045626757672421</v>
+        <v>1.019750088973159</v>
       </c>
       <c r="M4">
-        <v>1.055227109970175</v>
+        <v>1.026104681406543</v>
       </c>
       <c r="N4">
-        <v>1.016936320762673</v>
+        <v>1.008476628887285</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -523,34 +523,34 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.034907598564819</v>
+        <v>0.9967094010272046</v>
       </c>
       <c r="D5">
-        <v>1.042870340833675</v>
+        <v>1.010122441029145</v>
       </c>
       <c r="E5">
-        <v>1.043431995946438</v>
+        <v>1.010921197648187</v>
       </c>
       <c r="F5">
-        <v>1.053084422705107</v>
+        <v>1.017461562953449</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>1.039347302746772</v>
+        <v>1.01574000488982</v>
       </c>
       <c r="K5">
-        <v>1.045285654064283</v>
+        <v>1.019878637744345</v>
       </c>
       <c r="L5">
-        <v>1.045845940244149</v>
+        <v>1.020668236170905</v>
       </c>
       <c r="M5">
-        <v>1.055475086085017</v>
+        <v>1.02713427905655</v>
       </c>
       <c r="N5">
-        <v>1.017006344425932</v>
+        <v>1.008781640676388</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -558,34 +558,34 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.034958326318581</v>
+        <v>0.99693641010054</v>
       </c>
       <c r="D6">
-        <v>1.042916217778877</v>
+        <v>1.010316861824591</v>
       </c>
       <c r="E6">
-        <v>1.043477550663671</v>
+        <v>1.011114115210222</v>
       </c>
       <c r="F6">
-        <v>1.053134737485721</v>
+        <v>1.01767299454119</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>1.03938159457864</v>
+        <v>1.015884599231678</v>
       </c>
       <c r="K6">
-        <v>1.045322777718984</v>
+        <v>1.020033637813746</v>
       </c>
       <c r="L6">
-        <v>1.045882747711316</v>
+        <v>1.02082179385122</v>
       </c>
       <c r="M6">
-        <v>1.055516731639881</v>
+        <v>1.027306496995793</v>
       </c>
       <c r="N6">
-        <v>1.017018099600504</v>
+        <v>1.008832627974141</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -593,34 +593,34 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.034609574938314</v>
+        <v>0.995370163105613</v>
       </c>
       <c r="D7">
-        <v>1.042600842299759</v>
+        <v>1.008975957574171</v>
       </c>
       <c r="E7">
-        <v>1.043164391156677</v>
+        <v>1.009783597805642</v>
       </c>
       <c r="F7">
-        <v>1.052788865852406</v>
+        <v>1.016214833001462</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>1.03914581540783</v>
+        <v>1.014886912300268</v>
       </c>
       <c r="K7">
-        <v>1.045067541721402</v>
+        <v>1.018964278977051</v>
       </c>
       <c r="L7">
-        <v>1.045629686015226</v>
+        <v>1.019762397967973</v>
       </c>
       <c r="M7">
-        <v>1.055230422817505</v>
+        <v>1.026118483171637</v>
       </c>
       <c r="N7">
-        <v>1.016937256563269</v>
+        <v>1.008480719660146</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -628,34 +628,34 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.033153400147239</v>
+        <v>0.9886871182405955</v>
       </c>
       <c r="D8">
-        <v>1.041284696417669</v>
+        <v>1.003267424360807</v>
       </c>
       <c r="E8">
-        <v>1.041857514646189</v>
+        <v>1.004119785629988</v>
       </c>
       <c r="F8">
-        <v>1.051345729942387</v>
+        <v>1.010008683769521</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>1.038160745625785</v>
+        <v>1.010628651267746</v>
       </c>
       <c r="K8">
-        <v>1.044001527689888</v>
+        <v>1.014403317467649</v>
       </c>
       <c r="L8">
-        <v>1.044572763738085</v>
+        <v>1.015244239497524</v>
       </c>
       <c r="M8">
-        <v>1.054035043151074</v>
+        <v>1.021054766554478</v>
       </c>
       <c r="N8">
-        <v>1.016599042748458</v>
+        <v>1.006976270952649</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -663,34 +663,34 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.030593260206127</v>
+        <v>0.9763488771756557</v>
       </c>
       <c r="D9">
-        <v>1.038973317793849</v>
+        <v>0.9927822670627511</v>
       </c>
       <c r="E9">
-        <v>1.039562498016328</v>
+        <v>0.9937188967916089</v>
       </c>
       <c r="F9">
-        <v>1.048812380038184</v>
+        <v>0.9986150009137036</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>1.036426634509789</v>
+        <v>1.00276538012783</v>
       </c>
       <c r="K9">
-        <v>1.042126226636269</v>
+        <v>1.005993542563762</v>
       </c>
       <c r="L9">
-        <v>1.042713498095249</v>
+        <v>1.006914709218446</v>
       </c>
       <c r="M9">
-        <v>1.051933720943188</v>
+        <v>1.011730588800036</v>
       </c>
       <c r="N9">
-        <v>1.016001940929356</v>
+        <v>1.004189607740219</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -698,34 +698,34 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.028890403018466</v>
+        <v>0.9676963801861108</v>
       </c>
       <c r="D10">
-        <v>1.037437692101012</v>
+        <v>0.9854700052117111</v>
       </c>
       <c r="E10">
-        <v>1.038037801025488</v>
+        <v>0.9864670537499877</v>
       </c>
       <c r="F10">
-        <v>1.047129980899863</v>
+        <v>0.9906722803855689</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>1.035271721961216</v>
+        <v>0.997252989839061</v>
       </c>
       <c r="K10">
-        <v>1.040878161823052</v>
+        <v>1.000106654231388</v>
       </c>
       <c r="L10">
-        <v>1.041476134541979</v>
+        <v>1.001085025555857</v>
       </c>
       <c r="M10">
-        <v>1.050536279062444</v>
+        <v>1.005212017066618</v>
       </c>
       <c r="N10">
-        <v>1.015603130729733</v>
+        <v>1.002231130759344</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -733,34 +733,34 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.028153968821848</v>
+        <v>0.9638363703925702</v>
       </c>
       <c r="D11">
-        <v>1.03677400903684</v>
+        <v>0.9822185613497098</v>
       </c>
       <c r="E11">
-        <v>1.037378855507853</v>
+        <v>0.9832429184059243</v>
       </c>
       <c r="F11">
-        <v>1.046403028840856</v>
+        <v>0.9871411102991956</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>1.034771909872483</v>
+        <v>0.9947950184806098</v>
       </c>
       <c r="K11">
-        <v>1.04033824558155</v>
+        <v>0.9974837851000464</v>
       </c>
       <c r="L11">
-        <v>1.040940854931738</v>
+        <v>0.9984879221724816</v>
       </c>
       <c r="M11">
-        <v>1.049931990277615</v>
+        <v>1.002309670167867</v>
       </c>
       <c r="N11">
-        <v>1.015430268366702</v>
+        <v>1.001356872502094</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -768,34 +768,34 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.027880561293764</v>
+        <v>0.9623844216210622</v>
       </c>
       <c r="D12">
-        <v>1.036527676121872</v>
+        <v>0.9809972199793561</v>
       </c>
       <c r="E12">
-        <v>1.037134283165018</v>
+        <v>0.9820319061978801</v>
       </c>
       <c r="F12">
-        <v>1.046133237728194</v>
+        <v>0.9858147750491537</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="J12">
-        <v>1.034586298490851</v>
+        <v>0.993870693995858</v>
       </c>
       <c r="K12">
-        <v>1.040137772552843</v>
+        <v>0.996497769033926</v>
       </c>
       <c r="L12">
-        <v>1.040742104614951</v>
+        <v>0.9975116371464446</v>
       </c>
       <c r="M12">
-        <v>1.04970765280972</v>
+        <v>1.001218882799153</v>
       </c>
       <c r="N12">
-        <v>1.015366033521727</v>
+        <v>1.001027977170437</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -803,34 +803,34 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.027939201947364</v>
+        <v>0.9626967109076613</v>
       </c>
       <c r="D13">
-        <v>1.036580506832641</v>
+        <v>0.9812598314887087</v>
       </c>
       <c r="E13">
-        <v>1.037186736188707</v>
+        <v>0.9822922934433744</v>
       </c>
       <c r="F13">
-        <v>1.046191098369845</v>
+        <v>0.9860999588234401</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>1.034626110901285</v>
+        <v>0.9940694881488455</v>
       </c>
       <c r="K13">
-        <v>1.040180771260392</v>
+        <v>0.9967098167091488</v>
       </c>
       <c r="L13">
-        <v>1.040784733773739</v>
+        <v>0.9977215900323242</v>
       </c>
       <c r="M13">
-        <v>1.049755768421109</v>
+        <v>1.001453448872249</v>
       </c>
       <c r="N13">
-        <v>1.015379813290175</v>
+        <v>1.001098718116467</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -838,34 +838,34 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.028131366079542</v>
+        <v>0.9637167293590476</v>
       </c>
       <c r="D14">
-        <v>1.036753643233756</v>
+        <v>0.9821178874601341</v>
       </c>
       <c r="E14">
-        <v>1.037358635216957</v>
+        <v>0.9831430944616677</v>
       </c>
       <c r="F14">
-        <v>1.046380723104707</v>
+        <v>0.987031780323235</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>1.034756566339011</v>
+        <v>0.9947188484704469</v>
       </c>
       <c r="K14">
-        <v>1.040321672869031</v>
+        <v>0.9974025248252703</v>
       </c>
       <c r="L14">
-        <v>1.040924424609596</v>
+        <v>0.998407462928067</v>
       </c>
       <c r="M14">
-        <v>1.04991344397672</v>
+        <v>1.002219769465667</v>
       </c>
       <c r="N14">
-        <v>1.015424959224897</v>
+        <v>1.001329772026099</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -873,34 +873,34 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.02824978287455</v>
+        <v>0.9643427534494201</v>
       </c>
       <c r="D15">
-        <v>1.036860343274568</v>
+        <v>0.982644735190523</v>
       </c>
       <c r="E15">
-        <v>1.037464572983329</v>
+        <v>0.9836654971822851</v>
       </c>
       <c r="F15">
-        <v>1.046497587811239</v>
+        <v>0.9876039303628098</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>1.034836949687172</v>
+        <v>0.9951174199677671</v>
       </c>
       <c r="K15">
-        <v>1.040408497063664</v>
+        <v>0.9978277449357507</v>
       </c>
       <c r="L15">
-        <v>1.041010502868871</v>
+        <v>0.9988284932428677</v>
       </c>
       <c r="M15">
-        <v>1.050010609301043</v>
+        <v>1.002690215269618</v>
       </c>
       <c r="N15">
-        <v>1.015452771677571</v>
+        <v>1.001471574357618</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -908,34 +908,34 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.028939296955285</v>
+        <v>0.9679500723799995</v>
       </c>
       <c r="D16">
-        <v>1.037481764982884</v>
+        <v>0.9856839301733296</v>
       </c>
       <c r="E16">
-        <v>1.038081559607479</v>
+        <v>0.9866791916023332</v>
       </c>
       <c r="F16">
-        <v>1.047178258732104</v>
+        <v>0.990904621348575</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>1.035304898598095</v>
+        <v>0.9974145658700927</v>
       </c>
       <c r="K16">
-        <v>1.040914004920491</v>
+        <v>1.000279113799426</v>
       </c>
       <c r="L16">
-        <v>1.041511669984828</v>
+        <v>1.001255797023611</v>
       </c>
       <c r="M16">
-        <v>1.050576400858557</v>
+        <v>1.00540289365956</v>
       </c>
       <c r="N16">
-        <v>1.015614599368302</v>
+        <v>1.002288581747204</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -943,34 +943,34 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.029372055375552</v>
+        <v>0.970181713490586</v>
       </c>
       <c r="D17">
-        <v>1.037871902059073</v>
+        <v>0.9875669763884042</v>
       </c>
       <c r="E17">
-        <v>1.038468916127405</v>
+        <v>0.9885465580137994</v>
       </c>
       <c r="F17">
-        <v>1.047605637489823</v>
+        <v>0.9929498402081338</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>1.03559850366848</v>
+        <v>0.9988360363801281</v>
       </c>
       <c r="K17">
-        <v>1.041231231715783</v>
+        <v>1.001796570877531</v>
       </c>
       <c r="L17">
-        <v>1.041826174744545</v>
+        <v>1.002758432697222</v>
       </c>
       <c r="M17">
-        <v>1.050931524683973</v>
+        <v>1.007082623891763</v>
       </c>
       <c r="N17">
-        <v>1.01571606292318</v>
+        <v>1.002793899936501</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -978,34 +978,34 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.029624564275757</v>
+        <v>0.9714725294346506</v>
       </c>
       <c r="D18">
-        <v>1.038099583291894</v>
+        <v>0.9886571642484344</v>
       </c>
       <c r="E18">
-        <v>1.038694976022443</v>
+        <v>0.9896277097990532</v>
       </c>
       <c r="F18">
-        <v>1.047855068656765</v>
+        <v>0.9941339766397478</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>1.035769784838769</v>
+        <v>0.9996583451807649</v>
       </c>
       <c r="K18">
-        <v>1.041416313360777</v>
+        <v>1.002674605001245</v>
       </c>
       <c r="L18">
-        <v>1.042009668951992</v>
+        <v>1.003627917036952</v>
       </c>
       <c r="M18">
-        <v>1.051138740811138</v>
+        <v>1.008054739389044</v>
       </c>
       <c r="N18">
-        <v>1.015775228007061</v>
+        <v>1.003086128704131</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1013,34 +1013,34 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.029710678264679</v>
+        <v>0.9719108546320514</v>
       </c>
       <c r="D19">
-        <v>1.038177237202941</v>
+        <v>0.9890275295011335</v>
       </c>
       <c r="E19">
-        <v>1.038772077185316</v>
+        <v>0.9899950122051957</v>
       </c>
       <c r="F19">
-        <v>1.047940143398595</v>
+        <v>0.9945362690070965</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>1.035828191749015</v>
+        <v>0.9999375948057974</v>
       </c>
       <c r="K19">
-        <v>1.041479429660769</v>
+        <v>1.002972811953295</v>
       </c>
       <c r="L19">
-        <v>1.042072244023563</v>
+        <v>1.003923224581117</v>
       </c>
       <c r="M19">
-        <v>1.05120940944944</v>
+        <v>1.008384930936658</v>
       </c>
       <c r="N19">
-        <v>1.015795398900244</v>
+        <v>1.003185350920951</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1048,34 +1048,34 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.029325615369017</v>
+        <v>0.9699434109507472</v>
       </c>
       <c r="D20">
-        <v>1.037830031538081</v>
+        <v>0.9873657931626002</v>
       </c>
       <c r="E20">
-        <v>1.03842734388042</v>
+        <v>0.9883470456447352</v>
       </c>
       <c r="F20">
-        <v>1.04755976844583</v>
+        <v>0.9927313245572599</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>1.03556699990182</v>
+        <v>0.9986842350434281</v>
       </c>
       <c r="K20">
-        <v>1.041197191252291</v>
+        <v>1.001634498401818</v>
       </c>
       <c r="L20">
-        <v>1.041792426300611</v>
+        <v>1.002597940485916</v>
       </c>
       <c r="M20">
-        <v>1.050893415146861</v>
+        <v>1.006903200442941</v>
       </c>
       <c r="N20">
-        <v>1.01570517858955</v>
+        <v>1.002739945705994</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1083,34 +1083,34 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.028074774755831</v>
+        <v>0.9634168704429188</v>
       </c>
       <c r="D21">
-        <v>1.036702653672456</v>
+        <v>0.9818655939185621</v>
       </c>
       <c r="E21">
-        <v>1.037308010007771</v>
+        <v>0.9828929320878652</v>
       </c>
       <c r="F21">
-        <v>1.046324876961287</v>
+        <v>0.9867577954624269</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>1.034718149329076</v>
+        <v>0.9945279461074878</v>
       </c>
       <c r="K21">
-        <v>1.040280178760443</v>
+        <v>0.9971988700473293</v>
       </c>
       <c r="L21">
-        <v>1.040883287030518</v>
+        <v>0.9982058164294032</v>
       </c>
       <c r="M21">
-        <v>1.049867009078174</v>
+        <v>1.001994464728332</v>
       </c>
       <c r="N21">
-        <v>1.015411665590211</v>
+        <v>1.001261848987965</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1118,34 +1118,34 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.027289113602919</v>
+        <v>0.959207624801948</v>
       </c>
       <c r="D22">
-        <v>1.035994917354999</v>
+        <v>0.9783282050019704</v>
       </c>
       <c r="E22">
-        <v>1.036605336123457</v>
+        <v>0.9793856001628246</v>
       </c>
       <c r="F22">
-        <v>1.045549789715973</v>
+        <v>0.9829164483245227</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>1.034184681034618</v>
+        <v>0.9918488432237429</v>
       </c>
       <c r="K22">
-        <v>1.039704055853221</v>
+        <v>0.9943415663374487</v>
       </c>
       <c r="L22">
-        <v>1.040312117006445</v>
+        <v>0.9953768002880679</v>
       </c>
       <c r="M22">
-        <v>1.049222374488054</v>
+        <v>0.9988341040627075</v>
       </c>
       <c r="N22">
-        <v>1.015226971610363</v>
+        <v>1.000308340069514</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1153,34 +1153,34 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>1.027705532513928</v>
+        <v>0.9614494513239098</v>
       </c>
       <c r="D23">
-        <v>1.036369998269675</v>
+        <v>0.9802112368490333</v>
       </c>
       <c r="E23">
-        <v>1.036977732875266</v>
+        <v>0.9812525909993854</v>
       </c>
       <c r="F23">
-        <v>1.045960551229606</v>
+        <v>0.9849612449925097</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="J23">
-        <v>1.034467460094397</v>
+        <v>0.9932755607737003</v>
       </c>
       <c r="K23">
-        <v>1.04000942781228</v>
+        <v>0.995863005572952</v>
       </c>
       <c r="L23">
-        <v>1.040614863087236</v>
+        <v>0.9968831512542687</v>
       </c>
       <c r="M23">
-        <v>1.049564040342087</v>
+        <v>1.000516753384188</v>
       </c>
       <c r="N23">
-        <v>1.015324895597774</v>
+        <v>1.000816181353253</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1188,34 +1188,34 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.029346599336147</v>
+        <v>0.9700511230964807</v>
       </c>
       <c r="D24">
-        <v>1.037848950650665</v>
+        <v>0.9874567243635453</v>
       </c>
       <c r="E24">
-        <v>1.03844612821424</v>
+        <v>0.9884372215194561</v>
       </c>
       <c r="F24">
-        <v>1.04758049423388</v>
+        <v>0.992830089519312</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>1.035581235016567</v>
+        <v>0.9987528485336067</v>
       </c>
       <c r="K24">
-        <v>1.041212572522179</v>
+        <v>1.001707753785166</v>
       </c>
       <c r="L24">
-        <v>1.041807675618571</v>
+        <v>1.002670481522133</v>
       </c>
       <c r="M24">
-        <v>1.050910634963929</v>
+        <v>1.006984297740239</v>
       </c>
       <c r="N24">
-        <v>1.015710096803594</v>
+        <v>1.002764333055912</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1223,34 +1223,34 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.031254428840191</v>
+        <v>0.9796100380381556</v>
       </c>
       <c r="D25">
-        <v>1.039569933292317</v>
+        <v>0.9955469388491245</v>
       </c>
       <c r="E25">
-        <v>1.040154880025949</v>
+        <v>0.9964610801901104</v>
       </c>
       <c r="F25">
-        <v>1.04946616734946</v>
+        <v>1.001618644128612</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>1.036874740070764</v>
+        <v>1.004843644606508</v>
       </c>
       <c r="K25">
-        <v>1.042610661690447</v>
+        <v>1.008214778435073</v>
       </c>
       <c r="L25">
-        <v>1.043193785761264</v>
+        <v>1.009114582873266</v>
       </c>
       <c r="M25">
-        <v>1.052476358168659</v>
+        <v>1.014191884591444</v>
       </c>
       <c r="N25">
-        <v>1.016156437977594</v>
+        <v>1.004927037187491</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_9/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_9/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,845 +412,1289 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>1.05</v>
+      </c>
       <c r="C2">
-        <v>0.9869301857721703</v>
+        <v>0.9984750409005017</v>
       </c>
       <c r="D2">
-        <v>1.001770133077214</v>
+        <v>1.01728008386287</v>
       </c>
       <c r="E2">
-        <v>1.002634358953113</v>
+        <v>1.014764432970799</v>
       </c>
       <c r="F2">
-        <v>1.008381256814216</v>
+        <v>1.025669206945393</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="I2">
+        <v>1.045224098310602</v>
+      </c>
       <c r="J2">
-        <v>1.009508966044421</v>
+        <v>1.020701459097655</v>
       </c>
       <c r="K2">
-        <v>1.013204862098451</v>
+        <v>1.028503816528615</v>
       </c>
       <c r="L2">
-        <v>1.014057114573381</v>
+        <v>1.026021837634957</v>
       </c>
       <c r="M2">
-        <v>1.019725049382204</v>
+        <v>1.036782147092191</v>
       </c>
       <c r="N2">
-        <v>1.006580085832158</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.010213419362272</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.037682987050615</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.031224816447054</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>1.05</v>
+      </c>
       <c r="C3">
-        <v>0.9920853276894633</v>
+        <v>1.002560492713943</v>
       </c>
       <c r="D3">
-        <v>1.006167499211724</v>
+        <v>1.020321860304007</v>
       </c>
       <c r="E3">
-        <v>1.006997039482445</v>
+        <v>1.017987956808673</v>
       </c>
       <c r="F3">
-        <v>1.013161255380653</v>
+        <v>1.028768308318101</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="I3">
+        <v>1.045318143171977</v>
+      </c>
       <c r="J3">
-        <v>1.012794104984075</v>
+        <v>1.022981598661046</v>
       </c>
       <c r="K3">
-        <v>1.01672206929932</v>
+        <v>1.030701157936587</v>
       </c>
       <c r="L3">
-        <v>1.017541167921869</v>
+        <v>1.028395737670457</v>
       </c>
       <c r="M3">
-        <v>1.023628460164755</v>
+        <v>1.039045864047586</v>
       </c>
       <c r="N3">
-        <v>1.007741802494142</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.011049437485393</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.039474572036259</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.032775870512084</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>1.05</v>
+      </c>
       <c r="C4">
-        <v>0.9953519635318721</v>
+        <v>1.005159612783961</v>
       </c>
       <c r="D4">
-        <v>1.008960383314181</v>
+        <v>1.022264229391816</v>
       </c>
       <c r="E4">
-        <v>1.009768144449613</v>
+        <v>1.020045056602726</v>
       </c>
       <c r="F4">
-        <v>1.016197897706754</v>
+        <v>1.030747970864557</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="I4">
+        <v>1.045357368412754</v>
+      </c>
       <c r="J4">
-        <v>1.01487531852866</v>
+        <v>1.024432249706702</v>
       </c>
       <c r="K4">
-        <v>1.018951854060317</v>
+        <v>1.032101170355303</v>
       </c>
       <c r="L4">
-        <v>1.019750088973159</v>
+        <v>1.029907428314419</v>
       </c>
       <c r="M4">
-        <v>1.026104681406543</v>
+        <v>1.040488934982063</v>
       </c>
       <c r="N4">
-        <v>1.008476628887285</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.011580193746098</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.040616666646666</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.033766722868102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>1.05</v>
+      </c>
       <c r="C5">
-        <v>0.9967094010272046</v>
+        <v>1.006247254012938</v>
       </c>
       <c r="D5">
-        <v>1.010122441029145</v>
+        <v>1.023081313606589</v>
       </c>
       <c r="E5">
-        <v>1.010921197648187</v>
+        <v>1.020908101469906</v>
       </c>
       <c r="F5">
-        <v>1.017461562953449</v>
+        <v>1.031579123315583</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="I5">
+        <v>1.045368675785518</v>
+      </c>
       <c r="J5">
-        <v>1.01574000488982</v>
+        <v>1.025041475495505</v>
       </c>
       <c r="K5">
-        <v>1.019878637744345</v>
+        <v>1.032691102793337</v>
       </c>
       <c r="L5">
-        <v>1.020668236170905</v>
+        <v>1.03054212398676</v>
       </c>
       <c r="M5">
-        <v>1.02713427905655</v>
+        <v>1.041095357453494</v>
       </c>
       <c r="N5">
-        <v>1.008781640676388</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.011803223871657</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.041096609136066</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.034191089740552</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>1.05</v>
+      </c>
       <c r="C6">
-        <v>0.99693641010054</v>
+        <v>1.006435695093855</v>
       </c>
       <c r="D6">
-        <v>1.010316861824591</v>
+        <v>1.023226092540736</v>
       </c>
       <c r="E6">
-        <v>1.011114115210222</v>
+        <v>1.021058612785113</v>
       </c>
       <c r="F6">
-        <v>1.01767299454119</v>
+        <v>1.031724250162937</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="I6">
+        <v>1.04537027023839</v>
+      </c>
       <c r="J6">
-        <v>1.015884599231678</v>
+        <v>1.025149693575343</v>
       </c>
       <c r="K6">
-        <v>1.020033637813746</v>
+        <v>1.032797707697014</v>
       </c>
       <c r="L6">
-        <v>1.02082179385122</v>
+        <v>1.030654285194156</v>
       </c>
       <c r="M6">
-        <v>1.027306496995793</v>
+        <v>1.041202739203091</v>
       </c>
       <c r="N6">
-        <v>1.008832627974141</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.011843325841688</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.04118159451587</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.034275282227347</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>1.05</v>
+      </c>
       <c r="C7">
-        <v>0.995370163105613</v>
+        <v>1.005191565746644</v>
       </c>
       <c r="D7">
-        <v>1.008975957574171</v>
+        <v>1.022296579618859</v>
       </c>
       <c r="E7">
-        <v>1.009783597805642</v>
+        <v>1.020072834739382</v>
       </c>
       <c r="F7">
-        <v>1.016214833001462</v>
+        <v>1.030775098016454</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="I7">
+        <v>1.045357539874439</v>
+      </c>
       <c r="J7">
-        <v>1.014886912300268</v>
+        <v>1.024457354194683</v>
       </c>
       <c r="K7">
-        <v>1.018964278977051</v>
+        <v>1.032130237167763</v>
       </c>
       <c r="L7">
-        <v>1.019762397967973</v>
+        <v>1.02993196506236</v>
       </c>
       <c r="M7">
-        <v>1.026118483171637</v>
+        <v>1.040512876670615</v>
       </c>
       <c r="N7">
-        <v>1.008480719660146</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.011590760818067</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.040635614884596</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.033807550380563</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>1.05</v>
+      </c>
       <c r="C8">
-        <v>0.9886871182405955</v>
+        <v>0.9998874393003162</v>
       </c>
       <c r="D8">
-        <v>1.003267424360807</v>
+        <v>1.018340621275132</v>
       </c>
       <c r="E8">
-        <v>1.004119785629988</v>
+        <v>1.015880701395434</v>
       </c>
       <c r="F8">
-        <v>1.010008683769521</v>
+        <v>1.02674237039642</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="I8">
+        <v>1.045260356825638</v>
+      </c>
       <c r="J8">
-        <v>1.010628651267746</v>
+        <v>1.021498907208034</v>
       </c>
       <c r="K8">
-        <v>1.014403317467649</v>
+        <v>1.029277758505814</v>
       </c>
       <c r="L8">
-        <v>1.015244239497524</v>
+        <v>1.026849770867701</v>
       </c>
       <c r="M8">
-        <v>1.021054766554478</v>
+        <v>1.037571885169177</v>
       </c>
       <c r="N8">
-        <v>1.006976270952649</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.010507861128238</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.038308013969865</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.031795194214076</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>1.05</v>
+      </c>
       <c r="C9">
-        <v>0.9763488771756557</v>
+        <v>0.9901553502180771</v>
       </c>
       <c r="D9">
-        <v>0.9927822670627511</v>
+        <v>1.011127702995652</v>
       </c>
       <c r="E9">
-        <v>0.9937188967916089</v>
+        <v>1.008236942796484</v>
       </c>
       <c r="F9">
-        <v>0.9986150009137036</v>
+        <v>1.019404373704913</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="I9">
+        <v>1.044923609578788</v>
+      </c>
       <c r="J9">
-        <v>1.00276538012783</v>
+        <v>1.01606060307187</v>
       </c>
       <c r="K9">
-        <v>1.005993542563762</v>
+        <v>1.02404278447923</v>
       </c>
       <c r="L9">
-        <v>1.006914709218446</v>
+        <v>1.021197780131421</v>
       </c>
       <c r="M9">
-        <v>1.011730588800036</v>
+        <v>1.03219028228422</v>
       </c>
       <c r="N9">
-        <v>1.004189607740219</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.008506382955117</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.034048810357115</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.028090424292557</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>1.05</v>
+      </c>
       <c r="C10">
-        <v>0.9676963801861108</v>
+        <v>0.983495277028824</v>
       </c>
       <c r="D10">
-        <v>0.9854700052117111</v>
+        <v>1.006260408970323</v>
       </c>
       <c r="E10">
-        <v>0.9864670537499877</v>
+        <v>1.003073319651943</v>
       </c>
       <c r="F10">
-        <v>0.9906722803855689</v>
+        <v>1.014489069763195</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="I10">
+        <v>1.044587919160615</v>
+      </c>
       <c r="J10">
-        <v>0.997252989839061</v>
+        <v>1.012379384645043</v>
       </c>
       <c r="K10">
-        <v>1.000106654231388</v>
+        <v>1.020517542356285</v>
       </c>
       <c r="L10">
-        <v>1.001085025555857</v>
+        <v>1.0173873051933</v>
       </c>
       <c r="M10">
-        <v>1.005212017066618</v>
+        <v>1.028601556304704</v>
       </c>
       <c r="N10">
-        <v>1.002231130759344</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.007153456624582</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.031260435766023</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.025614812472416</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>1.05</v>
+      </c>
       <c r="C11">
-        <v>0.9638363703925702</v>
+        <v>0.9812787780871061</v>
       </c>
       <c r="D11">
-        <v>0.9822185613497098</v>
+        <v>1.004854850970385</v>
       </c>
       <c r="E11">
-        <v>0.9832429184059243</v>
+        <v>1.001601054005606</v>
       </c>
       <c r="F11">
-        <v>0.9871411102991956</v>
+        <v>1.01333778239</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="I11">
+        <v>1.0444161704399</v>
+      </c>
       <c r="J11">
-        <v>0.9947950184806098</v>
+        <v>1.011451667446837</v>
       </c>
       <c r="K11">
-        <v>0.9974837851000464</v>
+        <v>1.019685789016119</v>
       </c>
       <c r="L11">
-        <v>0.9984879221724816</v>
+        <v>1.016492839823582</v>
       </c>
       <c r="M11">
-        <v>1.002309670167867</v>
+        <v>1.028012476095097</v>
       </c>
       <c r="N11">
-        <v>1.001356872502094</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.006869788322297</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.031234127932231</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.025059996384723</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>1.05</v>
+      </c>
       <c r="C12">
-        <v>0.9623844216210622</v>
+        <v>0.9807286635178303</v>
       </c>
       <c r="D12">
-        <v>0.9809972199793561</v>
+        <v>1.004603631699365</v>
       </c>
       <c r="E12">
-        <v>0.9820319061978801</v>
+        <v>1.001356967135416</v>
       </c>
       <c r="F12">
-        <v>0.9858147750491537</v>
+        <v>1.013284774410745</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="I12">
+        <v>1.044348406001364</v>
+      </c>
       <c r="J12">
-        <v>0.993870693995858</v>
+        <v>1.011371622608455</v>
       </c>
       <c r="K12">
-        <v>0.996497769033926</v>
+        <v>1.019643161686548</v>
       </c>
       <c r="L12">
-        <v>0.9975116371464446</v>
+        <v>1.016458215891222</v>
       </c>
       <c r="M12">
-        <v>1.001218882799153</v>
+        <v>1.028161809368432</v>
       </c>
       <c r="N12">
-        <v>1.001027977170437</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.006888614879415</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.031681059527235</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.025029856720163</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>1.05</v>
+      </c>
       <c r="C13">
-        <v>0.9626967109076613</v>
+        <v>0.9814467074772395</v>
       </c>
       <c r="D13">
-        <v>0.9812598314887087</v>
+        <v>1.005250469435713</v>
       </c>
       <c r="E13">
-        <v>0.9822922934433744</v>
+        <v>1.002062604046729</v>
       </c>
       <c r="F13">
-        <v>0.9860999588234401</v>
+        <v>1.0141012986794</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="I13">
+        <v>1.044363121405786</v>
+      </c>
       <c r="J13">
-        <v>0.9940694881488455</v>
+        <v>1.011961995160223</v>
       </c>
       <c r="K13">
-        <v>0.9967098167091488</v>
+        <v>1.020234066967955</v>
       </c>
       <c r="L13">
-        <v>0.9977215900323242</v>
+        <v>1.01710649273114</v>
       </c>
       <c r="M13">
-        <v>1.001453448872249</v>
+        <v>1.028920092219061</v>
       </c>
       <c r="N13">
-        <v>1.001098718116467</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.007151687338458</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.032559018504678</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.025445131124421</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>1.05</v>
+      </c>
       <c r="C14">
-        <v>0.9637167293590476</v>
+        <v>0.9825253610605411</v>
       </c>
       <c r="D14">
-        <v>0.9821178874601341</v>
+        <v>1.00611260772703</v>
       </c>
       <c r="E14">
-        <v>0.9831430944616677</v>
+        <v>1.002987853550638</v>
       </c>
       <c r="F14">
-        <v>0.987031780323235</v>
+        <v>1.015068115091571</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="I14">
+        <v>1.044410650012188</v>
+      </c>
       <c r="J14">
-        <v>0.9947188484704469</v>
+        <v>1.012680340472633</v>
       </c>
       <c r="K14">
-        <v>0.9974025248252703</v>
+        <v>1.020936981453192</v>
       </c>
       <c r="L14">
-        <v>0.998407462928067</v>
+        <v>1.017870537654765</v>
       </c>
       <c r="M14">
-        <v>1.002219769465667</v>
+        <v>1.02972795929658</v>
       </c>
       <c r="N14">
-        <v>1.001329772026099</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.007447201321541</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.033371827457527</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.025943569964919</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>1.05</v>
+      </c>
       <c r="C15">
-        <v>0.9643427534494201</v>
+        <v>0.983071227078535</v>
       </c>
       <c r="D15">
-        <v>0.982644735190523</v>
+        <v>1.006528818050648</v>
       </c>
       <c r="E15">
-        <v>0.9836654971822851</v>
+        <v>1.003429568213614</v>
       </c>
       <c r="F15">
-        <v>0.9876039303628098</v>
+        <v>1.015507653736959</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="I15">
+        <v>1.044439407833738</v>
+      </c>
       <c r="J15">
-        <v>0.9951174199677671</v>
+        <v>1.013010156818775</v>
       </c>
       <c r="K15">
-        <v>0.9978277449357507</v>
+        <v>1.021257402541813</v>
       </c>
       <c r="L15">
-        <v>0.9988284932428677</v>
+        <v>1.018215526727039</v>
       </c>
       <c r="M15">
-        <v>1.002690215269618</v>
+        <v>1.030072589454137</v>
       </c>
       <c r="N15">
-        <v>1.001471574357618</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.007575763970602</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.033681925942553</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.026176067890672</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>1.05</v>
+      </c>
       <c r="C16">
-        <v>0.9679500723799995</v>
+        <v>0.9857492662943615</v>
       </c>
       <c r="D16">
-        <v>0.9856839301733296</v>
+        <v>1.008465512510855</v>
       </c>
       <c r="E16">
-        <v>0.9866791916023332</v>
+        <v>1.00547822617008</v>
       </c>
       <c r="F16">
-        <v>0.990904621348575</v>
+        <v>1.017451216001849</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="I16">
+        <v>1.044598761177637</v>
+      </c>
       <c r="J16">
-        <v>0.9974145658700927</v>
+        <v>1.01446128818657</v>
       </c>
       <c r="K16">
-        <v>1.000279113799426</v>
+        <v>1.022647349666613</v>
       </c>
       <c r="L16">
-        <v>1.001255797023611</v>
+        <v>1.019712879835657</v>
       </c>
       <c r="M16">
-        <v>1.00540289365956</v>
+        <v>1.031476599335267</v>
       </c>
       <c r="N16">
-        <v>1.002288581747204</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.008099908385316</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.034752760325685</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.027162033980113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>1.05</v>
+      </c>
       <c r="C17">
-        <v>0.970181713490586</v>
+        <v>0.9872410469298805</v>
       </c>
       <c r="D17">
-        <v>0.9875669763884042</v>
+        <v>1.009502138428523</v>
       </c>
       <c r="E17">
-        <v>0.9885465580137994</v>
+        <v>1.00656729665814</v>
       </c>
       <c r="F17">
-        <v>0.9929498402081338</v>
+        <v>1.018433830278276</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="I17">
+        <v>1.044691650831722</v>
+      </c>
       <c r="J17">
-        <v>0.9988360363801281</v>
+        <v>1.01519851919268</v>
       </c>
       <c r="K17">
-        <v>1.001796570877531</v>
+        <v>1.023345587041934</v>
       </c>
       <c r="L17">
-        <v>1.002758432697222</v>
+        <v>1.020461148938269</v>
       </c>
       <c r="M17">
-        <v>1.007082623891763</v>
+        <v>1.032126187325231</v>
       </c>
       <c r="N17">
-        <v>1.002793899936501</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.008347114667211</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.03513658804877</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.027658341082776</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>1.05</v>
+      </c>
       <c r="C18">
-        <v>0.9714725294346506</v>
+        <v>0.9878330171643844</v>
       </c>
       <c r="D18">
-        <v>0.9886571642484344</v>
+        <v>1.009829433568183</v>
       </c>
       <c r="E18">
-        <v>0.9896277097990532</v>
+        <v>1.006902439512757</v>
       </c>
       <c r="F18">
-        <v>0.9941339766397478</v>
+        <v>1.018635363134949</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="I18">
+        <v>1.044743285667331</v>
+      </c>
       <c r="J18">
-        <v>0.9996583451807649</v>
+        <v>1.015363691776082</v>
       </c>
       <c r="K18">
-        <v>1.002674605001245</v>
+        <v>1.023480628114291</v>
       </c>
       <c r="L18">
-        <v>1.003627917036952</v>
+        <v>1.020603082106169</v>
       </c>
       <c r="M18">
-        <v>1.008054739389044</v>
+        <v>1.032139996349763</v>
       </c>
       <c r="N18">
-        <v>1.003086128704131</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.008368600473533</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.034908585418272</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.027742050198799</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
+      <c r="B19">
+        <v>1.05</v>
+      </c>
       <c r="C19">
-        <v>0.9719108546320514</v>
+        <v>0.9876522833866856</v>
       </c>
       <c r="D19">
-        <v>0.9890275295011335</v>
+        <v>1.009559179910672</v>
       </c>
       <c r="E19">
-        <v>0.9899950122051957</v>
+        <v>1.006592680028325</v>
       </c>
       <c r="F19">
-        <v>0.9945362690070965</v>
+        <v>1.018162340328283</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="I19">
+        <v>1.044760460044801</v>
+      </c>
       <c r="J19">
-        <v>0.9999375948057974</v>
+        <v>1.015052619356602</v>
       </c>
       <c r="K19">
-        <v>1.002972811953295</v>
+        <v>1.023151255065755</v>
       </c>
       <c r="L19">
-        <v>1.003923224581117</v>
+        <v>1.020234639201839</v>
       </c>
       <c r="M19">
-        <v>1.008384930936658</v>
+        <v>1.031611860318449</v>
       </c>
       <c r="N19">
-        <v>1.003185350920951</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.008208524538689</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.034163508515694</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.027515638908966</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
+      <c r="B20">
+        <v>1.05</v>
+      </c>
       <c r="C20">
-        <v>0.9699434109507472</v>
+        <v>0.9852718909238432</v>
       </c>
       <c r="D20">
-        <v>0.9873657931626002</v>
+        <v>1.007578535910435</v>
       </c>
       <c r="E20">
-        <v>0.9883470456447352</v>
+        <v>1.004456723988472</v>
       </c>
       <c r="F20">
-        <v>0.9927313245572599</v>
+        <v>1.015807515340608</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="I20">
+        <v>1.044681948034609</v>
+      </c>
       <c r="J20">
-        <v>0.9986842350434281</v>
+        <v>1.013382604666096</v>
       </c>
       <c r="K20">
-        <v>1.001634498401818</v>
+        <v>1.021489422142825</v>
       </c>
       <c r="L20">
-        <v>1.002597940485916</v>
+        <v>1.018421657360141</v>
       </c>
       <c r="M20">
-        <v>1.006903200442941</v>
+        <v>1.029577989182799</v>
       </c>
       <c r="N20">
-        <v>1.002739945705994</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.007527059434855</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.032022544878219</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.026344610602127</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
+      <c r="B21">
+        <v>1.05</v>
+      </c>
       <c r="C21">
-        <v>0.9634168704429188</v>
+        <v>0.9801341448889985</v>
       </c>
       <c r="D21">
-        <v>0.9818655939185621</v>
+        <v>1.00379696442509</v>
       </c>
       <c r="E21">
-        <v>0.9828929320878652</v>
+        <v>1.000441656938188</v>
       </c>
       <c r="F21">
-        <v>0.9867577954624269</v>
+        <v>1.01193986435803</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="I21">
+        <v>1.044396763635349</v>
+      </c>
       <c r="J21">
-        <v>0.9945279461074878</v>
+        <v>1.010486588034398</v>
       </c>
       <c r="K21">
-        <v>0.9971988700473293</v>
+        <v>1.018706757449001</v>
       </c>
       <c r="L21">
-        <v>0.9982058164294032</v>
+        <v>1.015414666821996</v>
       </c>
       <c r="M21">
-        <v>1.001994464728332</v>
+        <v>1.026698508900621</v>
       </c>
       <c r="N21">
-        <v>1.001261848987965</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.006450654807251</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.029702387084908</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.024380397197691</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
+      <c r="B22">
+        <v>1.05</v>
+      </c>
       <c r="C22">
-        <v>0.959207624801948</v>
+        <v>0.9768627054611941</v>
       </c>
       <c r="D22">
-        <v>0.9783282050019704</v>
+        <v>1.001402333445202</v>
       </c>
       <c r="E22">
-        <v>0.9793856001628246</v>
+        <v>0.9979053888749772</v>
       </c>
       <c r="F22">
-        <v>0.9829164483245227</v>
+        <v>1.009514692494625</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="I22">
+        <v>1.044194488544656</v>
+      </c>
       <c r="J22">
-        <v>0.9918488432237429</v>
+        <v>1.008653112229143</v>
       </c>
       <c r="K22">
-        <v>0.9943415663374487</v>
+        <v>1.016946060930536</v>
       </c>
       <c r="L22">
-        <v>0.9953768002880679</v>
+        <v>1.013518454936164</v>
       </c>
       <c r="M22">
-        <v>0.9988341040627075</v>
+        <v>1.024899988903064</v>
       </c>
       <c r="N22">
-        <v>1.000308340069514</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.005769568516288</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.028278955879323</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.023121780606314</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
+      <c r="B23">
+        <v>1.05</v>
+      </c>
       <c r="C23">
-        <v>0.9614494513239098</v>
+        <v>0.9785848414599094</v>
       </c>
       <c r="D23">
-        <v>0.9802112368490333</v>
+        <v>1.002654128500118</v>
       </c>
       <c r="E23">
-        <v>0.9812525909993854</v>
+        <v>0.9992368393645491</v>
       </c>
       <c r="F23">
-        <v>0.9849612449925097</v>
+        <v>1.010787513950114</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="I23">
+        <v>1.044303897290665</v>
+      </c>
       <c r="J23">
-        <v>0.9932755607737003</v>
+        <v>1.009610904918168</v>
       </c>
       <c r="K23">
-        <v>0.995863005572952</v>
+        <v>1.017861592209546</v>
       </c>
       <c r="L23">
-        <v>0.9968831512542687</v>
+        <v>1.01451026736638</v>
       </c>
       <c r="M23">
-        <v>1.000516753384188</v>
+        <v>1.025840321435583</v>
       </c>
       <c r="N23">
-        <v>1.000816181353253</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.006123854387438</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.029023178534646</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.023759340178626</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
+      <c r="B24">
+        <v>1.05</v>
+      </c>
       <c r="C24">
-        <v>0.9700511230964807</v>
+        <v>0.9852604261991122</v>
       </c>
       <c r="D24">
-        <v>0.9874567243635453</v>
+        <v>1.007538967660648</v>
       </c>
       <c r="E24">
-        <v>0.9884372215194561</v>
+        <v>1.004421108411909</v>
       </c>
       <c r="F24">
-        <v>0.992830089519312</v>
+        <v>1.015748322637677</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="I24">
+        <v>1.04468634017905</v>
+      </c>
       <c r="J24">
-        <v>0.9987528485336067</v>
+        <v>1.013337912445471</v>
       </c>
       <c r="K24">
-        <v>1.001707753785166</v>
+        <v>1.021434971542723</v>
       </c>
       <c r="L24">
-        <v>1.002670481522133</v>
+        <v>1.018371026733356</v>
       </c>
       <c r="M24">
-        <v>1.006984297740239</v>
+        <v>1.02950441136795</v>
       </c>
       <c r="N24">
-        <v>1.002764333055912</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.007503312386203</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.031923101140493</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.026278350546764</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
+      <c r="B25">
+        <v>1.05</v>
+      </c>
       <c r="C25">
-        <v>0.9796100380381556</v>
+        <v>0.9927455729971568</v>
       </c>
       <c r="D25">
-        <v>0.9955469388491245</v>
+        <v>1.013053564298529</v>
       </c>
       <c r="E25">
-        <v>0.9964610801901104</v>
+        <v>1.01026924192008</v>
       </c>
       <c r="F25">
-        <v>1.001618644128612</v>
+        <v>1.021353877435417</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="I25">
+        <v>1.045030265302785</v>
+      </c>
       <c r="J25">
-        <v>1.004843644606508</v>
+        <v>1.017519568492138</v>
       </c>
       <c r="K25">
-        <v>1.008214778435073</v>
+        <v>1.025452564571816</v>
       </c>
       <c r="L25">
-        <v>1.009114582873266</v>
+        <v>1.022710205653169</v>
       </c>
       <c r="M25">
-        <v>1.014191884591444</v>
+        <v>1.033629505128267</v>
       </c>
       <c r="N25">
-        <v>1.004927037187491</v>
+        <v>1.009046745451688</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.035187868136558</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.029116160280391</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_9/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_9/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9984750409005017</v>
+        <v>0.9992039820257199</v>
       </c>
       <c r="D2">
-        <v>1.01728008386287</v>
+        <v>1.017703338718118</v>
       </c>
       <c r="E2">
-        <v>1.014764432970799</v>
+        <v>1.015396161240516</v>
       </c>
       <c r="F2">
-        <v>1.025669206945393</v>
+        <v>1.026141055918061</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.045224098310602</v>
+        <v>1.04522409831064</v>
       </c>
       <c r="J2">
-        <v>1.020701459097655</v>
+        <v>1.021408527949385</v>
       </c>
       <c r="K2">
-        <v>1.028503816528615</v>
+        <v>1.028921426658006</v>
       </c>
       <c r="L2">
-        <v>1.026021837634957</v>
+        <v>1.026645090508277</v>
       </c>
       <c r="M2">
-        <v>1.036782147092191</v>
+        <v>1.037247831915346</v>
       </c>
       <c r="N2">
-        <v>1.010213419362272</v>
+        <v>1.012476767399356</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.037682987050615</v>
+        <v>1.038051546717545</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.031224816447054</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.031528967168238</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.01943016289392</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.002560492713943</v>
+        <v>1.003026508803611</v>
       </c>
       <c r="D3">
-        <v>1.020321860304007</v>
+        <v>1.020425226546633</v>
       </c>
       <c r="E3">
-        <v>1.017987956808673</v>
+        <v>1.018382110477906</v>
       </c>
       <c r="F3">
-        <v>1.028768308318101</v>
+        <v>1.029002527363959</v>
       </c>
       <c r="G3">
         <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1.02</v>
       </c>
       <c r="I3">
         <v>1.045318143171977</v>
       </c>
       <c r="J3">
-        <v>1.022981598661046</v>
+        <v>1.023435006793287</v>
       </c>
       <c r="K3">
-        <v>1.030701157936587</v>
+        <v>1.030803266429822</v>
       </c>
       <c r="L3">
-        <v>1.028395737670457</v>
+        <v>1.028785069650947</v>
       </c>
       <c r="M3">
-        <v>1.039045864047586</v>
+        <v>1.039277291311133</v>
       </c>
       <c r="N3">
-        <v>1.011049437485393</v>
+        <v>1.013064203609651</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.039474572036259</v>
+        <v>1.03965773143631</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.032775870512084</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.032856646752524</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.019874061890085</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.005159612783961</v>
+        <v>1.005460907458026</v>
       </c>
       <c r="D4">
-        <v>1.022264229391816</v>
+        <v>1.022165524842007</v>
       </c>
       <c r="E4">
-        <v>1.020045056602726</v>
+        <v>1.020290110015077</v>
       </c>
       <c r="F4">
-        <v>1.030747970864557</v>
+        <v>1.030832638243112</v>
       </c>
       <c r="G4">
         <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1.02</v>
       </c>
       <c r="I4">
         <v>1.045357368412754</v>
       </c>
       <c r="J4">
-        <v>1.024432249706702</v>
+        <v>1.024725946753741</v>
       </c>
       <c r="K4">
-        <v>1.032101170355303</v>
+        <v>1.03200359402093</v>
       </c>
       <c r="L4">
-        <v>1.029907428314419</v>
+        <v>1.030149666814187</v>
       </c>
       <c r="M4">
-        <v>1.040488934982063</v>
+        <v>1.040572654318332</v>
       </c>
       <c r="N4">
-        <v>1.011580193746098</v>
+        <v>1.013437758433515</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.040616666646666</v>
+        <v>1.040682924874337</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.033766722868102</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.033706379721382</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.020154466127002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.006247254012938</v>
+        <v>1.006480031536943</v>
       </c>
       <c r="D5">
-        <v>1.023081313606589</v>
+        <v>1.022898273121159</v>
       </c>
       <c r="E5">
-        <v>1.020908101469906</v>
+        <v>1.021091079766431</v>
       </c>
       <c r="F5">
-        <v>1.031579123315583</v>
+        <v>1.031601458017804</v>
       </c>
       <c r="G5">
         <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1.02</v>
       </c>
       <c r="I5">
         <v>1.045368675785518</v>
       </c>
       <c r="J5">
-        <v>1.025041475495505</v>
+        <v>1.02526855929648</v>
       </c>
       <c r="K5">
-        <v>1.032691102793337</v>
+        <v>1.032510098493584</v>
       </c>
       <c r="L5">
-        <v>1.03054212398676</v>
+        <v>1.030723057010946</v>
       </c>
       <c r="M5">
-        <v>1.041095357453494</v>
+        <v>1.041117448758831</v>
       </c>
       <c r="N5">
-        <v>1.011803223871657</v>
+        <v>1.013594920873786</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.041096609136066</v>
+        <v>1.041114092908395</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.034191089740552</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.034072462932919</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.020272788171243</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.006435695093855</v>
+        <v>1.006656422082908</v>
       </c>
       <c r="D6">
-        <v>1.023226092540736</v>
+        <v>1.023028326130587</v>
       </c>
       <c r="E6">
-        <v>1.021058612785113</v>
+        <v>1.021230669641594</v>
       </c>
       <c r="F6">
-        <v>1.031724250162937</v>
+        <v>1.031735650615037</v>
       </c>
       <c r="G6">
         <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1.02</v>
       </c>
       <c r="I6">
         <v>1.04537027023839</v>
       </c>
       <c r="J6">
-        <v>1.025149693575343</v>
+        <v>1.025365049517725</v>
       </c>
       <c r="K6">
-        <v>1.032797707697014</v>
+        <v>1.032602131135659</v>
       </c>
       <c r="L6">
-        <v>1.030654285194156</v>
+        <v>1.030824427770116</v>
       </c>
       <c r="M6">
-        <v>1.041202739203091</v>
+        <v>1.041214015988772</v>
       </c>
       <c r="N6">
-        <v>1.011843325841688</v>
+        <v>1.013623241174206</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.04118159451587</v>
+        <v>1.041190519327166</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.034275282227347</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.034147218499001</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.020295056187789</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.005191565746644</v>
+        <v>1.005498569673347</v>
       </c>
       <c r="D7">
-        <v>1.022296579618859</v>
+        <v>1.022201666173458</v>
       </c>
       <c r="E7">
-        <v>1.020072834739382</v>
+        <v>1.020322780206289</v>
       </c>
       <c r="F7">
-        <v>1.030775098016454</v>
+        <v>1.030863592886287</v>
       </c>
       <c r="G7">
         <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1.02</v>
       </c>
       <c r="I7">
         <v>1.045357539874439</v>
       </c>
       <c r="J7">
-        <v>1.024457354194683</v>
+        <v>1.024756620080127</v>
       </c>
       <c r="K7">
-        <v>1.032130237167763</v>
+        <v>1.032036408152463</v>
       </c>
       <c r="L7">
-        <v>1.02993196506236</v>
+        <v>1.030179040591779</v>
       </c>
       <c r="M7">
-        <v>1.040512876670615</v>
+        <v>1.040600381039798</v>
       </c>
       <c r="N7">
-        <v>1.011590760818067</v>
+        <v>1.013473837308199</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.040635614884596</v>
+        <v>1.040704868709454</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.033807550380563</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.033751851703326</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.020165123609199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9998874393003162</v>
+        <v>1.000549803709964</v>
       </c>
       <c r="D8">
-        <v>1.018340621275132</v>
+        <v>1.01867302292312</v>
       </c>
       <c r="E8">
-        <v>1.015880701395434</v>
+        <v>1.016451613242917</v>
       </c>
       <c r="F8">
-        <v>1.02674237039642</v>
+        <v>1.027149994350202</v>
       </c>
       <c r="G8">
         <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1.02</v>
       </c>
       <c r="I8">
         <v>1.045260356825638</v>
       </c>
       <c r="J8">
-        <v>1.021498907208034</v>
+        <v>1.022142069343536</v>
       </c>
       <c r="K8">
-        <v>1.029277758505814</v>
+        <v>1.029605860045167</v>
       </c>
       <c r="L8">
-        <v>1.026849770867701</v>
+        <v>1.027413254459571</v>
       </c>
       <c r="M8">
-        <v>1.037571885169177</v>
+        <v>1.037974343559602</v>
       </c>
       <c r="N8">
-        <v>1.010507861128238</v>
+        <v>1.012770552577062</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.038308013969865</v>
+        <v>1.038626533703434</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.031795194214076</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.032038309786764</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.019597520166585</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9901553502180771</v>
+        <v>0.9914644851305702</v>
       </c>
       <c r="D9">
-        <v>1.011127702995652</v>
+        <v>1.012234748670398</v>
       </c>
       <c r="E9">
-        <v>1.008236942796484</v>
+        <v>1.00939039012438</v>
       </c>
       <c r="F9">
-        <v>1.019404373704913</v>
+        <v>1.020391541031696</v>
       </c>
       <c r="G9">
         <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1.02</v>
       </c>
       <c r="I9">
         <v>1.044923609578788</v>
       </c>
       <c r="J9">
-        <v>1.01606060307187</v>
+        <v>1.017322297198763</v>
       </c>
       <c r="K9">
-        <v>1.02404278447923</v>
+        <v>1.025132396049209</v>
       </c>
       <c r="L9">
-        <v>1.021197780131421</v>
+        <v>1.022332930093496</v>
       </c>
       <c r="M9">
-        <v>1.03219028228422</v>
+        <v>1.033162221591517</v>
       </c>
       <c r="N9">
-        <v>1.008506382955117</v>
+        <v>1.011378643799513</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.034048810357115</v>
+        <v>1.034818041698752</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.028090424292557</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.028871736038627</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.018525232977748</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.983495277028824</v>
+        <v>0.9852935149140599</v>
       </c>
       <c r="D10">
-        <v>1.006260408970323</v>
+        <v>1.007929848995951</v>
       </c>
       <c r="E10">
-        <v>1.003073319651943</v>
+        <v>1.004663914527821</v>
       </c>
       <c r="F10">
-        <v>1.014489069763195</v>
+        <v>1.015904510208275</v>
       </c>
       <c r="G10">
         <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1.02</v>
       </c>
       <c r="I10">
         <v>1.044587919160615</v>
       </c>
       <c r="J10">
-        <v>1.012379384645043</v>
+        <v>1.014103019602544</v>
       </c>
       <c r="K10">
-        <v>1.020517542356285</v>
+        <v>1.022157388570675</v>
       </c>
       <c r="L10">
-        <v>1.0173873051933</v>
+        <v>1.018949468074231</v>
       </c>
       <c r="M10">
-        <v>1.028601556304704</v>
+        <v>1.029992421186716</v>
       </c>
       <c r="N10">
-        <v>1.007153456624582</v>
+        <v>1.010563678563658</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.031260435766023</v>
+        <v>1.032361155801699</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.025614812472416</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.02678687025031</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.017810635874554</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9812787780871061</v>
+        <v>0.9832413742432378</v>
       </c>
       <c r="D11">
-        <v>1.004854850970385</v>
+        <v>1.006701762196328</v>
       </c>
       <c r="E11">
-        <v>1.001601054005606</v>
+        <v>1.00333284962507</v>
       </c>
       <c r="F11">
-        <v>1.01333778239</v>
+        <v>1.014889742275167</v>
       </c>
       <c r="G11">
         <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1.02</v>
       </c>
       <c r="I11">
         <v>1.0444161704399</v>
       </c>
       <c r="J11">
-        <v>1.011451667446837</v>
+        <v>1.013328341439984</v>
       </c>
       <c r="K11">
-        <v>1.019685789016119</v>
+        <v>1.021498390185201</v>
       </c>
       <c r="L11">
-        <v>1.016492839823582</v>
+        <v>1.018192185799125</v>
       </c>
       <c r="M11">
-        <v>1.028012476095097</v>
+        <v>1.029536218596457</v>
       </c>
       <c r="N11">
-        <v>1.006869788322297</v>
+        <v>1.010611900834444</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.031234127932231</v>
+        <v>1.032439390583988</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.025059996384723</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.026357393009382</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.017721843625312</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9807286635178303</v>
+        <v>0.9827103120968805</v>
       </c>
       <c r="D12">
-        <v>1.004603631699365</v>
+        <v>1.006471924357415</v>
       </c>
       <c r="E12">
-        <v>1.001356967135416</v>
+        <v>1.003101396413068</v>
       </c>
       <c r="F12">
-        <v>1.013284774410745</v>
+        <v>1.01485100673061</v>
       </c>
       <c r="G12">
         <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1.02</v>
       </c>
       <c r="I12">
         <v>1.044348406001364</v>
       </c>
       <c r="J12">
-        <v>1.011371622608455</v>
+        <v>1.013264865493327</v>
       </c>
       <c r="K12">
-        <v>1.019643161686548</v>
+        <v>1.021476174084205</v>
       </c>
       <c r="L12">
-        <v>1.016458215891222</v>
+        <v>1.018169418798452</v>
       </c>
       <c r="M12">
-        <v>1.028161809368432</v>
+        <v>1.029699110465335</v>
       </c>
       <c r="N12">
-        <v>1.006888614879415</v>
+        <v>1.010730489464387</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.031681059527235</v>
+        <v>1.032896629576763</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.025029856720163</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.026341685498905</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.01776940138187</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9814467074772395</v>
+        <v>0.983322512599888</v>
       </c>
       <c r="D13">
-        <v>1.005250469435713</v>
+        <v>1.007009290102658</v>
       </c>
       <c r="E13">
-        <v>1.002062604046729</v>
+        <v>1.003709033557961</v>
       </c>
       <c r="F13">
-        <v>1.0141012986794</v>
+        <v>1.015577926947275</v>
       </c>
       <c r="G13">
         <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1.02</v>
       </c>
       <c r="I13">
         <v>1.044363121405786</v>
       </c>
       <c r="J13">
-        <v>1.011961995160223</v>
+        <v>1.013754585644257</v>
       </c>
       <c r="K13">
-        <v>1.020234066967955</v>
+        <v>1.021959836931364</v>
       </c>
       <c r="L13">
-        <v>1.01710649273114</v>
+        <v>1.01872172130903</v>
       </c>
       <c r="M13">
-        <v>1.028920092219061</v>
+        <v>1.03036958955195</v>
       </c>
       <c r="N13">
-        <v>1.007151687338458</v>
+        <v>1.010880771323866</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.032559018504678</v>
+        <v>1.033704869393791</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.025445131124421</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.026680885353015</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.017931412181875</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9825253610605411</v>
+        <v>0.9842715970361889</v>
       </c>
       <c r="D14">
-        <v>1.00611260772703</v>
+        <v>1.007736438600709</v>
       </c>
       <c r="E14">
-        <v>1.002987853550638</v>
+        <v>1.00451668590224</v>
       </c>
       <c r="F14">
-        <v>1.015068115091571</v>
+        <v>1.016435879892767</v>
       </c>
       <c r="G14">
         <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1.02</v>
       </c>
       <c r="I14">
         <v>1.044410650012188</v>
       </c>
       <c r="J14">
-        <v>1.012680340472633</v>
+        <v>1.014350269808946</v>
       </c>
       <c r="K14">
-        <v>1.020936981453192</v>
+        <v>1.022530696519869</v>
       </c>
       <c r="L14">
-        <v>1.017870537654765</v>
+        <v>1.019370781638121</v>
       </c>
       <c r="M14">
-        <v>1.02972795929658</v>
+        <v>1.031070927565561</v>
       </c>
       <c r="N14">
-        <v>1.007447201321541</v>
+        <v>1.011002354516022</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.033371827457527</v>
+        <v>1.034433321048533</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.025943569964919</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.027086082320546</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.018097877989519</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.983071227078535</v>
+        <v>0.9847591352507375</v>
       </c>
       <c r="D15">
-        <v>1.006528818050648</v>
+        <v>1.008091267613385</v>
       </c>
       <c r="E15">
-        <v>1.003429568213614</v>
+        <v>1.004906085085422</v>
       </c>
       <c r="F15">
-        <v>1.015507653736959</v>
+        <v>1.016826457404486</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.044439407833738</v>
+        <v>1.044439407833787</v>
       </c>
       <c r="J15">
-        <v>1.013010156818775</v>
+        <v>1.014624970481557</v>
       </c>
       <c r="K15">
-        <v>1.021257402541813</v>
+        <v>1.022791101907831</v>
       </c>
       <c r="L15">
-        <v>1.018215526727039</v>
+        <v>1.019664652430959</v>
       </c>
       <c r="M15">
-        <v>1.030072589454137</v>
+        <v>1.031367672797127</v>
       </c>
       <c r="N15">
-        <v>1.007575763970602</v>
+        <v>1.011044530824563</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.033681925942553</v>
+        <v>1.034705543839774</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.026176067890672</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.027276708361911</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.018166991700066</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9857492662943615</v>
+        <v>0.9871948260861502</v>
       </c>
       <c r="D16">
-        <v>1.008465512510855</v>
+        <v>1.009766279425165</v>
       </c>
       <c r="E16">
-        <v>1.00547822617008</v>
+        <v>1.006740337983555</v>
       </c>
       <c r="F16">
-        <v>1.017451216001849</v>
+        <v>1.018565394731441</v>
       </c>
       <c r="G16">
         <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1.02</v>
       </c>
       <c r="I16">
         <v>1.044598761177637</v>
       </c>
       <c r="J16">
-        <v>1.01446128818657</v>
+        <v>1.015847426552731</v>
       </c>
       <c r="K16">
-        <v>1.022647349666613</v>
+        <v>1.023925245021626</v>
       </c>
       <c r="L16">
-        <v>1.019712879835657</v>
+        <v>1.02095262737099</v>
       </c>
       <c r="M16">
-        <v>1.031476599335267</v>
+        <v>1.032571627273072</v>
       </c>
       <c r="N16">
-        <v>1.008099908385316</v>
+        <v>1.011182448486363</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.034752760325685</v>
+        <v>1.035618281946456</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.027162033980113</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.028082097385082</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.018428145547934</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9872410469298805</v>
+        <v>0.9885779264265774</v>
       </c>
       <c r="D17">
-        <v>1.009502138428523</v>
+        <v>1.010680268231509</v>
       </c>
       <c r="E17">
-        <v>1.00656729665814</v>
+        <v>1.0077345407154</v>
       </c>
       <c r="F17">
-        <v>1.018433830278276</v>
+        <v>1.019454795343126</v>
       </c>
       <c r="G17">
         <v>1</v>
+      </c>
+      <c r="H17">
+        <v>1.02</v>
       </c>
       <c r="I17">
         <v>1.044691650831722</v>
       </c>
       <c r="J17">
-        <v>1.01519851919268</v>
+        <v>1.016482226519619</v>
       </c>
       <c r="K17">
-        <v>1.023345587041934</v>
+        <v>1.024503589718768</v>
       </c>
       <c r="L17">
-        <v>1.020461148938269</v>
+        <v>1.021608301014249</v>
       </c>
       <c r="M17">
-        <v>1.032126187325231</v>
+        <v>1.033130098626139</v>
       </c>
       <c r="N17">
-        <v>1.008347114667211</v>
+        <v>1.011254599239489</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.03513658804877</v>
+        <v>1.035930169825202</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.027658341082776</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.028493876748942</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.018543235534423</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9878330171643844</v>
+        <v>0.9891557537145768</v>
       </c>
       <c r="D18">
-        <v>1.009829433568183</v>
+        <v>1.010986094607238</v>
       </c>
       <c r="E18">
-        <v>1.006902439512757</v>
+        <v>1.008059904399719</v>
       </c>
       <c r="F18">
-        <v>1.018635363134949</v>
+        <v>1.019643270989258</v>
       </c>
       <c r="G18">
         <v>1</v>
+      </c>
+      <c r="H18">
+        <v>1.02</v>
       </c>
       <c r="I18">
         <v>1.044743285667331</v>
       </c>
       <c r="J18">
-        <v>1.015363691776082</v>
+        <v>1.016634797640136</v>
       </c>
       <c r="K18">
-        <v>1.023480628114291</v>
+        <v>1.024617850511342</v>
       </c>
       <c r="L18">
-        <v>1.020603082106169</v>
+        <v>1.021740948725517</v>
       </c>
       <c r="M18">
-        <v>1.032139996349763</v>
+        <v>1.033131336738908</v>
       </c>
       <c r="N18">
-        <v>1.008368600473533</v>
+        <v>1.011230032490654</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.034908585418272</v>
+        <v>1.035692394913937</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.027742050198799</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.02856176533263</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.018530446667453</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9876522833866856</v>
+        <v>0.9890327073867239</v>
       </c>
       <c r="D19">
-        <v>1.009559179910672</v>
+        <v>1.010774219048467</v>
       </c>
       <c r="E19">
-        <v>1.006592680028325</v>
+        <v>1.007805076643359</v>
       </c>
       <c r="F19">
-        <v>1.018162340328283</v>
+        <v>1.019219270253717</v>
       </c>
       <c r="G19">
         <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1.02</v>
       </c>
       <c r="I19">
         <v>1.044760460044801</v>
       </c>
       <c r="J19">
-        <v>1.015052619356602</v>
+        <v>1.016379453810241</v>
       </c>
       <c r="K19">
-        <v>1.023151255065755</v>
+        <v>1.024345971280393</v>
       </c>
       <c r="L19">
-        <v>1.020234639201839</v>
+        <v>1.021426602657313</v>
       </c>
       <c r="M19">
-        <v>1.031611860318449</v>
+        <v>1.032651490174905</v>
       </c>
       <c r="N19">
-        <v>1.008208524538689</v>
+        <v>1.011112442595503</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.034163508515694</v>
+        <v>1.034985770094809</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.027515638908966</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.028376628436944</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.018416731043085</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9852718909238432</v>
+        <v>0.9869125237849415</v>
       </c>
       <c r="D20">
-        <v>1.007578535910435</v>
+        <v>1.009076443033621</v>
       </c>
       <c r="E20">
-        <v>1.004456723988472</v>
+        <v>1.00590676734378</v>
       </c>
       <c r="F20">
-        <v>1.015807515340608</v>
+        <v>1.017088642577061</v>
       </c>
       <c r="G20">
         <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1.02</v>
       </c>
       <c r="I20">
         <v>1.044681948034609</v>
       </c>
       <c r="J20">
-        <v>1.013382604666096</v>
+        <v>1.014957437475865</v>
       </c>
       <c r="K20">
-        <v>1.021489422142825</v>
+        <v>1.022961549851342</v>
       </c>
       <c r="L20">
-        <v>1.018421657360141</v>
+        <v>1.019846542499324</v>
       </c>
       <c r="M20">
-        <v>1.029577989182799</v>
+        <v>1.030837519944682</v>
       </c>
       <c r="N20">
-        <v>1.007527059434855</v>
+        <v>1.010715032565964</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.032022544878219</v>
+        <v>1.033019340057234</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.026344610602127</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.027402142501584</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.018008685319261</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9801341448889985</v>
+        <v>0.982284569400252</v>
       </c>
       <c r="D21">
-        <v>1.00379696442509</v>
+        <v>1.005836551545392</v>
       </c>
       <c r="E21">
-        <v>1.000441656938188</v>
+        <v>1.002346733686829</v>
       </c>
       <c r="F21">
-        <v>1.01193986435803</v>
+        <v>1.013650405604096</v>
       </c>
       <c r="G21">
         <v>1</v>
+      </c>
+      <c r="H21">
+        <v>1.02</v>
       </c>
       <c r="I21">
         <v>1.044396763635349</v>
       </c>
       <c r="J21">
-        <v>1.010486588034398</v>
+        <v>1.012542103178739</v>
       </c>
       <c r="K21">
-        <v>1.018706757449001</v>
+        <v>1.020708185971538</v>
       </c>
       <c r="L21">
-        <v>1.015414666821996</v>
+        <v>1.017283782456404</v>
       </c>
       <c r="M21">
-        <v>1.026698508900621</v>
+        <v>1.028377700926174</v>
       </c>
       <c r="N21">
-        <v>1.006450654807251</v>
+        <v>1.010432020850049</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.029702387084908</v>
+        <v>1.03103137402084</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.024380397197691</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.025812514327591</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.017463641860413</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9768627054611941</v>
+        <v>0.9793386096955494</v>
       </c>
       <c r="D22">
-        <v>1.001402333445202</v>
+        <v>1.003786465941308</v>
       </c>
       <c r="E22">
-        <v>0.9979053888749772</v>
+        <v>1.000100984152674</v>
       </c>
       <c r="F22">
-        <v>1.009514692494625</v>
+        <v>1.01149898232749</v>
       </c>
       <c r="G22">
         <v>1</v>
+      </c>
+      <c r="H22">
+        <v>1.02</v>
       </c>
       <c r="I22">
         <v>1.044194488544656</v>
       </c>
       <c r="J22">
-        <v>1.008653112229143</v>
+        <v>1.011013221801659</v>
       </c>
       <c r="K22">
-        <v>1.016946060930536</v>
+        <v>1.0192832835544</v>
       </c>
       <c r="L22">
-        <v>1.013518454936164</v>
+        <v>1.015670440792704</v>
       </c>
       <c r="M22">
-        <v>1.024899988903064</v>
+        <v>1.026846032862593</v>
       </c>
       <c r="N22">
-        <v>1.005769568516288</v>
+        <v>1.010248056695611</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.028278955879323</v>
+        <v>1.029819144183819</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.023121780606314</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.024790048974718</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.017118587096188</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9785848414599094</v>
+        <v>0.9808756672735648</v>
       </c>
       <c r="D23">
-        <v>1.002654128500118</v>
+        <v>1.004845657942207</v>
       </c>
       <c r="E23">
-        <v>0.9992368393645491</v>
+        <v>1.001267203239647</v>
       </c>
       <c r="F23">
-        <v>1.010787513950114</v>
+        <v>1.012617447629218</v>
       </c>
       <c r="G23">
         <v>1</v>
+      </c>
+      <c r="H23">
+        <v>1.02</v>
       </c>
       <c r="I23">
         <v>1.044303897290665</v>
       </c>
       <c r="J23">
-        <v>1.009610904918168</v>
+        <v>1.011797805764944</v>
       </c>
       <c r="K23">
-        <v>1.017861592209546</v>
+        <v>1.020011127300982</v>
       </c>
       <c r="L23">
-        <v>1.01451026736638</v>
+        <v>1.016501367800057</v>
       </c>
       <c r="M23">
-        <v>1.025840321435583</v>
+        <v>1.027635905901513</v>
       </c>
       <c r="N23">
-        <v>1.006123854387438</v>
+        <v>1.010296270393808</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.029023178534646</v>
+        <v>1.030444284899759</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.023759340178626</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.025293963598183</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.017290985535063</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9852604261991122</v>
+        <v>0.9869077524501982</v>
       </c>
       <c r="D24">
-        <v>1.007538967660648</v>
+        <v>1.009043504926826</v>
       </c>
       <c r="E24">
-        <v>1.004421108411909</v>
+        <v>1.005877593686345</v>
       </c>
       <c r="F24">
-        <v>1.015748322637677</v>
+        <v>1.01703521027671</v>
       </c>
       <c r="G24">
         <v>1</v>
+      </c>
+      <c r="H24">
+        <v>1.02</v>
       </c>
       <c r="I24">
         <v>1.04468634017905</v>
       </c>
       <c r="J24">
-        <v>1.013337912445471</v>
+        <v>1.01491926181324</v>
       </c>
       <c r="K24">
-        <v>1.021434971542723</v>
+        <v>1.022913646190006</v>
       </c>
       <c r="L24">
-        <v>1.018371026733356</v>
+        <v>1.019802272454222</v>
       </c>
       <c r="M24">
-        <v>1.02950441136795</v>
+        <v>1.030769630168611</v>
       </c>
       <c r="N24">
-        <v>1.007503312386203</v>
+        <v>1.010694672738491</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.031923101140493</v>
+        <v>1.03292444837786</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.026278350546764</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.027337860594985</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.017987921429327</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9927455729971568</v>
+        <v>0.9938683597080747</v>
       </c>
       <c r="D25">
-        <v>1.013053564298529</v>
+        <v>1.013943786692675</v>
       </c>
       <c r="E25">
-        <v>1.01026924192008</v>
+        <v>1.011255387144326</v>
       </c>
       <c r="F25">
-        <v>1.021353877435417</v>
+        <v>1.022176580760313</v>
       </c>
       <c r="G25">
         <v>1</v>
+      </c>
+      <c r="H25">
+        <v>1.02</v>
       </c>
       <c r="I25">
         <v>1.045030265302785</v>
       </c>
       <c r="J25">
-        <v>1.017519568492138</v>
+        <v>1.018603854827267</v>
       </c>
       <c r="K25">
-        <v>1.025452564571816</v>
+        <v>1.02632943200072</v>
       </c>
       <c r="L25">
-        <v>1.022710205653169</v>
+        <v>1.023681454694243</v>
       </c>
       <c r="M25">
-        <v>1.033629505128267</v>
+        <v>1.034440118681158</v>
       </c>
       <c r="N25">
-        <v>1.009046745451688</v>
+        <v>1.011720312528121</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.035187868136558</v>
+        <v>1.035829418896966</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.029116160280391</v>
+        <v>1.029749825608655</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.018817239733163</v>
       </c>
     </row>
   </sheetData>
